--- a/Academy_LMS_Kodezen.xlsx
+++ b/Academy_LMS_Kodezen.xlsx
@@ -14,9 +14,9 @@
   <sheets>
     <sheet name="Bug Report" sheetId="5" r:id="rId1"/>
     <sheet name="TestCase" sheetId="4" r:id="rId2"/>
-    <sheet name="Report" sheetId="3" r:id="rId3"/>
-    <sheet name="Test Metrics" sheetId="6" r:id="rId4"/>
-    <sheet name="Test Plan" sheetId="1" r:id="rId5"/>
+    <sheet name="Test Metrics" sheetId="6" r:id="rId3"/>
+    <sheet name="Test Plan" sheetId="1" r:id="rId4"/>
+    <sheet name="Report" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="Remember_Me_checkbox_error">TestCase!#REF!</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="234">
   <si>
     <t>Test Case Report</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>Testing Scope</t>
-  </si>
-  <si>
-    <t>Testing Environment :</t>
   </si>
   <si>
     <t>Reviewed By</t>
@@ -396,9 +393,6 @@
   </si>
   <si>
     <t>Manan Ahmed Broti</t>
-  </si>
-  <si>
-    <t>Academy LMS (Plugin)</t>
   </si>
   <si>
     <t>27/11/2023</t>
@@ -722,12 +716,6 @@
   </si>
   <si>
     <t>(0/13)*100 = 0</t>
-  </si>
-  <si>
-    <t>(13/4)*100 = 87.09</t>
-  </si>
-  <si>
-    <t>(9/13)*100 = 12.90</t>
   </si>
   <si>
     <t># SL 01</t>
@@ -1440,6 +1428,18 @@
       </rPr>
       <t>Instructor Commision Percentage</t>
     </r>
+  </si>
+  <si>
+    <t>Academy LMS 1.9.8 (WordPress Plugin)</t>
+  </si>
+  <si>
+    <t>Testing Environment</t>
+  </si>
+  <si>
+    <t>(4/13)*100 = 30.76</t>
+  </si>
+  <si>
+    <t>(9/13)*100 = 69.23</t>
   </si>
 </sst>
 </file>
@@ -1792,7 +1792,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="29">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1958,6 +1958,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2358,7 +2364,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="39" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="314">
+  <cellXfs count="312">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2991,9 +2997,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="26" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3045,12 +3048,6 @@
     <xf numFmtId="0" fontId="38" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3063,13 +3060,7 @@
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -3208,6 +3199,13 @@
     <xf numFmtId="0" fontId="11" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="35" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3584,6 +3582,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3671,6 +3670,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:spPr>
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
@@ -3698,7 +3698,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-FF29-49CA-8DC2-E12A10C7CE75}"/>
                 </c:ext>
@@ -3706,6 +3708,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
+              <c:layout/>
               <c:spPr>
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
@@ -3733,7 +3736,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-FF29-49CA-8DC2-E12A10C7CE75}"/>
                 </c:ext>
@@ -3741,6 +3746,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
+              <c:layout/>
               <c:spPr>
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
@@ -3768,7 +3774,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-FF29-49CA-8DC2-E12A10C7CE75}"/>
                 </c:ext>
@@ -3776,6 +3784,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
+              <c:layout/>
               <c:spPr>
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
@@ -3803,7 +3812,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-FF29-49CA-8DC2-E12A10C7CE75}"/>
                 </c:ext>
@@ -3911,6 +3922,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -4272,8 +4284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L36"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView topLeftCell="A15" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.8"/>
@@ -4288,373 +4300,373 @@
   <sheetData>
     <row r="2" spans="2:12" ht="14.4" thickBot="1"/>
     <row r="3" spans="2:12" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B3" s="272" t="s">
+      <c r="B3" s="267" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="267"/>
+      <c r="E3" s="267" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="267"/>
+      <c r="H3" s="267" t="s">
+        <v>83</v>
+      </c>
+      <c r="I3" s="267"/>
+      <c r="K3" s="267" t="s">
+        <v>83</v>
+      </c>
+      <c r="L3" s="267"/>
+    </row>
+    <row r="4" spans="2:12" ht="14.4" customHeight="1" thickBot="1">
+      <c r="B4" s="267"/>
+      <c r="C4" s="267"/>
+      <c r="E4" s="267"/>
+      <c r="F4" s="267"/>
+      <c r="H4" s="267"/>
+      <c r="I4" s="267"/>
+      <c r="K4" s="267"/>
+      <c r="L4" s="267"/>
+    </row>
+    <row r="5" spans="2:12" ht="14.4" customHeight="1" thickBot="1">
+      <c r="B5" s="267"/>
+      <c r="C5" s="267"/>
+      <c r="E5" s="267"/>
+      <c r="F5" s="267"/>
+      <c r="H5" s="267"/>
+      <c r="I5" s="267"/>
+      <c r="K5" s="267"/>
+      <c r="L5" s="267"/>
+    </row>
+    <row r="6" spans="2:12" ht="14.4" customHeight="1" thickBot="1">
+      <c r="B6" s="267"/>
+      <c r="C6" s="267"/>
+      <c r="E6" s="267"/>
+      <c r="F6" s="267"/>
+      <c r="H6" s="267"/>
+      <c r="I6" s="267"/>
+      <c r="K6" s="267"/>
+      <c r="L6" s="267"/>
+    </row>
+    <row r="7" spans="2:12" ht="15" customHeight="1">
+      <c r="B7" s="268" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" s="268"/>
+      <c r="E7" s="268" t="s">
+        <v>189</v>
+      </c>
+      <c r="F7" s="268"/>
+      <c r="H7" s="268" t="s">
+        <v>193</v>
+      </c>
+      <c r="I7" s="268"/>
+      <c r="K7" s="268" t="s">
+        <v>198</v>
+      </c>
+      <c r="L7" s="268"/>
+    </row>
+    <row r="8" spans="2:12" ht="18.75" customHeight="1">
+      <c r="B8" s="268"/>
+      <c r="C8" s="268"/>
+      <c r="E8" s="268"/>
+      <c r="F8" s="268"/>
+      <c r="H8" s="268"/>
+      <c r="I8" s="268"/>
+      <c r="K8" s="268"/>
+      <c r="L8" s="268"/>
+    </row>
+    <row r="9" spans="2:12" ht="13.5" customHeight="1">
+      <c r="B9" s="269" t="s">
+        <v>185</v>
+      </c>
+      <c r="C9" s="270"/>
+      <c r="E9" s="269" t="s">
+        <v>190</v>
+      </c>
+      <c r="F9" s="270"/>
+      <c r="H9" s="269" t="s">
+        <v>195</v>
+      </c>
+      <c r="I9" s="270"/>
+      <c r="K9" s="269" t="s">
+        <v>202</v>
+      </c>
+      <c r="L9" s="270"/>
+    </row>
+    <row r="10" spans="2:12" ht="50.4" customHeight="1">
+      <c r="B10" s="270"/>
+      <c r="C10" s="270"/>
+      <c r="E10" s="270"/>
+      <c r="F10" s="270"/>
+      <c r="H10" s="270"/>
+      <c r="I10" s="270"/>
+      <c r="K10" s="270"/>
+      <c r="L10" s="270"/>
+    </row>
+    <row r="11" spans="2:12" ht="21" customHeight="1">
+      <c r="B11" s="271" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="272"/>
-      <c r="E3" s="272" t="s">
+      <c r="C11" s="271"/>
+      <c r="E11" s="271" t="s">
         <v>84</v>
       </c>
-      <c r="F3" s="272"/>
-      <c r="H3" s="272" t="s">
+      <c r="F11" s="271"/>
+      <c r="H11" s="271" t="s">
         <v>84</v>
       </c>
-      <c r="I3" s="272"/>
-      <c r="K3" s="272" t="s">
+      <c r="I11" s="271"/>
+      <c r="K11" s="271" t="s">
         <v>84</v>
       </c>
-      <c r="L3" s="272"/>
-    </row>
-    <row r="4" spans="2:12" ht="14.4" customHeight="1" thickBot="1">
-      <c r="B4" s="272"/>
-      <c r="C4" s="272"/>
-      <c r="E4" s="272"/>
-      <c r="F4" s="272"/>
-      <c r="H4" s="272"/>
-      <c r="I4" s="272"/>
-      <c r="K4" s="272"/>
-      <c r="L4" s="272"/>
-    </row>
-    <row r="5" spans="2:12" ht="14.4" customHeight="1" thickBot="1">
-      <c r="B5" s="272"/>
-      <c r="C5" s="272"/>
-      <c r="E5" s="272"/>
-      <c r="F5" s="272"/>
-      <c r="H5" s="272"/>
-      <c r="I5" s="272"/>
-      <c r="K5" s="272"/>
-      <c r="L5" s="272"/>
-    </row>
-    <row r="6" spans="2:12" ht="14.4" customHeight="1" thickBot="1">
-      <c r="B6" s="272"/>
-      <c r="C6" s="272"/>
-      <c r="E6" s="272"/>
-      <c r="F6" s="272"/>
-      <c r="H6" s="272"/>
-      <c r="I6" s="272"/>
-      <c r="K6" s="272"/>
-      <c r="L6" s="272"/>
-    </row>
-    <row r="7" spans="2:12" ht="15" customHeight="1">
-      <c r="B7" s="273" t="s">
-        <v>185</v>
-      </c>
-      <c r="C7" s="273"/>
-      <c r="E7" s="273" t="s">
-        <v>193</v>
-      </c>
-      <c r="F7" s="273"/>
-      <c r="H7" s="273" t="s">
-        <v>197</v>
-      </c>
-      <c r="I7" s="273"/>
-      <c r="K7" s="273" t="s">
-        <v>202</v>
-      </c>
-      <c r="L7" s="273"/>
-    </row>
-    <row r="8" spans="2:12" ht="18.75" customHeight="1">
-      <c r="B8" s="273"/>
-      <c r="C8" s="273"/>
-      <c r="E8" s="273"/>
-      <c r="F8" s="273"/>
-      <c r="H8" s="273"/>
-      <c r="I8" s="273"/>
-      <c r="K8" s="273"/>
-      <c r="L8" s="273"/>
-    </row>
-    <row r="9" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B9" s="274" t="s">
-        <v>189</v>
-      </c>
-      <c r="C9" s="275"/>
-      <c r="E9" s="274" t="s">
-        <v>194</v>
-      </c>
-      <c r="F9" s="275"/>
-      <c r="H9" s="274" t="s">
-        <v>199</v>
-      </c>
-      <c r="I9" s="275"/>
-      <c r="K9" s="274" t="s">
-        <v>206</v>
-      </c>
-      <c r="L9" s="275"/>
-    </row>
-    <row r="10" spans="2:12" ht="50.4" customHeight="1">
-      <c r="B10" s="275"/>
-      <c r="C10" s="275"/>
-      <c r="E10" s="275"/>
-      <c r="F10" s="275"/>
-      <c r="H10" s="275"/>
-      <c r="I10" s="275"/>
-      <c r="K10" s="275"/>
-      <c r="L10" s="275"/>
-    </row>
-    <row r="11" spans="2:12" ht="21" customHeight="1">
-      <c r="B11" s="276" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="276"/>
-      <c r="E11" s="276" t="s">
-        <v>85</v>
-      </c>
-      <c r="F11" s="276"/>
-      <c r="H11" s="276" t="s">
-        <v>85</v>
-      </c>
-      <c r="I11" s="276"/>
-      <c r="K11" s="276" t="s">
-        <v>85</v>
-      </c>
-      <c r="L11" s="276"/>
+      <c r="L11" s="271"/>
     </row>
     <row r="12" spans="2:12" ht="111.6" customHeight="1">
       <c r="B12" s="233" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C12" s="234"/>
       <c r="E12" s="233" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F12" s="234"/>
       <c r="H12" s="233" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="I12" s="234"/>
       <c r="K12" s="233" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L12" s="234"/>
     </row>
     <row r="13" spans="2:12" ht="27" customHeight="1">
       <c r="B13" s="235" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C13" s="234"/>
       <c r="E13" s="235" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F13" s="234"/>
       <c r="H13" s="235" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I13" s="234"/>
       <c r="K13" s="235" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="L13" s="234"/>
     </row>
     <row r="14" spans="2:12" ht="27" customHeight="1">
       <c r="B14" s="236" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C14" s="234"/>
       <c r="E14" s="236" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F14" s="234"/>
       <c r="H14" s="236" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I14" s="234"/>
       <c r="K14" s="236" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="L14" s="234"/>
     </row>
     <row r="15" spans="2:12" ht="27" customHeight="1">
       <c r="B15" s="236" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C15" s="234"/>
       <c r="E15" s="236" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F15" s="234"/>
       <c r="H15" s="236" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="I15" s="234"/>
       <c r="K15" s="236" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="L15" s="234"/>
     </row>
     <row r="16" spans="2:12" s="237" customFormat="1" ht="27" customHeight="1">
-      <c r="B16" s="238" t="s">
-        <v>221</v>
+      <c r="B16" s="309" t="s">
+        <v>217</v>
       </c>
       <c r="C16" s="234"/>
-      <c r="E16" s="238" t="s">
-        <v>222</v>
+      <c r="E16" s="309" t="s">
+        <v>218</v>
       </c>
       <c r="F16" s="234"/>
-      <c r="H16" s="238" t="s">
-        <v>223</v>
+      <c r="H16" s="310" t="s">
+        <v>219</v>
       </c>
       <c r="I16" s="234"/>
-      <c r="K16" s="238" t="s">
-        <v>224</v>
+      <c r="K16" s="310" t="s">
+        <v>220</v>
       </c>
       <c r="L16" s="234"/>
     </row>
     <row r="17" spans="2:12" ht="27" customHeight="1" thickBot="1">
-      <c r="B17" s="239" t="s">
-        <v>191</v>
-      </c>
-      <c r="C17" s="240"/>
-      <c r="E17" s="239" t="s">
-        <v>191</v>
-      </c>
-      <c r="F17" s="240"/>
-      <c r="H17" s="239" t="s">
-        <v>191</v>
-      </c>
-      <c r="I17" s="240"/>
-      <c r="K17" s="239" t="s">
-        <v>191</v>
-      </c>
-      <c r="L17" s="240"/>
+      <c r="B17" s="238" t="s">
+        <v>187</v>
+      </c>
+      <c r="C17" s="239"/>
+      <c r="E17" s="238" t="s">
+        <v>187</v>
+      </c>
+      <c r="F17" s="239"/>
+      <c r="H17" s="238" t="s">
+        <v>187</v>
+      </c>
+      <c r="I17" s="239"/>
+      <c r="K17" s="238" t="s">
+        <v>187</v>
+      </c>
+      <c r="L17" s="239"/>
     </row>
     <row r="18" spans="2:12" ht="14.4" thickBot="1"/>
     <row r="19" spans="2:12" ht="14.4" customHeight="1" thickBot="1">
-      <c r="B19" s="272" t="s">
+      <c r="B19" s="267" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="267"/>
+      <c r="E19" s="267" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="267"/>
+    </row>
+    <row r="20" spans="2:12" ht="14.4" customHeight="1" thickBot="1">
+      <c r="B20" s="267"/>
+      <c r="C20" s="267"/>
+      <c r="E20" s="267"/>
+      <c r="F20" s="267"/>
+    </row>
+    <row r="21" spans="2:12" ht="14.4" customHeight="1" thickBot="1">
+      <c r="B21" s="267"/>
+      <c r="C21" s="267"/>
+      <c r="E21" s="267"/>
+      <c r="F21" s="267"/>
+    </row>
+    <row r="22" spans="2:12" ht="14.4" customHeight="1" thickBot="1">
+      <c r="B22" s="267"/>
+      <c r="C22" s="267"/>
+      <c r="E22" s="267"/>
+      <c r="F22" s="267"/>
+    </row>
+    <row r="23" spans="2:12" ht="13.8" customHeight="1">
+      <c r="B23" s="268" t="s">
+        <v>206</v>
+      </c>
+      <c r="C23" s="268"/>
+      <c r="E23" s="268" t="s">
+        <v>206</v>
+      </c>
+      <c r="F23" s="268"/>
+    </row>
+    <row r="24" spans="2:12" ht="13.8" customHeight="1">
+      <c r="B24" s="268"/>
+      <c r="C24" s="268"/>
+      <c r="E24" s="268"/>
+      <c r="F24" s="268"/>
+    </row>
+    <row r="25" spans="2:12" ht="49.2" customHeight="1">
+      <c r="B25" s="269" t="s">
+        <v>211</v>
+      </c>
+      <c r="C25" s="270"/>
+      <c r="E25" s="269" t="s">
+        <v>213</v>
+      </c>
+      <c r="F25" s="270"/>
+    </row>
+    <row r="26" spans="2:12" ht="13.8" customHeight="1">
+      <c r="B26" s="270"/>
+      <c r="C26" s="270"/>
+      <c r="E26" s="270"/>
+      <c r="F26" s="270"/>
+    </row>
+    <row r="27" spans="2:12" ht="14.4">
+      <c r="B27" s="271" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="272"/>
-      <c r="E19" s="272" t="s">
+      <c r="C27" s="271"/>
+      <c r="E27" s="271" t="s">
         <v>84</v>
       </c>
-      <c r="F19" s="272"/>
-    </row>
-    <row r="20" spans="2:12" ht="14.4" customHeight="1" thickBot="1">
-      <c r="B20" s="272"/>
-      <c r="C20" s="272"/>
-      <c r="E20" s="272"/>
-      <c r="F20" s="272"/>
-    </row>
-    <row r="21" spans="2:12" ht="14.4" customHeight="1" thickBot="1">
-      <c r="B21" s="272"/>
-      <c r="C21" s="272"/>
-      <c r="E21" s="272"/>
-      <c r="F21" s="272"/>
-    </row>
-    <row r="22" spans="2:12" ht="14.4" customHeight="1" thickBot="1">
-      <c r="B22" s="272"/>
-      <c r="C22" s="272"/>
-      <c r="E22" s="272"/>
-      <c r="F22" s="272"/>
-    </row>
-    <row r="23" spans="2:12" ht="13.8" customHeight="1">
-      <c r="B23" s="273" t="s">
-        <v>210</v>
-      </c>
-      <c r="C23" s="273"/>
-      <c r="E23" s="273" t="s">
-        <v>210</v>
-      </c>
-      <c r="F23" s="273"/>
-    </row>
-    <row r="24" spans="2:12" ht="13.8" customHeight="1">
-      <c r="B24" s="273"/>
-      <c r="C24" s="273"/>
-      <c r="E24" s="273"/>
-      <c r="F24" s="273"/>
-    </row>
-    <row r="25" spans="2:12" ht="49.2" customHeight="1">
-      <c r="B25" s="274" t="s">
-        <v>215</v>
-      </c>
-      <c r="C25" s="275"/>
-      <c r="E25" s="274" t="s">
-        <v>217</v>
-      </c>
-      <c r="F25" s="275"/>
-    </row>
-    <row r="26" spans="2:12" ht="13.8" customHeight="1">
-      <c r="B26" s="275"/>
-      <c r="C26" s="275"/>
-      <c r="E26" s="275"/>
-      <c r="F26" s="275"/>
-    </row>
-    <row r="27" spans="2:12" ht="14.4">
-      <c r="B27" s="276" t="s">
-        <v>85</v>
-      </c>
-      <c r="C27" s="276"/>
-      <c r="E27" s="276" t="s">
-        <v>85</v>
-      </c>
-      <c r="F27" s="276"/>
+      <c r="F27" s="271"/>
     </row>
     <row r="28" spans="2:12" ht="172.8">
       <c r="B28" s="233" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C28" s="234"/>
       <c r="E28" s="233" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F28" s="234"/>
     </row>
     <row r="29" spans="2:12" ht="14.4">
       <c r="B29" s="235" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C29" s="234"/>
       <c r="E29" s="235" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F29" s="234"/>
     </row>
     <row r="30" spans="2:12" ht="14.4">
       <c r="B30" s="236" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C30" s="234"/>
       <c r="E30" s="236" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F30" s="234"/>
     </row>
     <row r="31" spans="2:12" ht="14.4">
       <c r="B31" s="236" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C31" s="234"/>
       <c r="E31" s="236" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F31" s="234"/>
     </row>
     <row r="32" spans="2:12">
-      <c r="B32" s="238" t="s">
-        <v>225</v>
+      <c r="B32" s="309" t="s">
+        <v>221</v>
       </c>
       <c r="C32" s="234"/>
-      <c r="E32" s="238" t="s">
-        <v>226</v>
+      <c r="E32" s="309" t="s">
+        <v>222</v>
       </c>
       <c r="F32" s="234"/>
     </row>
     <row r="33" spans="2:6" ht="15" thickBot="1">
-      <c r="B33" s="239" t="s">
-        <v>191</v>
-      </c>
-      <c r="C33" s="240"/>
-      <c r="E33" s="239" t="s">
-        <v>191</v>
-      </c>
-      <c r="F33" s="240"/>
+      <c r="B33" s="238" t="s">
+        <v>187</v>
+      </c>
+      <c r="C33" s="239"/>
+      <c r="E33" s="238" t="s">
+        <v>187</v>
+      </c>
+      <c r="F33" s="239"/>
     </row>
     <row r="36" spans="2:6" ht="31.2" customHeight="1">
-      <c r="B36" s="269" t="s">
-        <v>216</v>
-      </c>
-      <c r="C36" s="269"/>
-      <c r="D36" s="269"/>
-      <c r="E36" s="269"/>
+      <c r="B36" s="264" t="s">
+        <v>212</v>
+      </c>
+      <c r="C36" s="264"/>
+      <c r="D36" s="264"/>
+      <c r="E36" s="264"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -4684,12 +4696,12 @@
     <mergeCell ref="E27:F27"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B16" r:id="rId1" display="Screenshot: Invalid email address error"/>
-    <hyperlink ref="E16" r:id="rId2" display="Screenshot: Invalid email address error"/>
-    <hyperlink ref="H16" r:id="rId3" display="Screenshot: Invalid email address error"/>
-    <hyperlink ref="K16" r:id="rId4" display="Screenshot: Invalid email address error"/>
-    <hyperlink ref="B32" r:id="rId5" display="Screenshot: Invalid email address error"/>
-    <hyperlink ref="E32" r:id="rId6" display="Screenshot: Invalid email address error"/>
+    <hyperlink ref="B16" r:id="rId1"/>
+    <hyperlink ref="E16" r:id="rId2"/>
+    <hyperlink ref="H16" r:id="rId3"/>
+    <hyperlink ref="K16" r:id="rId4"/>
+    <hyperlink ref="B32" r:id="rId5"/>
+    <hyperlink ref="E32" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
@@ -4700,9 +4712,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC336"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="82" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.8"/>
@@ -4724,33 +4736,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="29.25" customHeight="1" thickBot="1">
-      <c r="A1" s="283" t="s">
+      <c r="A1" s="278" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="278"/>
+      <c r="C1" s="252" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="283"/>
-      <c r="C1" s="253" t="s">
-        <v>113</v>
-      </c>
-      <c r="D1" s="33" t="s">
+      <c r="E1" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>34</v>
-      </c>
       <c r="G1" s="34" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
       <c r="K1" s="37"/>
-      <c r="L1" s="282" t="s">
-        <v>35</v>
-      </c>
-      <c r="M1" s="282"/>
+      <c r="L1" s="277" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="277"/>
       <c r="N1" s="38"/>
       <c r="O1" s="38"/>
       <c r="P1" s="38"/>
@@ -4769,24 +4781,24 @@
       <c r="AC1" s="38"/>
     </row>
     <row r="2" spans="1:29" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A2" s="283" t="s">
+      <c r="A2" s="278" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="278"/>
+      <c r="C2" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="D2" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="283"/>
-      <c r="C2" s="39" t="s">
-        <v>227</v>
-      </c>
-      <c r="D2" s="40" t="s">
+      <c r="E2" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="F2" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="41" t="s">
-        <v>39</v>
-      </c>
       <c r="G2" s="34" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
@@ -4817,22 +4829,22 @@
       <c r="AC2" s="38"/>
     </row>
     <row r="3" spans="1:29" ht="33" customHeight="1" thickBot="1">
-      <c r="A3" s="283" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="283"/>
+      <c r="A3" s="278" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="278"/>
       <c r="C3" s="39"/>
       <c r="D3" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="F3" s="44" t="s">
+      <c r="G3" s="39" t="s">
         <v>42</v>
-      </c>
-      <c r="G3" s="39" t="s">
-        <v>43</v>
       </c>
       <c r="H3" s="36"/>
       <c r="I3" s="36"/>
@@ -4863,20 +4875,20 @@
       <c r="AC3" s="38"/>
     </row>
     <row r="4" spans="1:29" ht="34.5" customHeight="1">
-      <c r="A4" s="283" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="283"/>
+      <c r="A4" s="278" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="278"/>
       <c r="C4" s="39"/>
       <c r="D4" s="40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" s="39"/>
       <c r="F4" s="44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" s="36"/>
       <c r="I4" s="36"/>
@@ -4907,21 +4919,21 @@
       <c r="AC4" s="38"/>
     </row>
     <row r="5" spans="1:29" s="52" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A5" s="290" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="290"/>
-      <c r="C5" s="291"/>
-      <c r="D5" s="291"/>
-      <c r="E5" s="291"/>
-      <c r="F5" s="291"/>
-      <c r="G5" s="291"/>
+      <c r="A5" s="285" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="285"/>
+      <c r="C5" s="286"/>
+      <c r="D5" s="286"/>
+      <c r="E5" s="286"/>
+      <c r="F5" s="286"/>
+      <c r="G5" s="286"/>
       <c r="H5" s="47"/>
       <c r="I5" s="47"/>
       <c r="J5" s="47"/>
       <c r="K5" s="48"/>
       <c r="L5" s="49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M5" s="50">
         <f>COUNTIF(L7:L450, "Out of Scope")</f>
@@ -4957,7 +4969,7 @@
       <c r="J6" s="36"/>
       <c r="K6" s="37"/>
       <c r="L6" s="54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M6" s="55">
         <f>SUM(M2:M5)</f>
@@ -4982,43 +4994,43 @@
     </row>
     <row r="7" spans="1:29" s="61" customFormat="1" ht="33" customHeight="1" thickBot="1">
       <c r="A7" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="C7" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="D7" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="E7" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="58" t="s">
+      <c r="F7" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="58" t="s">
+      <c r="G7" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="58" t="s">
+      <c r="H7" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="H7" s="58" t="s">
+      <c r="I7" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="58" t="s">
+      <c r="J7" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="58" t="s">
+      <c r="K7" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="K7" s="58" t="s">
+      <c r="L7" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="L7" s="57" t="s">
+      <c r="M7" s="59" t="s">
         <v>60</v>
-      </c>
-      <c r="M7" s="59" t="s">
-        <v>61</v>
       </c>
       <c r="N7" s="60"/>
       <c r="O7" s="60"/>
@@ -5043,28 +5055,28 @@
       </c>
       <c r="B8" s="63"/>
       <c r="C8" s="64" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D8" s="62"/>
       <c r="E8" s="65" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F8" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="65" t="s">
+      <c r="H8" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="66" t="s">
-        <v>65</v>
-      </c>
       <c r="I8" s="66" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J8" s="67"/>
       <c r="K8" s="67"/>
       <c r="L8" s="68" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M8" s="69"/>
       <c r="N8" s="70"/>
@@ -5119,39 +5131,39 @@
       <c r="A10" s="80">
         <v>2</v>
       </c>
-      <c r="B10" s="256" t="s">
-        <v>141</v>
-      </c>
-      <c r="C10" s="292" t="s">
+      <c r="B10" s="255" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="287" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="255" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="256" t="s">
-        <v>118</v>
-      </c>
-      <c r="E10" s="65" t="s">
+      <c r="F10" s="65" t="s">
+        <v>200</v>
+      </c>
+      <c r="G10" s="65" t="s">
+        <v>199</v>
+      </c>
+      <c r="H10" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="65" t="s">
-        <v>204</v>
-      </c>
-      <c r="G10" s="65" t="s">
-        <v>203</v>
-      </c>
-      <c r="H10" s="65" t="s">
-        <v>69</v>
-      </c>
       <c r="I10" s="66" t="s">
+        <v>115</v>
+      </c>
+      <c r="J10" s="265" t="s">
         <v>117</v>
-      </c>
-      <c r="J10" s="270" t="s">
-        <v>119</v>
       </c>
       <c r="K10" s="81"/>
       <c r="L10" s="82" t="s">
-        <v>71</v>
-      </c>
-      <c r="M10" s="255" t="s">
-        <v>120</v>
+        <v>70</v>
+      </c>
+      <c r="M10" s="254" t="s">
+        <v>118</v>
       </c>
       <c r="N10" s="83"/>
       <c r="O10" s="83"/>
@@ -5174,37 +5186,37 @@
       <c r="A11" s="80">
         <v>3</v>
       </c>
-      <c r="B11" s="279" t="s">
-        <v>121</v>
-      </c>
-      <c r="C11" s="292"/>
-      <c r="D11" s="279" t="s">
-        <v>124</v>
+      <c r="B11" s="274" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="287"/>
+      <c r="D11" s="274" t="s">
+        <v>122</v>
       </c>
       <c r="E11" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="H11" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="65" t="s">
-        <v>128</v>
-      </c>
-      <c r="G11" s="65" t="s">
+      <c r="I11" s="66" t="s">
+        <v>125</v>
+      </c>
+      <c r="J11" s="265" t="s">
         <v>129</v>
-      </c>
-      <c r="H11" s="65" t="s">
-        <v>69</v>
-      </c>
-      <c r="I11" s="66" t="s">
-        <v>127</v>
-      </c>
-      <c r="J11" s="270" t="s">
-        <v>131</v>
       </c>
       <c r="K11" s="81"/>
       <c r="L11" s="82" t="s">
-        <v>71</v>
-      </c>
-      <c r="M11" s="257" t="s">
-        <v>126</v>
+        <v>70</v>
+      </c>
+      <c r="M11" s="256" t="s">
+        <v>124</v>
       </c>
       <c r="N11" s="83"/>
       <c r="O11" s="83"/>
@@ -5227,33 +5239,33 @@
       <c r="A12" s="80">
         <v>4</v>
       </c>
-      <c r="B12" s="280"/>
-      <c r="C12" s="292"/>
-      <c r="D12" s="280"/>
+      <c r="B12" s="275"/>
+      <c r="C12" s="287"/>
+      <c r="D12" s="275"/>
       <c r="E12" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" s="65" t="s">
+        <v>128</v>
+      </c>
+      <c r="H12" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="65" t="s">
-        <v>125</v>
-      </c>
-      <c r="G12" s="65" t="s">
-        <v>130</v>
-      </c>
-      <c r="H12" s="65" t="s">
-        <v>69</v>
-      </c>
       <c r="I12" s="66" t="s">
-        <v>122</v>
-      </c>
-      <c r="J12" s="258" t="s">
-        <v>133</v>
+        <v>120</v>
+      </c>
+      <c r="J12" s="265" t="s">
+        <v>131</v>
       </c>
       <c r="K12" s="85"/>
       <c r="L12" s="82" t="s">
-        <v>71</v>
-      </c>
-      <c r="M12" s="257" t="s">
-        <v>123</v>
+        <v>70</v>
+      </c>
+      <c r="M12" s="256" t="s">
+        <v>121</v>
       </c>
       <c r="N12" s="86"/>
       <c r="O12" s="86"/>
@@ -5276,37 +5288,37 @@
       <c r="A13" s="80">
         <v>5</v>
       </c>
-      <c r="B13" s="279" t="s">
+      <c r="B13" s="274" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" s="287"/>
+      <c r="D13" s="272" t="s">
+        <v>133</v>
+      </c>
+      <c r="E13" s="65" t="s">
+        <v>183</v>
+      </c>
+      <c r="F13" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="C13" s="292"/>
-      <c r="D13" s="277" t="s">
+      <c r="G13" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13" s="66" t="s">
         <v>135</v>
       </c>
-      <c r="E13" s="65" t="s">
-        <v>187</v>
-      </c>
-      <c r="F13" s="65" t="s">
-        <v>136</v>
-      </c>
-      <c r="G13" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" s="65" t="s">
-        <v>69</v>
-      </c>
-      <c r="I13" s="66" t="s">
-        <v>137</v>
-      </c>
-      <c r="J13" s="270" t="s">
-        <v>231</v>
+      <c r="J13" s="265" t="s">
+        <v>227</v>
       </c>
       <c r="K13" s="85"/>
       <c r="L13" s="82" t="s">
-        <v>71</v>
-      </c>
-      <c r="M13" s="271" t="s">
-        <v>232</v>
+        <v>70</v>
+      </c>
+      <c r="M13" s="266" t="s">
+        <v>228</v>
       </c>
       <c r="N13" s="86"/>
       <c r="O13" s="86"/>
@@ -5329,30 +5341,30 @@
       <c r="A14" s="80">
         <v>6</v>
       </c>
-      <c r="B14" s="280"/>
-      <c r="C14" s="292"/>
-      <c r="D14" s="278"/>
+      <c r="B14" s="275"/>
+      <c r="C14" s="287"/>
+      <c r="D14" s="273"/>
       <c r="E14" s="65" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F14" s="65" t="s">
+        <v>136</v>
+      </c>
+      <c r="G14" s="65" t="s">
+        <v>137</v>
+      </c>
+      <c r="H14" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" s="66" t="s">
+        <v>191</v>
+      </c>
+      <c r="J14" s="265" t="s">
         <v>138</v>
-      </c>
-      <c r="G14" s="65" t="s">
-        <v>139</v>
-      </c>
-      <c r="H14" s="65" t="s">
-        <v>69</v>
-      </c>
-      <c r="I14" s="66" t="s">
-        <v>195</v>
-      </c>
-      <c r="J14" s="258" t="s">
-        <v>140</v>
       </c>
       <c r="K14" s="85"/>
       <c r="L14" s="82" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M14" s="86"/>
       <c r="N14" s="86"/>
@@ -5374,9 +5386,9 @@
     </row>
     <row r="15" spans="1:29" s="94" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
       <c r="A15" s="72"/>
-      <c r="B15" s="254"/>
+      <c r="B15" s="253"/>
       <c r="C15" s="87"/>
-      <c r="D15" s="254"/>
+      <c r="D15" s="253"/>
       <c r="E15" s="88"/>
       <c r="F15" s="88"/>
       <c r="G15" s="88"/>
@@ -5407,39 +5419,39 @@
       <c r="A16" s="95">
         <v>10</v>
       </c>
-      <c r="B16" s="277" t="s">
+      <c r="B16" s="272" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" s="288" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="272" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" s="102" t="s">
+        <v>229</v>
+      </c>
+      <c r="F16" s="96" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" s="96" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" s="96" t="s">
+        <v>142</v>
+      </c>
+      <c r="I16" s="66" t="s">
         <v>141</v>
       </c>
-      <c r="C16" s="293" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="277" t="s">
-        <v>118</v>
-      </c>
-      <c r="E16" s="102" t="s">
-        <v>233</v>
-      </c>
-      <c r="F16" s="96" t="s">
-        <v>142</v>
-      </c>
-      <c r="G16" s="96" t="s">
-        <v>70</v>
-      </c>
-      <c r="H16" s="96" t="s">
-        <v>144</v>
-      </c>
-      <c r="I16" s="66" t="s">
-        <v>143</v>
-      </c>
-      <c r="J16" s="259" t="s">
-        <v>229</v>
+      <c r="J16" s="265" t="s">
+        <v>225</v>
       </c>
       <c r="K16" s="97"/>
       <c r="L16" s="68" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M16" s="96" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="N16" s="98"/>
       <c r="O16" s="98"/>
@@ -5462,33 +5474,33 @@
       <c r="A17" s="95">
         <v>11</v>
       </c>
-      <c r="B17" s="278"/>
-      <c r="C17" s="293"/>
-      <c r="D17" s="278"/>
+      <c r="B17" s="273"/>
+      <c r="C17" s="288"/>
+      <c r="D17" s="273"/>
       <c r="E17" s="102" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F17" s="65" t="s">
+        <v>144</v>
+      </c>
+      <c r="G17" s="96" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="96" t="s">
+        <v>145</v>
+      </c>
+      <c r="I17" s="66" t="s">
         <v>146</v>
       </c>
-      <c r="G17" s="96" t="s">
-        <v>70</v>
-      </c>
-      <c r="H17" s="96" t="s">
-        <v>147</v>
-      </c>
-      <c r="I17" s="66" t="s">
+      <c r="J17" s="265" t="s">
         <v>148</v>
-      </c>
-      <c r="J17" s="96" t="s">
-        <v>150</v>
       </c>
       <c r="K17" s="97"/>
       <c r="L17" s="68" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M17" s="96" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="N17" s="98"/>
       <c r="O17" s="98"/>
@@ -5511,37 +5523,37 @@
       <c r="A18" s="95">
         <v>12</v>
       </c>
-      <c r="B18" s="279" t="s">
-        <v>121</v>
-      </c>
-      <c r="C18" s="293"/>
-      <c r="D18" s="277" t="s">
-        <v>124</v>
-      </c>
-      <c r="E18" s="265" t="s">
+      <c r="B18" s="274" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="288"/>
+      <c r="D18" s="272" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" s="261" t="s">
+        <v>161</v>
+      </c>
+      <c r="F18" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" s="96" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" s="96" t="s">
+        <v>162</v>
+      </c>
+      <c r="I18" s="66" t="s">
         <v>163</v>
       </c>
-      <c r="F18" s="65" t="s">
-        <v>72</v>
-      </c>
-      <c r="G18" s="96" t="s">
-        <v>70</v>
-      </c>
-      <c r="H18" s="96" t="s">
+      <c r="J18" s="311" t="s">
         <v>164</v>
-      </c>
-      <c r="I18" s="66" t="s">
-        <v>165</v>
-      </c>
-      <c r="J18" s="264" t="s">
-        <v>166</v>
       </c>
       <c r="K18" s="97"/>
       <c r="L18" s="68" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M18" s="101" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="N18" s="98"/>
       <c r="O18" s="98"/>
@@ -5564,30 +5576,30 @@
       <c r="A19" s="95">
         <v>13</v>
       </c>
-      <c r="B19" s="280"/>
-      <c r="C19" s="293"/>
-      <c r="D19" s="281"/>
+      <c r="B19" s="275"/>
+      <c r="C19" s="288"/>
+      <c r="D19" s="276"/>
       <c r="E19" s="102" t="s">
+        <v>165</v>
+      </c>
+      <c r="F19" s="65" t="s">
+        <v>166</v>
+      </c>
+      <c r="G19" s="96" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" s="96" t="s">
         <v>167</v>
       </c>
-      <c r="F19" s="65" t="s">
+      <c r="I19" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="G19" s="96" t="s">
-        <v>70</v>
-      </c>
-      <c r="H19" s="96" t="s">
+      <c r="J19" s="265" t="s">
         <v>169</v>
-      </c>
-      <c r="I19" s="66" t="s">
-        <v>170</v>
-      </c>
-      <c r="J19" s="266" t="s">
-        <v>171</v>
       </c>
       <c r="K19" s="103"/>
       <c r="L19" s="68" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M19" s="101"/>
       <c r="N19" s="98"/>
@@ -5609,9 +5621,9 @@
     </row>
     <row r="20" spans="1:29" s="109" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A20" s="105"/>
-      <c r="B20" s="254"/>
+      <c r="B20" s="253"/>
       <c r="C20" s="106"/>
-      <c r="D20" s="256"/>
+      <c r="D20" s="255"/>
       <c r="E20" s="107"/>
       <c r="F20" s="88"/>
       <c r="G20" s="88"/>
@@ -5642,32 +5654,32 @@
       <c r="A21" s="95">
         <v>48</v>
       </c>
-      <c r="B21" s="254"/>
-      <c r="C21" s="293" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="277" t="s">
-        <v>214</v>
+      <c r="B21" s="253"/>
+      <c r="C21" s="288" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="272" t="s">
+        <v>210</v>
       </c>
       <c r="E21" s="102" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="F21" s="96" t="s">
+      <c r="G21" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="G21" s="96" t="s">
-        <v>75</v>
-      </c>
       <c r="H21" s="104" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I21" s="66" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J21" s="96"/>
       <c r="K21" s="96"/>
       <c r="L21" s="68" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M21" s="68"/>
       <c r="N21" s="98"/>
@@ -5691,28 +5703,28 @@
       <c r="A22" s="95">
         <v>49</v>
       </c>
-      <c r="B22" s="254"/>
-      <c r="C22" s="293"/>
-      <c r="D22" s="281"/>
+      <c r="B22" s="253"/>
+      <c r="C22" s="288"/>
+      <c r="D22" s="276"/>
       <c r="E22" s="110" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="F22" s="96" t="s">
+      <c r="G22" s="96" t="s">
+        <v>74</v>
+      </c>
+      <c r="H22" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="G22" s="96" t="s">
-        <v>75</v>
-      </c>
-      <c r="H22" s="96" t="s">
-        <v>78</v>
-      </c>
       <c r="I22" s="66" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J22" s="96"/>
       <c r="K22" s="96"/>
       <c r="L22" s="68" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M22" s="68"/>
       <c r="N22" s="98"/>
@@ -5736,28 +5748,28 @@
       <c r="A23" s="95">
         <v>50</v>
       </c>
-      <c r="B23" s="254"/>
-      <c r="C23" s="293"/>
-      <c r="D23" s="278"/>
+      <c r="B23" s="253"/>
+      <c r="C23" s="288"/>
+      <c r="D23" s="273"/>
       <c r="E23" s="110" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="96" t="s">
         <v>79</v>
       </c>
-      <c r="F23" s="96" t="s">
+      <c r="G23" s="96" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="G23" s="96" t="s">
-        <v>75</v>
-      </c>
-      <c r="H23" s="96" t="s">
-        <v>81</v>
-      </c>
       <c r="I23" s="66" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J23" s="96"/>
       <c r="K23" s="96"/>
       <c r="L23" s="68" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M23" s="68"/>
       <c r="N23" s="98"/>
@@ -5779,7 +5791,7 @@
     </row>
     <row r="24" spans="1:29" s="109" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A24" s="105"/>
-      <c r="B24" s="254"/>
+      <c r="B24" s="253"/>
       <c r="C24" s="111"/>
       <c r="D24" s="112"/>
       <c r="E24" s="113"/>
@@ -5810,13 +5822,13 @@
     </row>
     <row r="25" spans="1:29" s="100" customFormat="1" ht="78" customHeight="1" thickBot="1">
       <c r="A25" s="95"/>
-      <c r="B25" s="254"/>
-      <c r="C25" s="288"/>
-      <c r="D25" s="289" t="s">
-        <v>82</v>
+      <c r="B25" s="253"/>
+      <c r="C25" s="283"/>
+      <c r="D25" s="284" t="s">
+        <v>81</v>
       </c>
       <c r="E25" s="102" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F25" s="96"/>
       <c r="G25" s="96"/>
@@ -5845,11 +5857,11 @@
     </row>
     <row r="26" spans="1:29" s="100" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
       <c r="A26" s="95"/>
-      <c r="B26" s="254"/>
-      <c r="C26" s="288"/>
-      <c r="D26" s="289"/>
+      <c r="B26" s="253"/>
+      <c r="C26" s="283"/>
+      <c r="D26" s="284"/>
       <c r="E26" s="102" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F26" s="96"/>
       <c r="G26" s="96"/>
@@ -5878,11 +5890,11 @@
     </row>
     <row r="27" spans="1:29" s="100" customFormat="1" ht="69.599999999999994" customHeight="1" thickBot="1">
       <c r="A27" s="95"/>
-      <c r="B27" s="254"/>
-      <c r="C27" s="288"/>
-      <c r="D27" s="289"/>
+      <c r="B27" s="253"/>
+      <c r="C27" s="283"/>
+      <c r="D27" s="284"/>
       <c r="E27" s="96" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F27" s="80"/>
       <c r="G27" s="96"/>
@@ -5911,11 +5923,11 @@
     </row>
     <row r="28" spans="1:29" s="100" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A28" s="95"/>
-      <c r="B28" s="254"/>
-      <c r="C28" s="288"/>
-      <c r="D28" s="289"/>
+      <c r="B28" s="253"/>
+      <c r="C28" s="283"/>
+      <c r="D28" s="284"/>
       <c r="E28" s="96" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F28" s="96"/>
       <c r="G28" s="96"/>
@@ -5944,8 +5956,8 @@
     </row>
     <row r="29" spans="1:29" s="100" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A29" s="95"/>
-      <c r="B29" s="254"/>
-      <c r="C29" s="288"/>
+      <c r="B29" s="253"/>
+      <c r="C29" s="283"/>
       <c r="D29" s="116"/>
       <c r="E29" s="117"/>
       <c r="F29" s="96"/>
@@ -5975,7 +5987,7 @@
     </row>
     <row r="30" spans="1:29" s="100" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A30" s="118"/>
-      <c r="B30" s="254"/>
+      <c r="B30" s="253"/>
       <c r="C30" s="115"/>
       <c r="D30" s="116"/>
       <c r="E30" s="117"/>
@@ -6006,7 +6018,7 @@
     </row>
     <row r="31" spans="1:29" s="100" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A31" s="118"/>
-      <c r="B31" s="254"/>
+      <c r="B31" s="253"/>
       <c r="C31" s="115"/>
       <c r="D31" s="116"/>
       <c r="E31" s="119"/>
@@ -6037,7 +6049,7 @@
     </row>
     <row r="32" spans="1:29" s="100" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A32" s="118"/>
-      <c r="B32" s="254"/>
+      <c r="B32" s="253"/>
       <c r="C32" s="115"/>
       <c r="D32" s="116"/>
       <c r="E32" s="119"/>
@@ -6068,7 +6080,7 @@
     </row>
     <row r="33" spans="1:29" s="100" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A33" s="118"/>
-      <c r="B33" s="254"/>
+      <c r="B33" s="253"/>
       <c r="C33" s="115"/>
       <c r="D33" s="116"/>
       <c r="E33" s="119"/>
@@ -6099,7 +6111,7 @@
     </row>
     <row r="34" spans="1:29" s="100" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A34" s="118"/>
-      <c r="B34" s="254"/>
+      <c r="B34" s="253"/>
       <c r="C34" s="115"/>
       <c r="D34" s="116"/>
       <c r="E34" s="119"/>
@@ -6130,7 +6142,7 @@
     </row>
     <row r="35" spans="1:29" s="100" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A35" s="118"/>
-      <c r="B35" s="254"/>
+      <c r="B35" s="253"/>
       <c r="C35" s="115"/>
       <c r="D35" s="120"/>
       <c r="E35" s="119"/>
@@ -6161,9 +6173,9 @@
     </row>
     <row r="36" spans="1:29" s="100" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A36" s="118"/>
-      <c r="B36" s="254"/>
+      <c r="B36" s="253"/>
       <c r="C36" s="115"/>
-      <c r="D36" s="284"/>
+      <c r="D36" s="279"/>
       <c r="E36" s="119"/>
       <c r="F36" s="80"/>
       <c r="G36" s="96"/>
@@ -6192,9 +6204,9 @@
     </row>
     <row r="37" spans="1:29" s="100" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A37" s="118"/>
-      <c r="B37" s="254"/>
+      <c r="B37" s="253"/>
       <c r="C37" s="115"/>
-      <c r="D37" s="284"/>
+      <c r="D37" s="279"/>
       <c r="E37" s="119"/>
       <c r="F37" s="96"/>
       <c r="G37" s="96"/>
@@ -6223,9 +6235,9 @@
     </row>
     <row r="38" spans="1:29" s="100" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A38" s="118"/>
-      <c r="B38" s="254"/>
+      <c r="B38" s="253"/>
       <c r="C38" s="115"/>
-      <c r="D38" s="284"/>
+      <c r="D38" s="279"/>
       <c r="E38" s="121"/>
       <c r="F38" s="65"/>
       <c r="G38" s="96"/>
@@ -6254,9 +6266,9 @@
     </row>
     <row r="39" spans="1:29" s="100" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A39" s="118"/>
-      <c r="B39" s="254"/>
+      <c r="B39" s="253"/>
       <c r="C39" s="115"/>
-      <c r="D39" s="284"/>
+      <c r="D39" s="279"/>
       <c r="E39" s="121"/>
       <c r="F39" s="65"/>
       <c r="G39" s="96"/>
@@ -6285,9 +6297,9 @@
     </row>
     <row r="40" spans="1:29" s="100" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A40" s="118"/>
-      <c r="B40" s="254"/>
+      <c r="B40" s="253"/>
       <c r="C40" s="115"/>
-      <c r="D40" s="284"/>
+      <c r="D40" s="279"/>
       <c r="E40" s="121"/>
       <c r="F40" s="65"/>
       <c r="G40" s="96"/>
@@ -6316,7 +6328,7 @@
     </row>
     <row r="41" spans="1:29" s="100" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A41" s="118"/>
-      <c r="B41" s="254"/>
+      <c r="B41" s="253"/>
       <c r="C41" s="115"/>
       <c r="D41" s="122"/>
       <c r="E41" s="123"/>
@@ -6347,9 +6359,9 @@
     </row>
     <row r="42" spans="1:29" s="100" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A42" s="118"/>
-      <c r="B42" s="254"/>
+      <c r="B42" s="253"/>
       <c r="C42" s="115"/>
-      <c r="D42" s="284"/>
+      <c r="D42" s="279"/>
       <c r="E42" s="117"/>
       <c r="F42" s="96"/>
       <c r="G42" s="96"/>
@@ -6378,9 +6390,9 @@
     </row>
     <row r="43" spans="1:29" s="100" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A43" s="118"/>
-      <c r="B43" s="254"/>
+      <c r="B43" s="253"/>
       <c r="C43" s="115"/>
-      <c r="D43" s="284"/>
+      <c r="D43" s="279"/>
       <c r="E43" s="117"/>
       <c r="F43" s="96"/>
       <c r="G43" s="96"/>
@@ -6409,7 +6421,7 @@
     </row>
     <row r="44" spans="1:29" s="100" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A44" s="118"/>
-      <c r="B44" s="254"/>
+      <c r="B44" s="253"/>
       <c r="C44" s="115"/>
       <c r="D44" s="124"/>
       <c r="E44" s="119"/>
@@ -6440,9 +6452,9 @@
     </row>
     <row r="45" spans="1:29" s="100" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A45" s="118"/>
-      <c r="B45" s="254"/>
+      <c r="B45" s="253"/>
       <c r="C45" s="115"/>
-      <c r="D45" s="285"/>
+      <c r="D45" s="280"/>
       <c r="E45" s="119"/>
       <c r="F45" s="96"/>
       <c r="G45" s="96"/>
@@ -6471,9 +6483,9 @@
     </row>
     <row r="46" spans="1:29" s="100" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A46" s="118"/>
-      <c r="B46" s="254"/>
+      <c r="B46" s="253"/>
       <c r="C46" s="115"/>
-      <c r="D46" s="285"/>
+      <c r="D46" s="280"/>
       <c r="E46" s="119"/>
       <c r="F46" s="96"/>
       <c r="G46" s="96"/>
@@ -6502,9 +6514,9 @@
     </row>
     <row r="47" spans="1:29" s="100" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A47" s="118"/>
-      <c r="B47" s="254"/>
+      <c r="B47" s="253"/>
       <c r="C47" s="115"/>
-      <c r="D47" s="285"/>
+      <c r="D47" s="280"/>
       <c r="E47" s="121"/>
       <c r="F47" s="65"/>
       <c r="G47" s="96"/>
@@ -6533,9 +6545,9 @@
     </row>
     <row r="48" spans="1:29" s="100" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A48" s="118"/>
-      <c r="B48" s="254"/>
+      <c r="B48" s="253"/>
       <c r="C48" s="115"/>
-      <c r="D48" s="285"/>
+      <c r="D48" s="280"/>
       <c r="E48" s="117"/>
       <c r="F48" s="96"/>
       <c r="G48" s="96"/>
@@ -6564,9 +6576,9 @@
     </row>
     <row r="49" spans="1:29" s="100" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A49" s="118"/>
-      <c r="B49" s="254"/>
+      <c r="B49" s="253"/>
       <c r="C49" s="115"/>
-      <c r="D49" s="285"/>
+      <c r="D49" s="280"/>
       <c r="E49" s="117"/>
       <c r="F49" s="96"/>
       <c r="G49" s="96"/>
@@ -6595,9 +6607,9 @@
     </row>
     <row r="50" spans="1:29" s="100" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A50" s="118"/>
-      <c r="B50" s="254"/>
+      <c r="B50" s="253"/>
       <c r="C50" s="115"/>
-      <c r="D50" s="285"/>
+      <c r="D50" s="280"/>
       <c r="E50" s="119"/>
       <c r="F50" s="96"/>
       <c r="G50" s="96"/>
@@ -6626,9 +6638,9 @@
     </row>
     <row r="51" spans="1:29" s="100" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A51" s="118"/>
-      <c r="B51" s="254"/>
+      <c r="B51" s="253"/>
       <c r="C51" s="115"/>
-      <c r="D51" s="285"/>
+      <c r="D51" s="280"/>
       <c r="E51" s="119"/>
       <c r="F51" s="96"/>
       <c r="G51" s="96"/>
@@ -6657,9 +6669,9 @@
     </row>
     <row r="52" spans="1:29" s="100" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A52" s="118"/>
-      <c r="B52" s="254"/>
+      <c r="B52" s="253"/>
       <c r="C52" s="115"/>
-      <c r="D52" s="285"/>
+      <c r="D52" s="280"/>
       <c r="E52" s="119"/>
       <c r="F52" s="96"/>
       <c r="G52" s="96"/>
@@ -6688,9 +6700,9 @@
     </row>
     <row r="53" spans="1:29" s="100" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A53" s="118"/>
-      <c r="B53" s="254"/>
+      <c r="B53" s="253"/>
       <c r="C53" s="115"/>
-      <c r="D53" s="285"/>
+      <c r="D53" s="280"/>
       <c r="E53" s="121"/>
       <c r="F53" s="65"/>
       <c r="G53" s="96"/>
@@ -6719,9 +6731,9 @@
     </row>
     <row r="54" spans="1:29" s="100" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A54" s="118"/>
-      <c r="B54" s="254"/>
+      <c r="B54" s="253"/>
       <c r="C54" s="115"/>
-      <c r="D54" s="285"/>
+      <c r="D54" s="280"/>
       <c r="E54" s="123"/>
       <c r="F54" s="101"/>
       <c r="G54" s="101"/>
@@ -6750,9 +6762,9 @@
     </row>
     <row r="55" spans="1:29" s="100" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A55" s="118"/>
-      <c r="B55" s="254"/>
+      <c r="B55" s="253"/>
       <c r="C55" s="115"/>
-      <c r="D55" s="285"/>
+      <c r="D55" s="280"/>
       <c r="E55" s="117"/>
       <c r="F55" s="96"/>
       <c r="G55" s="96"/>
@@ -6781,7 +6793,7 @@
     </row>
     <row r="56" spans="1:29" s="100" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A56" s="118"/>
-      <c r="B56" s="254"/>
+      <c r="B56" s="253"/>
       <c r="C56" s="115"/>
       <c r="D56" s="124"/>
       <c r="E56" s="117"/>
@@ -6812,9 +6824,9 @@
     </row>
     <row r="57" spans="1:29" s="100" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A57" s="118"/>
-      <c r="B57" s="254"/>
+      <c r="B57" s="253"/>
       <c r="C57" s="115"/>
-      <c r="D57" s="286"/>
+      <c r="D57" s="281"/>
       <c r="E57" s="119"/>
       <c r="F57" s="96"/>
       <c r="G57" s="96"/>
@@ -6843,9 +6855,9 @@
     </row>
     <row r="58" spans="1:29" s="100" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A58" s="118"/>
-      <c r="B58" s="254"/>
+      <c r="B58" s="253"/>
       <c r="C58" s="115"/>
-      <c r="D58" s="286"/>
+      <c r="D58" s="281"/>
       <c r="E58" s="119"/>
       <c r="F58" s="96"/>
       <c r="G58" s="96"/>
@@ -6874,9 +6886,9 @@
     </row>
     <row r="59" spans="1:29" s="100" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A59" s="118"/>
-      <c r="B59" s="254"/>
+      <c r="B59" s="253"/>
       <c r="C59" s="115"/>
-      <c r="D59" s="286"/>
+      <c r="D59" s="281"/>
       <c r="E59" s="119"/>
       <c r="F59" s="96"/>
       <c r="G59" s="96"/>
@@ -6905,9 +6917,9 @@
     </row>
     <row r="60" spans="1:29" s="100" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A60" s="118"/>
-      <c r="B60" s="254"/>
+      <c r="B60" s="253"/>
       <c r="C60" s="115"/>
-      <c r="D60" s="286"/>
+      <c r="D60" s="281"/>
       <c r="E60" s="121"/>
       <c r="F60" s="65"/>
       <c r="G60" s="96"/>
@@ -6936,9 +6948,9 @@
     </row>
     <row r="61" spans="1:29" s="5" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A61" s="126"/>
-      <c r="B61" s="254"/>
+      <c r="B61" s="253"/>
       <c r="C61" s="127"/>
-      <c r="D61" s="286"/>
+      <c r="D61" s="281"/>
       <c r="E61" s="128"/>
       <c r="F61" s="129"/>
       <c r="G61" s="129"/>
@@ -6967,9 +6979,9 @@
     </row>
     <row r="62" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A62" s="133"/>
-      <c r="B62" s="254"/>
+      <c r="B62" s="253"/>
       <c r="C62" s="127"/>
-      <c r="D62" s="286"/>
+      <c r="D62" s="281"/>
       <c r="E62" s="134"/>
       <c r="F62" s="135"/>
       <c r="G62" s="136"/>
@@ -6998,9 +7010,9 @@
     </row>
     <row r="63" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A63" s="133"/>
-      <c r="B63" s="254"/>
+      <c r="B63" s="253"/>
       <c r="C63" s="127"/>
-      <c r="D63" s="286"/>
+      <c r="D63" s="281"/>
       <c r="E63" s="141"/>
       <c r="F63" s="142"/>
       <c r="G63" s="142"/>
@@ -7029,9 +7041,9 @@
     </row>
     <row r="64" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A64" s="133"/>
-      <c r="B64" s="254"/>
+      <c r="B64" s="253"/>
       <c r="C64" s="127"/>
-      <c r="D64" s="286"/>
+      <c r="D64" s="281"/>
       <c r="E64" s="141"/>
       <c r="F64" s="142"/>
       <c r="G64" s="142"/>
@@ -7060,9 +7072,9 @@
     </row>
     <row r="65" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A65" s="133"/>
-      <c r="B65" s="254"/>
+      <c r="B65" s="253"/>
       <c r="C65" s="127"/>
-      <c r="D65" s="286"/>
+      <c r="D65" s="281"/>
       <c r="E65" s="145"/>
       <c r="F65" s="142"/>
       <c r="G65" s="142"/>
@@ -7091,9 +7103,9 @@
     </row>
     <row r="66" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A66" s="133"/>
-      <c r="B66" s="254"/>
+      <c r="B66" s="253"/>
       <c r="C66" s="127"/>
-      <c r="D66" s="286"/>
+      <c r="D66" s="281"/>
       <c r="E66" s="146"/>
       <c r="F66" s="135"/>
       <c r="G66" s="136"/>
@@ -7122,7 +7134,7 @@
     </row>
     <row r="67" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A67" s="133"/>
-      <c r="B67" s="254"/>
+      <c r="B67" s="253"/>
       <c r="C67" s="127"/>
       <c r="D67" s="147"/>
       <c r="E67" s="134"/>
@@ -7153,9 +7165,9 @@
     </row>
     <row r="68" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A68" s="133"/>
-      <c r="B68" s="254"/>
+      <c r="B68" s="253"/>
       <c r="C68" s="127"/>
-      <c r="D68" s="287"/>
+      <c r="D68" s="282"/>
       <c r="E68" s="148"/>
       <c r="F68" s="135"/>
       <c r="G68" s="136"/>
@@ -7184,9 +7196,9 @@
     </row>
     <row r="69" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A69" s="133"/>
-      <c r="B69" s="254"/>
+      <c r="B69" s="253"/>
       <c r="C69" s="127"/>
-      <c r="D69" s="287"/>
+      <c r="D69" s="282"/>
       <c r="E69" s="150"/>
       <c r="F69" s="142"/>
       <c r="G69" s="142"/>
@@ -7215,7 +7227,7 @@
     </row>
     <row r="70" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A70" s="133"/>
-      <c r="B70" s="254"/>
+      <c r="B70" s="253"/>
       <c r="C70" s="127"/>
       <c r="D70" s="9"/>
       <c r="E70" s="151"/>
@@ -7246,9 +7258,9 @@
     </row>
     <row r="71" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A71" s="133"/>
-      <c r="B71" s="254"/>
+      <c r="B71" s="253"/>
       <c r="C71" s="127"/>
-      <c r="D71" s="294"/>
+      <c r="D71" s="289"/>
       <c r="E71" s="150"/>
       <c r="F71" s="142"/>
       <c r="G71" s="142"/>
@@ -7277,9 +7289,9 @@
     </row>
     <row r="72" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A72" s="133"/>
-      <c r="B72" s="254"/>
+      <c r="B72" s="253"/>
       <c r="C72" s="127"/>
-      <c r="D72" s="294"/>
+      <c r="D72" s="289"/>
       <c r="E72" s="148"/>
       <c r="F72" s="142"/>
       <c r="G72" s="142"/>
@@ -7308,9 +7320,9 @@
     </row>
     <row r="73" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A73" s="133"/>
-      <c r="B73" s="254"/>
+      <c r="B73" s="253"/>
       <c r="C73" s="127"/>
-      <c r="D73" s="294"/>
+      <c r="D73" s="289"/>
       <c r="E73" s="150"/>
       <c r="F73" s="142"/>
       <c r="G73" s="142"/>
@@ -7339,9 +7351,9 @@
     </row>
     <row r="74" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A74" s="133"/>
-      <c r="B74" s="254"/>
+      <c r="B74" s="253"/>
       <c r="C74" s="127"/>
-      <c r="D74" s="294"/>
+      <c r="D74" s="289"/>
       <c r="E74" s="148"/>
       <c r="F74" s="135"/>
       <c r="G74" s="136"/>
@@ -7370,9 +7382,9 @@
     </row>
     <row r="75" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A75" s="133"/>
-      <c r="B75" s="254"/>
+      <c r="B75" s="253"/>
       <c r="C75" s="127"/>
-      <c r="D75" s="294"/>
+      <c r="D75" s="289"/>
       <c r="E75" s="152"/>
       <c r="F75" s="153"/>
       <c r="G75" s="144"/>
@@ -7401,9 +7413,9 @@
     </row>
     <row r="76" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A76" s="133"/>
-      <c r="B76" s="254"/>
+      <c r="B76" s="253"/>
       <c r="C76" s="127"/>
-      <c r="D76" s="294"/>
+      <c r="D76" s="289"/>
       <c r="E76" s="148"/>
       <c r="F76" s="154"/>
       <c r="G76" s="136"/>
@@ -7432,9 +7444,9 @@
     </row>
     <row r="77" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A77" s="133"/>
-      <c r="B77" s="254"/>
+      <c r="B77" s="253"/>
       <c r="C77" s="127"/>
-      <c r="D77" s="294"/>
+      <c r="D77" s="289"/>
       <c r="E77" s="152"/>
       <c r="F77" s="155"/>
       <c r="G77" s="144"/>
@@ -7463,7 +7475,7 @@
     </row>
     <row r="78" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A78" s="133"/>
-      <c r="B78" s="254"/>
+      <c r="B78" s="253"/>
       <c r="C78" s="127"/>
       <c r="D78" s="156"/>
       <c r="E78" s="152"/>
@@ -7494,9 +7506,9 @@
     </row>
     <row r="79" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A79" s="133"/>
-      <c r="B79" s="254"/>
+      <c r="B79" s="253"/>
       <c r="C79" s="127"/>
-      <c r="D79" s="295"/>
+      <c r="D79" s="290"/>
       <c r="E79" s="157"/>
       <c r="F79" s="158"/>
       <c r="G79" s="144"/>
@@ -7525,9 +7537,9 @@
     </row>
     <row r="80" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A80" s="133"/>
-      <c r="B80" s="254"/>
+      <c r="B80" s="253"/>
       <c r="C80" s="127"/>
-      <c r="D80" s="295"/>
+      <c r="D80" s="290"/>
       <c r="E80" s="152"/>
       <c r="F80" s="158"/>
       <c r="G80" s="144"/>
@@ -7556,9 +7568,9 @@
     </row>
     <row r="81" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A81" s="133"/>
-      <c r="B81" s="254"/>
+      <c r="B81" s="253"/>
       <c r="C81" s="127"/>
-      <c r="D81" s="295"/>
+      <c r="D81" s="290"/>
       <c r="E81" s="159"/>
       <c r="F81" s="149"/>
       <c r="G81" s="149"/>
@@ -7587,9 +7599,9 @@
     </row>
     <row r="82" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A82" s="133"/>
-      <c r="B82" s="254"/>
+      <c r="B82" s="253"/>
       <c r="C82" s="127"/>
-      <c r="D82" s="295"/>
+      <c r="D82" s="290"/>
       <c r="E82" s="159"/>
       <c r="F82" s="149"/>
       <c r="G82" s="149"/>
@@ -7618,9 +7630,9 @@
     </row>
     <row r="83" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A83" s="133"/>
-      <c r="B83" s="254"/>
+      <c r="B83" s="253"/>
       <c r="C83" s="127"/>
-      <c r="D83" s="295"/>
+      <c r="D83" s="290"/>
       <c r="E83" s="159"/>
       <c r="F83" s="149"/>
       <c r="G83" s="149"/>
@@ -7649,9 +7661,9 @@
     </row>
     <row r="84" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A84" s="133"/>
-      <c r="B84" s="254"/>
+      <c r="B84" s="253"/>
       <c r="C84" s="127"/>
-      <c r="D84" s="295"/>
+      <c r="D84" s="290"/>
       <c r="E84" s="159"/>
       <c r="F84" s="149"/>
       <c r="G84" s="149"/>
@@ -7680,9 +7692,9 @@
     </row>
     <row r="85" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A85" s="133"/>
-      <c r="B85" s="254"/>
+      <c r="B85" s="253"/>
       <c r="C85" s="127"/>
-      <c r="D85" s="295"/>
+      <c r="D85" s="290"/>
       <c r="E85" s="159"/>
       <c r="F85" s="149"/>
       <c r="G85" s="149"/>
@@ -7711,9 +7723,9 @@
     </row>
     <row r="86" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A86" s="133"/>
-      <c r="B86" s="254"/>
+      <c r="B86" s="253"/>
       <c r="C86" s="127"/>
-      <c r="D86" s="295"/>
+      <c r="D86" s="290"/>
       <c r="E86" s="159"/>
       <c r="F86" s="149"/>
       <c r="G86" s="149"/>
@@ -7742,9 +7754,9 @@
     </row>
     <row r="87" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A87" s="133"/>
-      <c r="B87" s="254"/>
+      <c r="B87" s="253"/>
       <c r="C87" s="127"/>
-      <c r="D87" s="295"/>
+      <c r="D87" s="290"/>
       <c r="E87" s="159"/>
       <c r="F87" s="149"/>
       <c r="G87" s="149"/>
@@ -7773,7 +7785,7 @@
     </row>
     <row r="88" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A88" s="133"/>
-      <c r="B88" s="254"/>
+      <c r="B88" s="253"/>
       <c r="C88" s="160"/>
       <c r="D88" s="161"/>
       <c r="E88" s="159"/>
@@ -7804,7 +7816,7 @@
     </row>
     <row r="89" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A89" s="133"/>
-      <c r="B89" s="254"/>
+      <c r="B89" s="253"/>
       <c r="C89" s="162"/>
       <c r="D89" s="161"/>
       <c r="E89" s="159"/>
@@ -7835,7 +7847,7 @@
     </row>
     <row r="90" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A90" s="133"/>
-      <c r="B90" s="254"/>
+      <c r="B90" s="253"/>
       <c r="C90" s="162"/>
       <c r="D90" s="163"/>
       <c r="E90" s="159"/>
@@ -7866,9 +7878,9 @@
     </row>
     <row r="91" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A91" s="133"/>
-      <c r="B91" s="254"/>
+      <c r="B91" s="253"/>
       <c r="C91" s="162"/>
-      <c r="D91" s="296"/>
+      <c r="D91" s="291"/>
       <c r="E91" s="164"/>
       <c r="F91" s="149"/>
       <c r="G91" s="149"/>
@@ -7897,9 +7909,9 @@
     </row>
     <row r="92" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A92" s="133"/>
-      <c r="B92" s="254"/>
+      <c r="B92" s="253"/>
       <c r="C92" s="162"/>
-      <c r="D92" s="296"/>
+      <c r="D92" s="291"/>
       <c r="E92" s="164"/>
       <c r="F92" s="149"/>
       <c r="G92" s="149"/>
@@ -7928,7 +7940,7 @@
     </row>
     <row r="93" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A93" s="133"/>
-      <c r="B93" s="254"/>
+      <c r="B93" s="253"/>
       <c r="C93" s="162"/>
       <c r="D93" s="165"/>
       <c r="E93" s="159"/>
@@ -7959,7 +7971,7 @@
     </row>
     <row r="94" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A94" s="133"/>
-      <c r="B94" s="254"/>
+      <c r="B94" s="253"/>
       <c r="C94" s="162"/>
       <c r="D94" s="166"/>
       <c r="E94" s="159"/>
@@ -7990,7 +8002,7 @@
     </row>
     <row r="95" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A95" s="133"/>
-      <c r="B95" s="254"/>
+      <c r="B95" s="253"/>
       <c r="C95" s="162"/>
       <c r="D95" s="166"/>
       <c r="E95" s="167"/>
@@ -8021,7 +8033,7 @@
     </row>
     <row r="96" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A96" s="133"/>
-      <c r="B96" s="254"/>
+      <c r="B96" s="253"/>
       <c r="C96" s="162"/>
       <c r="D96" s="166"/>
       <c r="E96" s="159"/>
@@ -8052,7 +8064,7 @@
     </row>
     <row r="97" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A97" s="133"/>
-      <c r="B97" s="254"/>
+      <c r="B97" s="253"/>
       <c r="C97" s="162"/>
       <c r="D97" s="166"/>
       <c r="E97" s="159"/>
@@ -8083,7 +8095,7 @@
     </row>
     <row r="98" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A98" s="133"/>
-      <c r="B98" s="254"/>
+      <c r="B98" s="253"/>
       <c r="C98" s="162"/>
       <c r="D98" s="166"/>
       <c r="E98" s="159"/>
@@ -8114,7 +8126,7 @@
     </row>
     <row r="99" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A99" s="133"/>
-      <c r="B99" s="254"/>
+      <c r="B99" s="253"/>
       <c r="C99" s="162"/>
       <c r="D99" s="166"/>
       <c r="E99" s="159"/>
@@ -8145,7 +8157,7 @@
     </row>
     <row r="100" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A100" s="133"/>
-      <c r="B100" s="254"/>
+      <c r="B100" s="253"/>
       <c r="C100" s="162"/>
       <c r="D100" s="166"/>
       <c r="E100" s="167"/>
@@ -8176,7 +8188,7 @@
     </row>
     <row r="101" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A101" s="133"/>
-      <c r="B101" s="254"/>
+      <c r="B101" s="253"/>
       <c r="C101" s="162"/>
       <c r="D101" s="166"/>
       <c r="E101" s="167"/>
@@ -8207,7 +8219,7 @@
     </row>
     <row r="102" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A102" s="133"/>
-      <c r="B102" s="254"/>
+      <c r="B102" s="253"/>
       <c r="C102" s="162"/>
       <c r="D102" s="166"/>
       <c r="E102" s="167"/>
@@ -8238,7 +8250,7 @@
     </row>
     <row r="103" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A103" s="133"/>
-      <c r="B103" s="254"/>
+      <c r="B103" s="253"/>
       <c r="C103" s="162"/>
       <c r="D103" s="166"/>
       <c r="E103" s="159"/>
@@ -8269,7 +8281,7 @@
     </row>
     <row r="104" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A104" s="133"/>
-      <c r="B104" s="254"/>
+      <c r="B104" s="253"/>
       <c r="C104" s="162"/>
       <c r="D104" s="166"/>
       <c r="E104" s="159"/>
@@ -8300,7 +8312,7 @@
     </row>
     <row r="105" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A105" s="133"/>
-      <c r="B105" s="254"/>
+      <c r="B105" s="253"/>
       <c r="C105" s="162"/>
       <c r="D105" s="166"/>
       <c r="E105" s="159"/>
@@ -8331,7 +8343,7 @@
     </row>
     <row r="106" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A106" s="133"/>
-      <c r="B106" s="254"/>
+      <c r="B106" s="253"/>
       <c r="C106" s="162"/>
       <c r="D106" s="166"/>
       <c r="E106" s="159"/>
@@ -8362,7 +8374,7 @@
     </row>
     <row r="107" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A107" s="133"/>
-      <c r="B107" s="254"/>
+      <c r="B107" s="253"/>
       <c r="C107" s="162"/>
       <c r="D107" s="166"/>
       <c r="E107" s="159"/>
@@ -8393,7 +8405,7 @@
     </row>
     <row r="108" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A108" s="133"/>
-      <c r="B108" s="254"/>
+      <c r="B108" s="253"/>
       <c r="C108" s="162"/>
       <c r="D108" s="166"/>
       <c r="E108" s="159"/>
@@ -8424,7 +8436,7 @@
     </row>
     <row r="109" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A109" s="172"/>
-      <c r="B109" s="254"/>
+      <c r="B109" s="253"/>
       <c r="C109" s="162"/>
       <c r="D109" s="173"/>
       <c r="E109" s="174"/>
@@ -8455,7 +8467,7 @@
     </row>
     <row r="110" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A110" s="172"/>
-      <c r="B110" s="254"/>
+      <c r="B110" s="253"/>
       <c r="C110" s="162"/>
       <c r="D110" s="175"/>
       <c r="E110" s="159"/>
@@ -8486,7 +8498,7 @@
     </row>
     <row r="111" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A111" s="172"/>
-      <c r="B111" s="254"/>
+      <c r="B111" s="253"/>
       <c r="C111" s="162"/>
       <c r="D111" s="175"/>
       <c r="E111" s="159"/>
@@ -8517,7 +8529,7 @@
     </row>
     <row r="112" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A112" s="172"/>
-      <c r="B112" s="254"/>
+      <c r="B112" s="253"/>
       <c r="C112" s="162"/>
       <c r="D112" s="175"/>
       <c r="E112" s="176"/>
@@ -8548,7 +8560,7 @@
     </row>
     <row r="113" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A113" s="172"/>
-      <c r="B113" s="254"/>
+      <c r="B113" s="253"/>
       <c r="C113" s="162"/>
       <c r="D113" s="175"/>
       <c r="E113" s="177"/>
@@ -8579,7 +8591,7 @@
     </row>
     <row r="114" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A114" s="172"/>
-      <c r="B114" s="254"/>
+      <c r="B114" s="253"/>
       <c r="C114" s="162"/>
       <c r="D114" s="175"/>
       <c r="E114" s="177"/>
@@ -8610,7 +8622,7 @@
     </row>
     <row r="115" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A115" s="172"/>
-      <c r="B115" s="254"/>
+      <c r="B115" s="253"/>
       <c r="C115" s="162"/>
       <c r="D115" s="175"/>
       <c r="E115" s="177"/>
@@ -8641,7 +8653,7 @@
     </row>
     <row r="116" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A116" s="172"/>
-      <c r="B116" s="254"/>
+      <c r="B116" s="253"/>
       <c r="C116" s="162"/>
       <c r="D116" s="175"/>
       <c r="E116" s="177"/>
@@ -8672,7 +8684,7 @@
     </row>
     <row r="117" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A117" s="172"/>
-      <c r="B117" s="254"/>
+      <c r="B117" s="253"/>
       <c r="C117" s="162"/>
       <c r="D117" s="175"/>
       <c r="E117" s="159"/>
@@ -8703,7 +8715,7 @@
     </row>
     <row r="118" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A118" s="172"/>
-      <c r="B118" s="254"/>
+      <c r="B118" s="253"/>
       <c r="C118" s="162"/>
       <c r="D118" s="175"/>
       <c r="E118" s="159"/>
@@ -8734,7 +8746,7 @@
     </row>
     <row r="119" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A119" s="172"/>
-      <c r="B119" s="254"/>
+      <c r="B119" s="253"/>
       <c r="C119" s="162"/>
       <c r="D119" s="175"/>
       <c r="E119" s="159"/>
@@ -8765,7 +8777,7 @@
     </row>
     <row r="120" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A120" s="172"/>
-      <c r="B120" s="254"/>
+      <c r="B120" s="253"/>
       <c r="C120" s="162"/>
       <c r="D120" s="175"/>
       <c r="E120" s="159"/>
@@ -8796,7 +8808,7 @@
     </row>
     <row r="121" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A121" s="172"/>
-      <c r="B121" s="254"/>
+      <c r="B121" s="253"/>
       <c r="C121" s="162"/>
       <c r="D121" s="175"/>
       <c r="E121" s="174"/>
@@ -8827,7 +8839,7 @@
     </row>
     <row r="122" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A122" s="172"/>
-      <c r="B122" s="254"/>
+      <c r="B122" s="253"/>
       <c r="C122" s="162"/>
       <c r="D122" s="178"/>
       <c r="E122" s="179"/>
@@ -8858,7 +8870,7 @@
     </row>
     <row r="123" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A123" s="172"/>
-      <c r="B123" s="254"/>
+      <c r="B123" s="253"/>
       <c r="C123" s="162"/>
       <c r="D123" s="180"/>
       <c r="E123" s="174"/>
@@ -8889,9 +8901,9 @@
     </row>
     <row r="124" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A124" s="172"/>
-      <c r="B124" s="254"/>
+      <c r="B124" s="253"/>
       <c r="C124" s="162"/>
-      <c r="D124" s="297"/>
+      <c r="D124" s="292"/>
       <c r="E124" s="159"/>
       <c r="F124" s="149"/>
       <c r="G124" s="149"/>
@@ -8900,7 +8912,7 @@
       <c r="J124" s="149"/>
       <c r="K124" s="149"/>
       <c r="L124" s="139"/>
-      <c r="M124" s="298"/>
+      <c r="M124" s="293"/>
       <c r="N124" s="140"/>
       <c r="O124" s="140"/>
       <c r="P124" s="140"/>
@@ -8920,9 +8932,9 @@
     </row>
     <row r="125" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A125" s="133"/>
-      <c r="B125" s="254"/>
+      <c r="B125" s="253"/>
       <c r="C125" s="162"/>
-      <c r="D125" s="297"/>
+      <c r="D125" s="292"/>
       <c r="E125" s="159"/>
       <c r="F125" s="149"/>
       <c r="G125" s="149"/>
@@ -8931,7 +8943,7 @@
       <c r="J125" s="149"/>
       <c r="K125" s="149"/>
       <c r="L125" s="139"/>
-      <c r="M125" s="298"/>
+      <c r="M125" s="293"/>
       <c r="N125" s="140"/>
       <c r="O125" s="140"/>
       <c r="P125" s="140"/>
@@ -8951,9 +8963,9 @@
     </row>
     <row r="126" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A126" s="133"/>
-      <c r="B126" s="254"/>
+      <c r="B126" s="253"/>
       <c r="C126" s="162"/>
-      <c r="D126" s="297"/>
+      <c r="D126" s="292"/>
       <c r="E126" s="176"/>
       <c r="F126" s="149"/>
       <c r="G126" s="149"/>
@@ -8962,7 +8974,7 @@
       <c r="J126" s="149"/>
       <c r="K126" s="149"/>
       <c r="L126" s="139"/>
-      <c r="M126" s="298"/>
+      <c r="M126" s="293"/>
       <c r="N126" s="140"/>
       <c r="O126" s="140"/>
       <c r="P126" s="140"/>
@@ -8982,9 +8994,9 @@
     </row>
     <row r="127" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A127" s="133"/>
-      <c r="B127" s="254"/>
+      <c r="B127" s="253"/>
       <c r="C127" s="162"/>
-      <c r="D127" s="297"/>
+      <c r="D127" s="292"/>
       <c r="E127" s="177"/>
       <c r="F127" s="149"/>
       <c r="G127" s="149"/>
@@ -8993,7 +9005,7 @@
       <c r="J127" s="149"/>
       <c r="K127" s="149"/>
       <c r="L127" s="139"/>
-      <c r="M127" s="298"/>
+      <c r="M127" s="293"/>
       <c r="N127" s="140"/>
       <c r="O127" s="140"/>
       <c r="P127" s="140"/>
@@ -9013,9 +9025,9 @@
     </row>
     <row r="128" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A128" s="133"/>
-      <c r="B128" s="254"/>
+      <c r="B128" s="253"/>
       <c r="C128" s="162"/>
-      <c r="D128" s="297"/>
+      <c r="D128" s="292"/>
       <c r="E128" s="177"/>
       <c r="F128" s="149"/>
       <c r="G128" s="149"/>
@@ -9024,7 +9036,7 @@
       <c r="J128" s="149"/>
       <c r="K128" s="149"/>
       <c r="L128" s="139"/>
-      <c r="M128" s="298"/>
+      <c r="M128" s="293"/>
       <c r="N128" s="140"/>
       <c r="O128" s="140"/>
       <c r="P128" s="140"/>
@@ -9044,9 +9056,9 @@
     </row>
     <row r="129" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A129" s="133"/>
-      <c r="B129" s="254"/>
+      <c r="B129" s="253"/>
       <c r="C129" s="162"/>
-      <c r="D129" s="297"/>
+      <c r="D129" s="292"/>
       <c r="E129" s="177"/>
       <c r="F129" s="149"/>
       <c r="G129" s="149"/>
@@ -9055,7 +9067,7 @@
       <c r="J129" s="149"/>
       <c r="K129" s="149"/>
       <c r="L129" s="139"/>
-      <c r="M129" s="298"/>
+      <c r="M129" s="293"/>
       <c r="N129" s="140"/>
       <c r="O129" s="140"/>
       <c r="P129" s="140"/>
@@ -9075,9 +9087,9 @@
     </row>
     <row r="130" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A130" s="133"/>
-      <c r="B130" s="254"/>
+      <c r="B130" s="253"/>
       <c r="C130" s="162"/>
-      <c r="D130" s="297"/>
+      <c r="D130" s="292"/>
       <c r="E130" s="177"/>
       <c r="F130" s="149"/>
       <c r="G130" s="149"/>
@@ -9086,7 +9098,7 @@
       <c r="J130" s="149"/>
       <c r="K130" s="149"/>
       <c r="L130" s="139"/>
-      <c r="M130" s="298"/>
+      <c r="M130" s="293"/>
       <c r="N130" s="140"/>
       <c r="O130" s="140"/>
       <c r="P130" s="140"/>
@@ -9106,9 +9118,9 @@
     </row>
     <row r="131" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A131" s="133"/>
-      <c r="B131" s="254"/>
+      <c r="B131" s="253"/>
       <c r="C131" s="162"/>
-      <c r="D131" s="297"/>
+      <c r="D131" s="292"/>
       <c r="E131" s="159"/>
       <c r="F131" s="149"/>
       <c r="G131" s="149"/>
@@ -9117,7 +9129,7 @@
       <c r="J131" s="149"/>
       <c r="K131" s="149"/>
       <c r="L131" s="139"/>
-      <c r="M131" s="298"/>
+      <c r="M131" s="293"/>
       <c r="N131" s="140"/>
       <c r="O131" s="140"/>
       <c r="P131" s="140"/>
@@ -9137,9 +9149,9 @@
     </row>
     <row r="132" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A132" s="133"/>
-      <c r="B132" s="254"/>
+      <c r="B132" s="253"/>
       <c r="C132" s="162"/>
-      <c r="D132" s="297"/>
+      <c r="D132" s="292"/>
       <c r="E132" s="159"/>
       <c r="F132" s="149"/>
       <c r="G132" s="149"/>
@@ -9168,9 +9180,9 @@
     </row>
     <row r="133" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A133" s="133"/>
-      <c r="B133" s="254"/>
+      <c r="B133" s="253"/>
       <c r="C133" s="162"/>
-      <c r="D133" s="297"/>
+      <c r="D133" s="292"/>
       <c r="E133" s="159"/>
       <c r="F133" s="149"/>
       <c r="G133" s="149"/>
@@ -9199,9 +9211,9 @@
     </row>
     <row r="134" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A134" s="133"/>
-      <c r="B134" s="254"/>
+      <c r="B134" s="253"/>
       <c r="C134" s="162"/>
-      <c r="D134" s="297"/>
+      <c r="D134" s="292"/>
       <c r="E134" s="159"/>
       <c r="F134" s="149"/>
       <c r="G134" s="149"/>
@@ -9263,9 +9275,9 @@
       <c r="A136" s="181"/>
       <c r="B136" s="184"/>
       <c r="C136" s="183" t="s">
-        <v>83</v>
-      </c>
-      <c r="D136" s="299"/>
+        <v>82</v>
+      </c>
+      <c r="D136" s="294"/>
       <c r="E136" s="159"/>
       <c r="F136" s="149"/>
       <c r="G136" s="171"/>
@@ -9296,7 +9308,7 @@
       <c r="A137" s="181"/>
       <c r="B137" s="180"/>
       <c r="C137" s="185"/>
-      <c r="D137" s="299"/>
+      <c r="D137" s="294"/>
       <c r="E137" s="159"/>
       <c r="F137" s="149"/>
       <c r="G137" s="171"/>
@@ -9327,7 +9339,7 @@
       <c r="A138" s="181"/>
       <c r="B138" s="180"/>
       <c r="C138" s="185"/>
-      <c r="D138" s="299"/>
+      <c r="D138" s="294"/>
       <c r="E138" s="159"/>
       <c r="F138" s="149"/>
       <c r="G138" s="171"/>
@@ -9358,7 +9370,7 @@
       <c r="A139" s="181"/>
       <c r="B139" s="180"/>
       <c r="C139" s="180"/>
-      <c r="D139" s="299"/>
+      <c r="D139" s="294"/>
       <c r="E139" s="167"/>
       <c r="F139" s="149"/>
       <c r="G139" s="171"/>
@@ -9389,7 +9401,7 @@
       <c r="A140" s="181"/>
       <c r="B140" s="184"/>
       <c r="C140" s="180"/>
-      <c r="D140" s="299"/>
+      <c r="D140" s="294"/>
       <c r="E140" s="167"/>
       <c r="F140" s="149"/>
       <c r="G140" s="171"/>
@@ -9420,7 +9432,7 @@
       <c r="A141" s="181"/>
       <c r="B141" s="184"/>
       <c r="C141" s="180"/>
-      <c r="D141" s="299"/>
+      <c r="D141" s="294"/>
       <c r="E141" s="167"/>
       <c r="F141" s="149"/>
       <c r="G141" s="171"/>
@@ -9451,7 +9463,7 @@
       <c r="A142" s="181"/>
       <c r="B142" s="184"/>
       <c r="C142" s="180"/>
-      <c r="D142" s="299"/>
+      <c r="D142" s="294"/>
       <c r="E142" s="159"/>
       <c r="F142" s="149"/>
       <c r="G142" s="171"/>
@@ -9482,7 +9494,7 @@
       <c r="A143" s="181"/>
       <c r="B143" s="184"/>
       <c r="C143" s="180"/>
-      <c r="D143" s="299"/>
+      <c r="D143" s="294"/>
       <c r="E143" s="159"/>
       <c r="F143" s="149"/>
       <c r="G143" s="171"/>
@@ -9513,7 +9525,7 @@
       <c r="A144" s="181"/>
       <c r="B144" s="184"/>
       <c r="C144" s="184"/>
-      <c r="D144" s="299"/>
+      <c r="D144" s="294"/>
       <c r="E144" s="159"/>
       <c r="F144" s="149"/>
       <c r="G144" s="171"/>
@@ -10853,8 +10865,8 @@
       <c r="H187" s="205"/>
       <c r="I187" s="205"/>
       <c r="J187" s="205"/>
-      <c r="K187" s="300"/>
-      <c r="L187" s="298"/>
+      <c r="K187" s="295"/>
+      <c r="L187" s="293"/>
       <c r="M187" s="200"/>
       <c r="N187" s="140"/>
       <c r="O187" s="140"/>
@@ -10884,8 +10896,8 @@
       <c r="H188" s="206"/>
       <c r="I188" s="206"/>
       <c r="J188" s="206"/>
-      <c r="K188" s="300"/>
-      <c r="L188" s="298"/>
+      <c r="K188" s="295"/>
+      <c r="L188" s="293"/>
       <c r="M188" s="200"/>
       <c r="N188" s="140"/>
       <c r="O188" s="140"/>
@@ -10915,8 +10927,8 @@
       <c r="H189" s="129"/>
       <c r="I189" s="129"/>
       <c r="J189" s="129"/>
-      <c r="K189" s="300"/>
-      <c r="L189" s="298"/>
+      <c r="K189" s="295"/>
+      <c r="L189" s="293"/>
       <c r="M189" s="200"/>
       <c r="N189" s="140"/>
       <c r="O189" s="140"/>
@@ -11124,9 +11136,9 @@
     <row r="196" spans="1:29" ht="15.75" customHeight="1">
       <c r="A196" s="181"/>
       <c r="B196" s="192"/>
-      <c r="C196" s="301"/>
+      <c r="C196" s="296"/>
       <c r="D196" s="180"/>
-      <c r="E196" s="302"/>
+      <c r="E196" s="297"/>
       <c r="F196" s="142"/>
       <c r="G196" s="142"/>
       <c r="H196" s="142"/>
@@ -11155,9 +11167,9 @@
     <row r="197" spans="1:29" ht="15.75" customHeight="1">
       <c r="A197" s="181"/>
       <c r="B197" s="192"/>
-      <c r="C197" s="301"/>
+      <c r="C197" s="296"/>
       <c r="D197" s="180"/>
-      <c r="E197" s="302"/>
+      <c r="E197" s="297"/>
       <c r="F197" s="142"/>
       <c r="G197" s="142"/>
       <c r="H197" s="142"/>
@@ -11186,9 +11198,9 @@
     <row r="198" spans="1:29" ht="15.75" customHeight="1">
       <c r="A198" s="181"/>
       <c r="B198" s="192"/>
-      <c r="C198" s="301"/>
+      <c r="C198" s="296"/>
       <c r="D198" s="180"/>
-      <c r="E198" s="302"/>
+      <c r="E198" s="297"/>
       <c r="F198" s="142"/>
       <c r="G198" s="142"/>
       <c r="H198" s="142"/>
@@ -11217,7 +11229,7 @@
     <row r="199" spans="1:29" ht="15.75" customHeight="1">
       <c r="A199" s="181"/>
       <c r="B199" s="192"/>
-      <c r="C199" s="301"/>
+      <c r="C199" s="296"/>
       <c r="D199" s="180"/>
       <c r="E199" s="150"/>
       <c r="F199" s="142"/>
@@ -11248,7 +11260,7 @@
     <row r="200" spans="1:29" ht="15.75" customHeight="1">
       <c r="A200" s="181"/>
       <c r="B200" s="192"/>
-      <c r="C200" s="301"/>
+      <c r="C200" s="296"/>
       <c r="D200" s="180"/>
       <c r="E200" s="150"/>
       <c r="F200" s="142"/>
@@ -11279,7 +11291,7 @@
     <row r="201" spans="1:29" ht="15.75" customHeight="1">
       <c r="A201" s="181"/>
       <c r="B201" s="192"/>
-      <c r="C201" s="301"/>
+      <c r="C201" s="296"/>
       <c r="D201" s="180"/>
       <c r="E201" s="150"/>
       <c r="F201" s="203"/>
@@ -11310,7 +11322,7 @@
     <row r="202" spans="1:29" ht="15.75" customHeight="1">
       <c r="A202" s="181"/>
       <c r="B202" s="192"/>
-      <c r="C202" s="301"/>
+      <c r="C202" s="296"/>
       <c r="D202" s="180"/>
       <c r="E202" s="150"/>
       <c r="F202" s="142"/>
@@ -11341,7 +11353,7 @@
     <row r="203" spans="1:29" ht="15.75" customHeight="1">
       <c r="A203" s="181"/>
       <c r="B203" s="192"/>
-      <c r="C203" s="303"/>
+      <c r="C203" s="298"/>
       <c r="D203" s="190"/>
       <c r="E203" s="150"/>
       <c r="F203" s="203"/>
@@ -11372,7 +11384,7 @@
     <row r="204" spans="1:29" ht="15.75" customHeight="1">
       <c r="A204" s="181"/>
       <c r="B204" s="192"/>
-      <c r="C204" s="303"/>
+      <c r="C204" s="298"/>
       <c r="D204" s="211"/>
       <c r="E204" s="150"/>
       <c r="F204" s="203"/>
@@ -11434,7 +11446,7 @@
     <row r="206" spans="1:29" ht="30" customHeight="1">
       <c r="A206" s="181"/>
       <c r="B206" s="192"/>
-      <c r="C206" s="303"/>
+      <c r="C206" s="298"/>
       <c r="D206" s="190"/>
       <c r="E206" s="150"/>
       <c r="F206" s="142"/>
@@ -11465,7 +11477,7 @@
     <row r="207" spans="1:29" ht="15.75" customHeight="1">
       <c r="A207" s="181"/>
       <c r="B207" s="192"/>
-      <c r="C207" s="303"/>
+      <c r="C207" s="298"/>
       <c r="D207" s="191"/>
       <c r="E207" s="150"/>
       <c r="F207" s="142"/>
@@ -11496,7 +11508,7 @@
     <row r="208" spans="1:29" ht="15.75" customHeight="1">
       <c r="A208" s="181"/>
       <c r="B208" s="192"/>
-      <c r="C208" s="303"/>
+      <c r="C208" s="298"/>
       <c r="D208" s="191"/>
       <c r="E208" s="150"/>
       <c r="F208" s="142"/>
@@ -11527,7 +11539,7 @@
     <row r="209" spans="1:29" ht="15.75" customHeight="1">
       <c r="A209" s="181"/>
       <c r="B209" s="192"/>
-      <c r="C209" s="303"/>
+      <c r="C209" s="298"/>
       <c r="D209" s="191"/>
       <c r="E209" s="150"/>
       <c r="F209" s="203"/>
@@ -11558,7 +11570,7 @@
     <row r="210" spans="1:29" ht="15.75" customHeight="1">
       <c r="A210" s="181"/>
       <c r="B210" s="192"/>
-      <c r="C210" s="303"/>
+      <c r="C210" s="298"/>
       <c r="D210" s="191"/>
       <c r="E210" s="213"/>
       <c r="F210" s="142"/>
@@ -11938,7 +11950,7 @@
       <c r="H222" s="203"/>
       <c r="I222" s="203"/>
       <c r="J222" s="203"/>
-      <c r="K222" s="304"/>
+      <c r="K222" s="299"/>
       <c r="L222" s="139"/>
       <c r="M222" s="169"/>
       <c r="N222" s="140"/>
@@ -11969,7 +11981,7 @@
       <c r="H223" s="203"/>
       <c r="I223" s="203"/>
       <c r="J223" s="203"/>
-      <c r="K223" s="304"/>
+      <c r="K223" s="299"/>
       <c r="L223" s="139"/>
       <c r="M223" s="169"/>
       <c r="N223" s="140"/>
@@ -12054,7 +12066,7 @@
     <row r="226" spans="1:29" ht="15.75" customHeight="1">
       <c r="A226" s="181"/>
       <c r="B226" s="192"/>
-      <c r="C226" s="303"/>
+      <c r="C226" s="298"/>
       <c r="D226" s="190"/>
       <c r="E226" s="150"/>
       <c r="F226" s="203"/>
@@ -12062,7 +12074,7 @@
       <c r="H226" s="203"/>
       <c r="I226" s="203"/>
       <c r="J226" s="203"/>
-      <c r="K226" s="300"/>
+      <c r="K226" s="295"/>
       <c r="L226" s="139"/>
       <c r="M226" s="169"/>
       <c r="N226" s="140"/>
@@ -12085,7 +12097,7 @@
     <row r="227" spans="1:29" ht="15.75" customHeight="1">
       <c r="A227" s="181"/>
       <c r="B227" s="192"/>
-      <c r="C227" s="303"/>
+      <c r="C227" s="298"/>
       <c r="D227" s="211"/>
       <c r="E227" s="150"/>
       <c r="F227" s="203"/>
@@ -12093,7 +12105,7 @@
       <c r="H227" s="203"/>
       <c r="I227" s="203"/>
       <c r="J227" s="203"/>
-      <c r="K227" s="300"/>
+      <c r="K227" s="295"/>
       <c r="L227" s="139"/>
       <c r="M227" s="169"/>
       <c r="N227" s="140"/>
@@ -12116,7 +12128,7 @@
     <row r="228" spans="1:29" ht="15.75" customHeight="1">
       <c r="A228" s="181"/>
       <c r="B228" s="192"/>
-      <c r="C228" s="301"/>
+      <c r="C228" s="296"/>
       <c r="D228" s="204"/>
       <c r="E228" s="167"/>
       <c r="F228" s="149"/>
@@ -12147,7 +12159,7 @@
     <row r="229" spans="1:29" ht="15.75" customHeight="1">
       <c r="A229" s="181"/>
       <c r="B229" s="192"/>
-      <c r="C229" s="301"/>
+      <c r="C229" s="296"/>
       <c r="D229" s="165"/>
       <c r="E229" s="167"/>
       <c r="F229" s="149"/>
@@ -12209,7 +12221,7 @@
     <row r="231" spans="1:29" ht="15.75" customHeight="1">
       <c r="A231" s="181"/>
       <c r="B231" s="192"/>
-      <c r="C231" s="303"/>
+      <c r="C231" s="298"/>
       <c r="D231" s="190"/>
       <c r="E231" s="167"/>
       <c r="F231" s="149"/>
@@ -12240,7 +12252,7 @@
     <row r="232" spans="1:29" ht="15.75" customHeight="1">
       <c r="A232" s="181"/>
       <c r="B232" s="192"/>
-      <c r="C232" s="303"/>
+      <c r="C232" s="298"/>
       <c r="D232" s="191"/>
       <c r="E232" s="167"/>
       <c r="F232" s="149"/>
@@ -12271,7 +12283,7 @@
     <row r="233" spans="1:29" ht="15.75" customHeight="1">
       <c r="A233" s="181"/>
       <c r="B233" s="192"/>
-      <c r="C233" s="303"/>
+      <c r="C233" s="298"/>
       <c r="D233" s="211"/>
       <c r="E233" s="167"/>
       <c r="F233" s="149"/>
@@ -12456,10 +12468,10 @@
     </row>
     <row r="239" spans="1:29" ht="15.75" customHeight="1">
       <c r="A239" s="187"/>
-      <c r="B239" s="305"/>
-      <c r="C239" s="301"/>
+      <c r="B239" s="300"/>
+      <c r="C239" s="296"/>
       <c r="D239" s="180"/>
-      <c r="E239" s="301"/>
+      <c r="E239" s="296"/>
       <c r="F239" s="142"/>
       <c r="G239" s="142"/>
       <c r="H239" s="142"/>
@@ -12487,10 +12499,10 @@
     </row>
     <row r="240" spans="1:29" ht="15.75" customHeight="1">
       <c r="A240" s="187"/>
-      <c r="B240" s="305"/>
-      <c r="C240" s="305"/>
+      <c r="B240" s="300"/>
+      <c r="C240" s="300"/>
       <c r="D240" s="180"/>
-      <c r="E240" s="301"/>
+      <c r="E240" s="296"/>
       <c r="F240" s="142"/>
       <c r="G240" s="142"/>
       <c r="H240" s="142"/>
@@ -12518,10 +12530,10 @@
     </row>
     <row r="241" spans="1:29" ht="15.75" customHeight="1">
       <c r="A241" s="187"/>
-      <c r="B241" s="305"/>
-      <c r="C241" s="305"/>
+      <c r="B241" s="300"/>
+      <c r="C241" s="300"/>
       <c r="D241" s="180"/>
-      <c r="E241" s="301"/>
+      <c r="E241" s="296"/>
       <c r="F241" s="142"/>
       <c r="G241" s="142"/>
       <c r="H241" s="142"/>
@@ -12549,10 +12561,10 @@
     </row>
     <row r="242" spans="1:29" ht="15.75" customHeight="1">
       <c r="A242" s="187"/>
-      <c r="B242" s="305"/>
-      <c r="C242" s="305"/>
+      <c r="B242" s="300"/>
+      <c r="C242" s="300"/>
       <c r="D242" s="180"/>
-      <c r="E242" s="301"/>
+      <c r="E242" s="296"/>
       <c r="F242" s="142"/>
       <c r="G242" s="142"/>
       <c r="H242" s="142"/>
@@ -12580,10 +12592,10 @@
     </row>
     <row r="243" spans="1:29" ht="15.75" customHeight="1">
       <c r="A243" s="187"/>
-      <c r="B243" s="305"/>
-      <c r="C243" s="305"/>
+      <c r="B243" s="300"/>
+      <c r="C243" s="300"/>
       <c r="D243" s="180"/>
-      <c r="E243" s="301"/>
+      <c r="E243" s="296"/>
       <c r="F243" s="142"/>
       <c r="G243" s="142"/>
       <c r="H243" s="142"/>
@@ -12611,10 +12623,10 @@
     </row>
     <row r="244" spans="1:29" ht="15.75" customHeight="1">
       <c r="A244" s="187"/>
-      <c r="B244" s="305"/>
-      <c r="C244" s="305"/>
+      <c r="B244" s="300"/>
+      <c r="C244" s="300"/>
       <c r="D244" s="180"/>
-      <c r="E244" s="301"/>
+      <c r="E244" s="296"/>
       <c r="F244" s="203"/>
       <c r="G244" s="203"/>
       <c r="H244" s="203"/>
@@ -12642,10 +12654,10 @@
     </row>
     <row r="245" spans="1:29" ht="15.75" customHeight="1">
       <c r="A245" s="187"/>
-      <c r="B245" s="305"/>
-      <c r="C245" s="305"/>
+      <c r="B245" s="300"/>
+      <c r="C245" s="300"/>
       <c r="D245" s="180"/>
-      <c r="E245" s="301"/>
+      <c r="E245" s="296"/>
       <c r="F245" s="142"/>
       <c r="G245" s="142"/>
       <c r="H245" s="142"/>
@@ -12673,10 +12685,10 @@
     </row>
     <row r="246" spans="1:29" ht="15.75" customHeight="1">
       <c r="A246" s="187"/>
-      <c r="B246" s="305"/>
-      <c r="C246" s="305"/>
+      <c r="B246" s="300"/>
+      <c r="C246" s="300"/>
       <c r="D246" s="180"/>
-      <c r="E246" s="301"/>
+      <c r="E246" s="296"/>
       <c r="F246" s="142"/>
       <c r="G246" s="142"/>
       <c r="H246" s="142"/>
@@ -12704,8 +12716,8 @@
     </row>
     <row r="247" spans="1:29" ht="15.75" customHeight="1">
       <c r="A247" s="187"/>
-      <c r="B247" s="305"/>
-      <c r="C247" s="305"/>
+      <c r="B247" s="300"/>
+      <c r="C247" s="300"/>
       <c r="D247" s="180"/>
       <c r="E247" s="184"/>
       <c r="F247" s="138"/>
@@ -12735,8 +12747,8 @@
     </row>
     <row r="248" spans="1:29" ht="15.75" customHeight="1">
       <c r="A248" s="187"/>
-      <c r="B248" s="305"/>
-      <c r="C248" s="305"/>
+      <c r="B248" s="300"/>
+      <c r="C248" s="300"/>
       <c r="D248" s="180"/>
       <c r="E248" s="184"/>
       <c r="F248" s="139"/>
@@ -12766,10 +12778,10 @@
     </row>
     <row r="249" spans="1:29" ht="15.75" customHeight="1">
       <c r="A249" s="187"/>
-      <c r="B249" s="305"/>
-      <c r="C249" s="305"/>
+      <c r="B249" s="300"/>
+      <c r="C249" s="300"/>
       <c r="D249" s="204"/>
-      <c r="E249" s="301"/>
+      <c r="E249" s="296"/>
       <c r="F249" s="149"/>
       <c r="G249" s="149"/>
       <c r="H249" s="149"/>
@@ -12797,10 +12809,10 @@
     </row>
     <row r="250" spans="1:29" ht="15.75" customHeight="1">
       <c r="A250" s="187"/>
-      <c r="B250" s="305"/>
-      <c r="C250" s="305"/>
+      <c r="B250" s="300"/>
+      <c r="C250" s="300"/>
       <c r="D250" s="227"/>
-      <c r="E250" s="301"/>
+      <c r="E250" s="296"/>
       <c r="F250" s="139"/>
       <c r="G250" s="139"/>
       <c r="H250" s="139"/>
@@ -12828,10 +12840,10 @@
     </row>
     <row r="251" spans="1:29" ht="15.75" customHeight="1">
       <c r="A251" s="187"/>
-      <c r="B251" s="305"/>
-      <c r="C251" s="305"/>
+      <c r="B251" s="300"/>
+      <c r="C251" s="300"/>
       <c r="D251" s="227"/>
-      <c r="E251" s="301"/>
+      <c r="E251" s="296"/>
       <c r="F251" s="139"/>
       <c r="G251" s="139"/>
       <c r="H251" s="139"/>
@@ -12859,10 +12871,10 @@
     </row>
     <row r="252" spans="1:29" ht="15.75" customHeight="1">
       <c r="A252" s="187"/>
-      <c r="B252" s="305"/>
-      <c r="C252" s="301"/>
+      <c r="B252" s="300"/>
+      <c r="C252" s="296"/>
       <c r="D252" s="165"/>
-      <c r="E252" s="301"/>
+      <c r="E252" s="296"/>
       <c r="F252" s="139"/>
       <c r="G252" s="139"/>
       <c r="H252" s="139"/>
@@ -12890,7 +12902,7 @@
     </row>
     <row r="253" spans="1:29" ht="15.75" customHeight="1">
       <c r="A253" s="187"/>
-      <c r="B253" s="305"/>
+      <c r="B253" s="300"/>
       <c r="C253" s="180"/>
       <c r="D253" s="227"/>
       <c r="E253" s="227"/>
@@ -12921,10 +12933,10 @@
     </row>
     <row r="254" spans="1:29" ht="15.75" customHeight="1">
       <c r="A254" s="187"/>
-      <c r="B254" s="305"/>
-      <c r="C254" s="301"/>
+      <c r="B254" s="300"/>
+      <c r="C254" s="296"/>
       <c r="D254" s="204"/>
-      <c r="E254" s="306"/>
+      <c r="E254" s="301"/>
       <c r="F254" s="149"/>
       <c r="G254" s="149"/>
       <c r="H254" s="149"/>
@@ -12952,10 +12964,10 @@
     </row>
     <row r="255" spans="1:29" ht="15.75" customHeight="1">
       <c r="A255" s="187"/>
-      <c r="B255" s="305"/>
-      <c r="C255" s="305"/>
+      <c r="B255" s="300"/>
+      <c r="C255" s="300"/>
       <c r="D255" s="165"/>
-      <c r="E255" s="306"/>
+      <c r="E255" s="301"/>
       <c r="F255" s="149"/>
       <c r="G255" s="149"/>
       <c r="H255" s="149"/>
@@ -12983,10 +12995,10 @@
     </row>
     <row r="256" spans="1:29" ht="15.75" customHeight="1">
       <c r="A256" s="187"/>
-      <c r="B256" s="305"/>
-      <c r="C256" s="305"/>
+      <c r="B256" s="300"/>
+      <c r="C256" s="300"/>
       <c r="D256" s="180"/>
-      <c r="E256" s="306"/>
+      <c r="E256" s="301"/>
       <c r="F256" s="149"/>
       <c r="G256" s="149"/>
       <c r="H256" s="149"/>
@@ -13014,10 +13026,10 @@
     </row>
     <row r="257" spans="1:29" ht="15.75" customHeight="1">
       <c r="A257" s="187"/>
-      <c r="B257" s="305"/>
-      <c r="C257" s="301"/>
+      <c r="B257" s="300"/>
+      <c r="C257" s="296"/>
       <c r="D257" s="180"/>
-      <c r="E257" s="306"/>
+      <c r="E257" s="301"/>
       <c r="F257" s="149"/>
       <c r="G257" s="149"/>
       <c r="H257" s="149"/>
@@ -13045,7 +13057,7 @@
     </row>
     <row r="258" spans="1:29" ht="15.75" customHeight="1">
       <c r="A258" s="187"/>
-      <c r="B258" s="305"/>
+      <c r="B258" s="300"/>
       <c r="C258" s="184"/>
       <c r="D258" s="184"/>
       <c r="E258" s="187"/>
@@ -13076,10 +13088,10 @@
     </row>
     <row r="259" spans="1:29" ht="15.75" customHeight="1">
       <c r="A259" s="187"/>
-      <c r="B259" s="305"/>
-      <c r="C259" s="301"/>
+      <c r="B259" s="300"/>
+      <c r="C259" s="296"/>
       <c r="D259" s="204"/>
-      <c r="E259" s="301"/>
+      <c r="E259" s="296"/>
       <c r="F259" s="149"/>
       <c r="G259" s="149"/>
       <c r="H259" s="149"/>
@@ -13107,10 +13119,10 @@
     </row>
     <row r="260" spans="1:29" ht="15.75" customHeight="1">
       <c r="A260" s="187"/>
-      <c r="B260" s="305"/>
-      <c r="C260" s="305"/>
+      <c r="B260" s="300"/>
+      <c r="C260" s="300"/>
       <c r="D260" s="227"/>
-      <c r="E260" s="301"/>
+      <c r="E260" s="296"/>
       <c r="F260" s="149"/>
       <c r="G260" s="149"/>
       <c r="H260" s="149"/>
@@ -13138,10 +13150,10 @@
     </row>
     <row r="261" spans="1:29" ht="15.75" customHeight="1">
       <c r="A261" s="187"/>
-      <c r="B261" s="305"/>
-      <c r="C261" s="305"/>
+      <c r="B261" s="300"/>
+      <c r="C261" s="300"/>
       <c r="D261" s="227"/>
-      <c r="E261" s="301"/>
+      <c r="E261" s="296"/>
       <c r="F261" s="149"/>
       <c r="G261" s="149"/>
       <c r="H261" s="149"/>
@@ -13169,10 +13181,10 @@
     </row>
     <row r="262" spans="1:29" ht="15.75" customHeight="1">
       <c r="A262" s="187"/>
-      <c r="B262" s="305"/>
-      <c r="C262" s="305"/>
+      <c r="B262" s="300"/>
+      <c r="C262" s="300"/>
       <c r="D262" s="227"/>
-      <c r="E262" s="301"/>
+      <c r="E262" s="296"/>
       <c r="F262" s="149"/>
       <c r="G262" s="149"/>
       <c r="H262" s="149"/>
@@ -13200,10 +13212,10 @@
     </row>
     <row r="263" spans="1:29" ht="15.75" customHeight="1">
       <c r="A263" s="187"/>
-      <c r="B263" s="305"/>
-      <c r="C263" s="305"/>
+      <c r="B263" s="300"/>
+      <c r="C263" s="300"/>
       <c r="D263" s="227"/>
-      <c r="E263" s="301"/>
+      <c r="E263" s="296"/>
       <c r="F263" s="142"/>
       <c r="G263" s="142"/>
       <c r="H263" s="142"/>
@@ -13231,10 +13243,10 @@
     </row>
     <row r="264" spans="1:29" ht="15.75" customHeight="1">
       <c r="A264" s="187"/>
-      <c r="B264" s="305"/>
-      <c r="C264" s="305"/>
+      <c r="B264" s="300"/>
+      <c r="C264" s="300"/>
       <c r="D264" s="165"/>
-      <c r="E264" s="301"/>
+      <c r="E264" s="296"/>
       <c r="F264" s="142"/>
       <c r="G264" s="142"/>
       <c r="H264" s="142"/>
@@ -13262,10 +13274,10 @@
     </row>
     <row r="265" spans="1:29" ht="15.75" customHeight="1">
       <c r="A265" s="187"/>
-      <c r="B265" s="305"/>
-      <c r="C265" s="305"/>
+      <c r="B265" s="300"/>
+      <c r="C265" s="300"/>
       <c r="D265" s="204"/>
-      <c r="E265" s="301"/>
+      <c r="E265" s="296"/>
       <c r="F265" s="149"/>
       <c r="G265" s="149"/>
       <c r="H265" s="149"/>
@@ -13293,10 +13305,10 @@
     </row>
     <row r="266" spans="1:29" ht="15.75" customHeight="1">
       <c r="A266" s="187"/>
-      <c r="B266" s="305"/>
-      <c r="C266" s="305"/>
+      <c r="B266" s="300"/>
+      <c r="C266" s="300"/>
       <c r="D266" s="227"/>
-      <c r="E266" s="301"/>
+      <c r="E266" s="296"/>
       <c r="F266" s="139"/>
       <c r="G266" s="139"/>
       <c r="H266" s="139"/>
@@ -13324,10 +13336,10 @@
     </row>
     <row r="267" spans="1:29" ht="15.75" customHeight="1">
       <c r="A267" s="187"/>
-      <c r="B267" s="305"/>
-      <c r="C267" s="305"/>
+      <c r="B267" s="300"/>
+      <c r="C267" s="300"/>
       <c r="D267" s="227"/>
-      <c r="E267" s="301"/>
+      <c r="E267" s="296"/>
       <c r="F267" s="139"/>
       <c r="G267" s="139"/>
       <c r="H267" s="139"/>
@@ -13355,10 +13367,10 @@
     </row>
     <row r="268" spans="1:29" ht="15.75" customHeight="1">
       <c r="A268" s="187"/>
-      <c r="B268" s="305"/>
-      <c r="C268" s="305"/>
+      <c r="B268" s="300"/>
+      <c r="C268" s="300"/>
       <c r="D268" s="165"/>
-      <c r="E268" s="301"/>
+      <c r="E268" s="296"/>
       <c r="F268" s="139"/>
       <c r="G268" s="139"/>
       <c r="H268" s="139"/>
@@ -15735,22 +15747,436 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1"/>
+    <hyperlink ref="C1" r:id="rId1" display="Academy LMS (Plugin)"/>
     <hyperlink ref="J13" r:id="rId2"/>
     <hyperlink ref="J10" r:id="rId3"/>
     <hyperlink ref="J11" r:id="rId4"/>
+    <hyperlink ref="J12" r:id="rId5"/>
+    <hyperlink ref="J14" r:id="rId6"/>
+    <hyperlink ref="J16" r:id="rId7"/>
+    <hyperlink ref="J17" r:id="rId8"/>
+    <hyperlink ref="J18" r:id="rId9"/>
+    <hyperlink ref="J19" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId11"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H49"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="237" customWidth="1"/>
+    <col min="3" max="3" width="35.77734375" customWidth="1"/>
+    <col min="4" max="4" width="59.33203125" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" style="240" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" s="237" customFormat="1">
+      <c r="E1" s="240"/>
+    </row>
+    <row r="2" spans="2:8" s="237" customFormat="1">
+      <c r="E2" s="240"/>
+    </row>
+    <row r="3" spans="2:8" ht="13.5" customHeight="1">
+      <c r="B3" s="308" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="308"/>
+      <c r="D3" s="308"/>
+      <c r="E3" s="308"/>
+      <c r="F3" s="241"/>
+      <c r="G3" s="241"/>
+      <c r="H3" s="241"/>
+    </row>
+    <row r="4" spans="2:8" ht="45.75" customHeight="1">
+      <c r="B4" s="308"/>
+      <c r="C4" s="308"/>
+      <c r="D4" s="308"/>
+      <c r="E4" s="308"/>
+      <c r="F4" s="241"/>
+      <c r="G4" s="241"/>
+      <c r="H4" s="241"/>
+    </row>
+    <row r="5" spans="2:8" ht="44.25" customHeight="1">
+      <c r="B5" s="242" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="243" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="243" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="243" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" s="244" customFormat="1" ht="27.75" customHeight="1">
+      <c r="B6" s="245">
+        <v>1</v>
+      </c>
+      <c r="C6" s="246" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="247" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="245" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" s="244" customFormat="1" ht="29.25" customHeight="1">
+      <c r="B7" s="245">
+        <v>2</v>
+      </c>
+      <c r="C7" s="248" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="249" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="245" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" s="250" customFormat="1" ht="27.75" customHeight="1">
+      <c r="B8" s="245">
+        <v>3</v>
+      </c>
+      <c r="C8" s="248" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="249" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="245" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" s="250" customFormat="1" ht="29.25" customHeight="1">
+      <c r="B9" s="245">
+        <v>4</v>
+      </c>
+      <c r="C9" s="248" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="249" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="245" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" s="250" customFormat="1" ht="28.5" customHeight="1">
+      <c r="B10" s="245">
+        <v>5</v>
+      </c>
+      <c r="C10" s="248" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="249" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="245" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" s="250" customFormat="1" ht="27.75" customHeight="1">
+      <c r="B11" s="245">
+        <v>6</v>
+      </c>
+      <c r="C11" s="248" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="249" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="245" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" s="250" customFormat="1" ht="29.25" customHeight="1">
+      <c r="B12" s="245">
+        <v>7</v>
+      </c>
+      <c r="C12" s="248" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="249" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="245" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" s="250" customFormat="1" ht="29.25" customHeight="1">
+      <c r="B13" s="245">
+        <v>8</v>
+      </c>
+      <c r="C13" s="248" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="249" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="245" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" s="250" customFormat="1" ht="28.5" customHeight="1">
+      <c r="B14" s="245">
+        <v>9</v>
+      </c>
+      <c r="C14" s="248" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="249" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14" s="245" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" s="250" customFormat="1" ht="28.5" customHeight="1">
+      <c r="B15" s="245">
+        <v>10</v>
+      </c>
+      <c r="C15" s="248" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="249" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" s="245" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" s="250" customFormat="1" ht="28.5" customHeight="1">
+      <c r="B16" s="245">
+        <v>11</v>
+      </c>
+      <c r="C16" s="248" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="249" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" s="245" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="251"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="251"/>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="251"/>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="251"/>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="251"/>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="251"/>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="251"/>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="251"/>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="251"/>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="251"/>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="251"/>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="251"/>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="251"/>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="251"/>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="251"/>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="251"/>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="251"/>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="251"/>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="251"/>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="251"/>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="251"/>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="251"/>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="251"/>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="251"/>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="251"/>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="251"/>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="251"/>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="251"/>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="251"/>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="251"/>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="251"/>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="251"/>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="251"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:E4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:C10"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="71.33203125" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="42.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" ht="14.4" thickBot="1"/>
+    <row r="4" spans="1:3" ht="50.4" customHeight="1" thickBot="1">
+      <c r="A4" s="258" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="259" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="37.799999999999997" customHeight="1">
+      <c r="A5" s="260" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="260" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="41.4" customHeight="1">
+      <c r="A6" s="260" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="260" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="263" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="34.200000000000003" customHeight="1">
+      <c r="A7" s="260" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="260" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="47.4" customHeight="1">
+      <c r="A8" s="260" t="s">
+        <v>157</v>
+      </c>
+      <c r="B8" s="260" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="53.4" customHeight="1">
+      <c r="A9" s="260" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" s="260" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="64.8" customHeight="1">
+      <c r="A10" s="260" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10" s="262" t="s">
+        <v>207</v>
+      </c>
+      <c r="C10" s="257"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B10" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z219"/>
   <sheetViews>
     <sheetView topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.8"/>
@@ -15771,39 +16197,39 @@
     <row r="2" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="3" spans="1:26" ht="8.25" customHeight="1"/>
     <row r="4" spans="1:26" ht="25.5" customHeight="1">
-      <c r="B4" s="307" t="s">
+      <c r="B4" s="302" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="307"/>
-      <c r="D4" s="307"/>
-      <c r="E4" s="307"/>
-      <c r="F4" s="307"/>
-      <c r="G4" s="307"/>
+      <c r="C4" s="302"/>
+      <c r="D4" s="302"/>
+      <c r="E4" s="302"/>
+      <c r="F4" s="302"/>
+      <c r="G4" s="302"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="308" t="s">
-        <v>178</v>
-      </c>
-      <c r="D5" s="308"/>
-      <c r="E5" s="308"/>
-      <c r="F5" s="308"/>
-      <c r="G5" s="308"/>
+      <c r="C5" s="303" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" s="303"/>
+      <c r="E5" s="303"/>
+      <c r="F5" s="303"/>
+      <c r="G5" s="303"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="308" t="s">
-        <v>179</v>
-      </c>
-      <c r="D6" s="308"/>
-      <c r="E6" s="308"/>
-      <c r="F6" s="308"/>
-      <c r="G6" s="308"/>
+      <c r="C6" s="303" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" s="303"/>
+      <c r="E6" s="303"/>
+      <c r="F6" s="303"/>
+      <c r="G6" s="303"/>
       <c r="I6" s="4" t="s">
         <v>3</v>
       </c>
@@ -15819,13 +16245,13 @@
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="308" t="s">
-        <v>180</v>
-      </c>
-      <c r="D7" s="308"/>
-      <c r="E7" s="308"/>
-      <c r="F7" s="308"/>
-      <c r="G7" s="308"/>
+      <c r="C7" s="303" t="s">
+        <v>178</v>
+      </c>
+      <c r="D7" s="303"/>
+      <c r="E7" s="303"/>
+      <c r="F7" s="303"/>
+      <c r="G7" s="303"/>
       <c r="I7" s="7">
         <f>C15</f>
         <v>4</v>
@@ -15840,13 +16266,13 @@
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="308" t="s">
-        <v>112</v>
-      </c>
-      <c r="D8" s="308"/>
-      <c r="E8" s="308"/>
-      <c r="F8" s="308"/>
-      <c r="G8" s="308"/>
+      <c r="C8" s="303" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="303"/>
+      <c r="E8" s="303"/>
+      <c r="F8" s="303"/>
+      <c r="G8" s="303"/>
       <c r="I8" s="7">
         <f>D15</f>
         <v>9</v>
@@ -15861,13 +16287,13 @@
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="308" t="s">
-        <v>112</v>
-      </c>
-      <c r="D9" s="308"/>
-      <c r="E9" s="308"/>
-      <c r="F9" s="308"/>
-      <c r="G9" s="308"/>
+      <c r="C9" s="303" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="303"/>
+      <c r="E9" s="303"/>
+      <c r="F9" s="303"/>
+      <c r="G9" s="303"/>
       <c r="I9" s="7">
         <f>E15</f>
         <v>0</v>
@@ -15883,57 +16309,59 @@
         <v>13</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="O9" s="9" t="s">
-        <v>213</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="O9" s="9"/>
       <c r="P9" s="12"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1">
       <c r="B10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="308"/>
-      <c r="D10" s="308"/>
-      <c r="E10" s="308"/>
-      <c r="F10" s="308"/>
-      <c r="G10" s="308"/>
+        <v>14</v>
+      </c>
+      <c r="C10" s="303"/>
+      <c r="D10" s="303"/>
+      <c r="E10" s="303"/>
+      <c r="F10" s="303"/>
+      <c r="G10" s="303"/>
       <c r="I10" s="7">
         <f>F15</f>
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K10" s="5"/>
-      <c r="L10" s="9"/>
+      <c r="L10" s="9" t="s">
+        <v>68</v>
+      </c>
       <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
+      <c r="N10" s="9" t="s">
+        <v>209</v>
+      </c>
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B11" s="309" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="309"/>
-      <c r="D11" s="309"/>
-      <c r="E11" s="309"/>
-      <c r="F11" s="309"/>
-      <c r="G11" s="309"/>
+      <c r="B11" s="304" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="304"/>
+      <c r="D11" s="304"/>
+      <c r="E11" s="304"/>
+      <c r="F11" s="304"/>
+      <c r="G11" s="304"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B12" s="309"/>
-      <c r="C12" s="309"/>
-      <c r="D12" s="309"/>
-      <c r="E12" s="309"/>
-      <c r="F12" s="309"/>
-      <c r="G12" s="309"/>
+      <c r="B12" s="304"/>
+      <c r="C12" s="304"/>
+      <c r="D12" s="304"/>
+      <c r="E12" s="304"/>
+      <c r="F12" s="304"/>
+      <c r="G12" s="304"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1">
       <c r="B13" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>7</v>
@@ -15945,10 +16373,10 @@
         <v>11</v>
       </c>
       <c r="F13" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="15" t="s">
         <v>19</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>20</v>
       </c>
       <c r="L13" s="16"/>
       <c r="M13" s="16"/>
@@ -16003,7 +16431,7 @@
     </row>
     <row r="15" spans="1:26" ht="18">
       <c r="B15" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="26">
         <f>SUM(C14)</f>
@@ -16064,55 +16492,55 @@
       <c r="R17" s="16"/>
     </row>
     <row r="18" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B18" s="310" t="s">
+      <c r="B18" s="305" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="305"/>
+      <c r="D18" s="305"/>
+      <c r="E18" s="305"/>
+      <c r="F18" s="305"/>
+      <c r="G18" s="305"/>
+    </row>
+    <row r="19" spans="2:18" ht="15.75" customHeight="1">
+      <c r="B19" s="306" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="310"/>
-      <c r="D18" s="310"/>
-      <c r="E18" s="310"/>
-      <c r="F18" s="310"/>
-      <c r="G18" s="310"/>
-    </row>
-    <row r="19" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B19" s="311" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="311"/>
-      <c r="D19" s="311"/>
+      <c r="C19" s="306"/>
+      <c r="D19" s="306"/>
       <c r="E19" s="31"/>
       <c r="F19" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="31" t="s">
+    </row>
+    <row r="20" spans="2:18" ht="15.75" customHeight="1">
+      <c r="B20" s="307" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B20" s="312" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="312"/>
-      <c r="D20" s="312"/>
+      <c r="C20" s="307"/>
+      <c r="D20" s="307"/>
       <c r="E20" s="32"/>
       <c r="F20" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" ht="15.75" customHeight="1">
+      <c r="B21" s="307" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="32" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B21" s="312" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="312"/>
-      <c r="D21" s="312"/>
+      <c r="C21" s="307"/>
+      <c r="D21" s="307"/>
       <c r="E21" s="32"/>
       <c r="F21" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G21" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="2:18" ht="15.75" customHeight="1"/>
@@ -16332,412 +16760,4 @@
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H49"/>
-  <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.8"/>
-  <cols>
-    <col min="1" max="1" width="24.44140625" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="237" customWidth="1"/>
-    <col min="3" max="3" width="35.77734375" customWidth="1"/>
-    <col min="4" max="4" width="59.33203125" customWidth="1"/>
-    <col min="5" max="5" width="22.44140625" style="241" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:8" s="237" customFormat="1">
-      <c r="E1" s="241"/>
-    </row>
-    <row r="2" spans="2:8" s="237" customFormat="1">
-      <c r="E2" s="241"/>
-    </row>
-    <row r="3" spans="2:8" ht="13.5" customHeight="1">
-      <c r="B3" s="313" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="313"/>
-      <c r="D3" s="313"/>
-      <c r="E3" s="313"/>
-      <c r="F3" s="242"/>
-      <c r="G3" s="242"/>
-      <c r="H3" s="242"/>
-    </row>
-    <row r="4" spans="2:8" ht="45.75" customHeight="1">
-      <c r="B4" s="313"/>
-      <c r="C4" s="313"/>
-      <c r="D4" s="313"/>
-      <c r="E4" s="313"/>
-      <c r="F4" s="242"/>
-      <c r="G4" s="242"/>
-      <c r="H4" s="242"/>
-    </row>
-    <row r="5" spans="2:8" ht="44.25" customHeight="1">
-      <c r="B5" s="243" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="244" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" s="244" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="244" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" s="245" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B6" s="246">
-        <v>1</v>
-      </c>
-      <c r="C6" s="247" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" s="248" t="s">
-        <v>91</v>
-      </c>
-      <c r="E6" s="246" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" s="245" customFormat="1" ht="29.25" customHeight="1">
-      <c r="B7" s="246">
-        <v>2</v>
-      </c>
-      <c r="C7" s="249" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" s="250" t="s">
-        <v>93</v>
-      </c>
-      <c r="E7" s="246" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" s="251" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B8" s="246">
-        <v>3</v>
-      </c>
-      <c r="C8" s="249" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" s="250" t="s">
-        <v>95</v>
-      </c>
-      <c r="E8" s="246" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" s="251" customFormat="1" ht="29.25" customHeight="1">
-      <c r="B9" s="246">
-        <v>4</v>
-      </c>
-      <c r="C9" s="249" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="250" t="s">
-        <v>97</v>
-      </c>
-      <c r="E9" s="246" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" s="251" customFormat="1" ht="28.5" customHeight="1">
-      <c r="B10" s="246">
-        <v>5</v>
-      </c>
-      <c r="C10" s="249" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" s="250" t="s">
-        <v>99</v>
-      </c>
-      <c r="E10" s="246" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" s="251" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B11" s="246">
-        <v>6</v>
-      </c>
-      <c r="C11" s="249" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" s="250" t="s">
-        <v>101</v>
-      </c>
-      <c r="E11" s="246" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" s="251" customFormat="1" ht="29.25" customHeight="1">
-      <c r="B12" s="246">
-        <v>7</v>
-      </c>
-      <c r="C12" s="249" t="s">
-        <v>102</v>
-      </c>
-      <c r="D12" s="250" t="s">
-        <v>103</v>
-      </c>
-      <c r="E12" s="246" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" s="251" customFormat="1" ht="29.25" customHeight="1">
-      <c r="B13" s="246">
-        <v>8</v>
-      </c>
-      <c r="C13" s="249" t="s">
-        <v>104</v>
-      </c>
-      <c r="D13" s="250" t="s">
-        <v>105</v>
-      </c>
-      <c r="E13" s="246" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" s="251" customFormat="1" ht="28.5" customHeight="1">
-      <c r="B14" s="246">
-        <v>9</v>
-      </c>
-      <c r="C14" s="249" t="s">
-        <v>106</v>
-      </c>
-      <c r="D14" s="250" t="s">
-        <v>107</v>
-      </c>
-      <c r="E14" s="246" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" s="251" customFormat="1" ht="28.5" customHeight="1">
-      <c r="B15" s="246">
-        <v>10</v>
-      </c>
-      <c r="C15" s="249" t="s">
-        <v>108</v>
-      </c>
-      <c r="D15" s="250" t="s">
-        <v>109</v>
-      </c>
-      <c r="E15" s="246" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" s="251" customFormat="1" ht="28.5" customHeight="1">
-      <c r="B16" s="246">
-        <v>11</v>
-      </c>
-      <c r="C16" s="249" t="s">
-        <v>110</v>
-      </c>
-      <c r="D16" s="250" t="s">
-        <v>111</v>
-      </c>
-      <c r="E16" s="246" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="252"/>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="252"/>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="252"/>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="252"/>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="252"/>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="252"/>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="252"/>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="252"/>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="252"/>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="252"/>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="252"/>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="252"/>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="252"/>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="252"/>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" s="252"/>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" s="252"/>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="252"/>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="252"/>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="252"/>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="252"/>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="252"/>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="252"/>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39" s="252"/>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" s="252"/>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" s="252"/>
-    </row>
-    <row r="42" spans="2:2">
-      <c r="B42" s="252"/>
-    </row>
-    <row r="43" spans="2:2">
-      <c r="B43" s="252"/>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44" s="252"/>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" s="252"/>
-    </row>
-    <row r="46" spans="2:2">
-      <c r="B46" s="252"/>
-    </row>
-    <row r="47" spans="2:2">
-      <c r="B47" s="252"/>
-    </row>
-    <row r="48" spans="2:2">
-      <c r="B48" s="252"/>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="252"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B3:E4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:C10"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.8"/>
-  <cols>
-    <col min="1" max="1" width="71.33203125" customWidth="1"/>
-    <col min="2" max="2" width="71.6640625" customWidth="1"/>
-    <col min="3" max="3" width="42.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:3" ht="14.4" thickBot="1"/>
-    <row r="4" spans="1:3" ht="50.4" customHeight="1" thickBot="1">
-      <c r="A4" s="261" t="s">
-        <v>151</v>
-      </c>
-      <c r="B4" s="262" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="37.799999999999997" customHeight="1">
-      <c r="A5" s="263" t="s">
-        <v>153</v>
-      </c>
-      <c r="B5" s="263" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="41.4" customHeight="1">
-      <c r="A6" s="263" t="s">
-        <v>155</v>
-      </c>
-      <c r="B6" s="263" t="s">
-        <v>156</v>
-      </c>
-      <c r="C6" s="268" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="34.200000000000003" customHeight="1">
-      <c r="A7" s="263" t="s">
-        <v>157</v>
-      </c>
-      <c r="B7" s="263" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="47.4" customHeight="1">
-      <c r="A8" s="263" t="s">
-        <v>159</v>
-      </c>
-      <c r="B8" s="263" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="53.4" customHeight="1">
-      <c r="A9" s="263" t="s">
-        <v>162</v>
-      </c>
-      <c r="B9" s="263" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="64.8" customHeight="1">
-      <c r="A10" s="263" t="s">
-        <v>177</v>
-      </c>
-      <c r="B10" s="267" t="s">
-        <v>211</v>
-      </c>
-      <c r="C10" s="260"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/Academy_LMS_Kodezen.xlsx
+++ b/Academy_LMS_Kodezen.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Bug Report" sheetId="5" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="237">
   <si>
     <t>Test Case Report</t>
   </si>
@@ -424,81 +424,13 @@
     <t>Registration</t>
   </si>
   <si>
-    <t>1. Go to a website where Academy LMS is installed.
-2. Go to student registration &amp; instructor registration url.
-3. Check the written text on the Email field on both pages.
-4. Comapre the text with sign in page.</t>
-  </si>
-  <si>
     <t>Suggested spelling 'Email'</t>
   </si>
   <si>
     <t>Instructor Registration / Student Registration</t>
   </si>
   <si>
-    <t>Should be as per the sign up page ("Email")</t>
-  </si>
-  <si>
     <t>Suggested spelling "Username"</t>
-  </si>
-  <si>
-    <t>1. Go to a website where Academy LMS is installed.
-2. Go to student registration &amp; instructor registration url.
-3. Check the written text on the Username field on both pages.
-4. Comapre the text with sign in page.</t>
-  </si>
-  <si>
-    <t>Should be as per the sign up page ("Username")</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Different spelling for </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Username</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> field found on the registration &amp; sign up page.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Different spelling for </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Email</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> field found on the registration &amp; sign up page.</t>
-    </r>
   </si>
   <si>
     <t>bug_02</t>
@@ -526,9 +458,6 @@
   </si>
   <si>
     <t>Proper alignment of the fields should be present as per other pages</t>
-  </si>
-  <si>
-    <t>Alignment changes</t>
   </si>
   <si>
     <t>Bug_05</t>
@@ -1365,9 +1294,6 @@
     <t>Screenshot: Bug_06</t>
   </si>
   <si>
-    <t>Settings (Academy LMS Admin Panel), Sign Up, Registration</t>
-  </si>
-  <si>
     <t>Name field shouldn't take Numbers &amp; Special Characters. Username Shouldn't take numbers only or any special characters, email domain should be checked, password length should be at least 8 characters &amp; simple password shouldn't be take</t>
   </si>
   <si>
@@ -1441,12 +1367,97 @@
   <si>
     <t>(9/13)*100 = 69.23</t>
   </si>
+  <si>
+    <t>Alignment changes, A new Navbar appears</t>
+  </si>
+  <si>
+    <t>Not found as per expectation, didn't show any error text.</t>
+  </si>
+  <si>
+    <t>Test Environment</t>
+  </si>
+  <si>
+    <t>Domain: https://academy.ahmedmanan.com/
+Username: admin
+Password: admin_password</t>
+  </si>
+  <si>
+    <t>1. Go to a website where Academy LMS is installed.
+2. Go to student registration &amp; instructor registration url.
+3. Check the written text on the Username label &amp; field on both pages.
+4. Comapre the text with sign in page.</t>
+  </si>
+  <si>
+    <t>1. Go to a website where Academy LMS is installed.
+2. Go to student registration &amp; instructor registration url.
+3. Check the written text on the Email label &amp; field on both pages.
+4. Comapre the text with sign in page.</t>
+  </si>
+  <si>
+    <t>Should be as per the sign In / login module ("Username")</t>
+  </si>
+  <si>
+    <t>Should be as per the sign In / login module ("Email")</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Different spelling for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> field found on the registration &amp; sign In / login module.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Different spelling for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Username</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> field found on the registration &amp; sign In / login module.</t>
+    </r>
+  </si>
+  <si>
+    <t>Settings (Academy LMS Admin Panel), Sign In, Registration</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="49">
+  <fonts count="51">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1787,6 +1798,19 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2364,7 +2388,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="39" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="312">
+  <cellXfs count="314">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3078,6 +3102,13 @@
     <xf numFmtId="0" fontId="41" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3181,12 +3212,16 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3196,16 +3231,11 @@
     <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4284,8 +4314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L36"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView topLeftCell="A24" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.8"/>
@@ -4300,142 +4330,142 @@
   <sheetData>
     <row r="2" spans="2:12" ht="14.4" thickBot="1"/>
     <row r="3" spans="2:12" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B3" s="267" t="s">
+      <c r="B3" s="270" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="267"/>
-      <c r="E3" s="267" t="s">
+      <c r="C3" s="270"/>
+      <c r="E3" s="270" t="s">
         <v>83</v>
       </c>
-      <c r="F3" s="267"/>
-      <c r="H3" s="267" t="s">
+      <c r="F3" s="270"/>
+      <c r="H3" s="270" t="s">
         <v>83</v>
       </c>
-      <c r="I3" s="267"/>
-      <c r="K3" s="267" t="s">
+      <c r="I3" s="270"/>
+      <c r="K3" s="270" t="s">
         <v>83</v>
       </c>
-      <c r="L3" s="267"/>
+      <c r="L3" s="270"/>
     </row>
     <row r="4" spans="2:12" ht="14.4" customHeight="1" thickBot="1">
-      <c r="B4" s="267"/>
-      <c r="C4" s="267"/>
-      <c r="E4" s="267"/>
-      <c r="F4" s="267"/>
-      <c r="H4" s="267"/>
-      <c r="I4" s="267"/>
-      <c r="K4" s="267"/>
-      <c r="L4" s="267"/>
+      <c r="B4" s="270"/>
+      <c r="C4" s="270"/>
+      <c r="E4" s="270"/>
+      <c r="F4" s="270"/>
+      <c r="H4" s="270"/>
+      <c r="I4" s="270"/>
+      <c r="K4" s="270"/>
+      <c r="L4" s="270"/>
     </row>
     <row r="5" spans="2:12" ht="14.4" customHeight="1" thickBot="1">
-      <c r="B5" s="267"/>
-      <c r="C5" s="267"/>
-      <c r="E5" s="267"/>
-      <c r="F5" s="267"/>
-      <c r="H5" s="267"/>
-      <c r="I5" s="267"/>
-      <c r="K5" s="267"/>
-      <c r="L5" s="267"/>
+      <c r="B5" s="270"/>
+      <c r="C5" s="270"/>
+      <c r="E5" s="270"/>
+      <c r="F5" s="270"/>
+      <c r="H5" s="270"/>
+      <c r="I5" s="270"/>
+      <c r="K5" s="270"/>
+      <c r="L5" s="270"/>
     </row>
     <row r="6" spans="2:12" ht="14.4" customHeight="1" thickBot="1">
-      <c r="B6" s="267"/>
-      <c r="C6" s="267"/>
-      <c r="E6" s="267"/>
-      <c r="F6" s="267"/>
-      <c r="H6" s="267"/>
-      <c r="I6" s="267"/>
-      <c r="K6" s="267"/>
-      <c r="L6" s="267"/>
+      <c r="B6" s="270"/>
+      <c r="C6" s="270"/>
+      <c r="E6" s="270"/>
+      <c r="F6" s="270"/>
+      <c r="H6" s="270"/>
+      <c r="I6" s="270"/>
+      <c r="K6" s="270"/>
+      <c r="L6" s="270"/>
     </row>
     <row r="7" spans="2:12" ht="15" customHeight="1">
-      <c r="B7" s="268" t="s">
-        <v>181</v>
-      </c>
-      <c r="C7" s="268"/>
-      <c r="E7" s="268" t="s">
-        <v>189</v>
-      </c>
-      <c r="F7" s="268"/>
-      <c r="H7" s="268" t="s">
-        <v>193</v>
-      </c>
-      <c r="I7" s="268"/>
-      <c r="K7" s="268" t="s">
-        <v>198</v>
-      </c>
-      <c r="L7" s="268"/>
+      <c r="B7" s="271" t="s">
+        <v>174</v>
+      </c>
+      <c r="C7" s="271"/>
+      <c r="E7" s="271" t="s">
+        <v>182</v>
+      </c>
+      <c r="F7" s="271"/>
+      <c r="H7" s="271" t="s">
+        <v>186</v>
+      </c>
+      <c r="I7" s="271"/>
+      <c r="K7" s="271" t="s">
+        <v>191</v>
+      </c>
+      <c r="L7" s="271"/>
     </row>
     <row r="8" spans="2:12" ht="18.75" customHeight="1">
-      <c r="B8" s="268"/>
-      <c r="C8" s="268"/>
-      <c r="E8" s="268"/>
-      <c r="F8" s="268"/>
-      <c r="H8" s="268"/>
-      <c r="I8" s="268"/>
-      <c r="K8" s="268"/>
-      <c r="L8" s="268"/>
+      <c r="B8" s="271"/>
+      <c r="C8" s="271"/>
+      <c r="E8" s="271"/>
+      <c r="F8" s="271"/>
+      <c r="H8" s="271"/>
+      <c r="I8" s="271"/>
+      <c r="K8" s="271"/>
+      <c r="L8" s="271"/>
     </row>
     <row r="9" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B9" s="269" t="s">
-        <v>185</v>
-      </c>
-      <c r="C9" s="270"/>
-      <c r="E9" s="269" t="s">
-        <v>190</v>
-      </c>
-      <c r="F9" s="270"/>
-      <c r="H9" s="269" t="s">
+      <c r="B9" s="272" t="s">
+        <v>178</v>
+      </c>
+      <c r="C9" s="273"/>
+      <c r="E9" s="272" t="s">
+        <v>183</v>
+      </c>
+      <c r="F9" s="273"/>
+      <c r="H9" s="272" t="s">
+        <v>188</v>
+      </c>
+      <c r="I9" s="273"/>
+      <c r="K9" s="272" t="s">
         <v>195</v>
       </c>
-      <c r="I9" s="270"/>
-      <c r="K9" s="269" t="s">
-        <v>202</v>
-      </c>
-      <c r="L9" s="270"/>
+      <c r="L9" s="273"/>
     </row>
     <row r="10" spans="2:12" ht="50.4" customHeight="1">
-      <c r="B10" s="270"/>
-      <c r="C10" s="270"/>
-      <c r="E10" s="270"/>
-      <c r="F10" s="270"/>
-      <c r="H10" s="270"/>
-      <c r="I10" s="270"/>
-      <c r="K10" s="270"/>
-      <c r="L10" s="270"/>
+      <c r="B10" s="273"/>
+      <c r="C10" s="273"/>
+      <c r="E10" s="273"/>
+      <c r="F10" s="273"/>
+      <c r="H10" s="273"/>
+      <c r="I10" s="273"/>
+      <c r="K10" s="273"/>
+      <c r="L10" s="273"/>
     </row>
     <row r="11" spans="2:12" ht="21" customHeight="1">
-      <c r="B11" s="271" t="s">
+      <c r="B11" s="274" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="271"/>
-      <c r="E11" s="271" t="s">
+      <c r="C11" s="274"/>
+      <c r="E11" s="274" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="271"/>
-      <c r="H11" s="271" t="s">
+      <c r="F11" s="274"/>
+      <c r="H11" s="274" t="s">
         <v>84</v>
       </c>
-      <c r="I11" s="271"/>
-      <c r="K11" s="271" t="s">
+      <c r="I11" s="274"/>
+      <c r="K11" s="274" t="s">
         <v>84</v>
       </c>
-      <c r="L11" s="271"/>
-    </row>
-    <row r="12" spans="2:12" ht="111.6" customHeight="1">
+      <c r="L11" s="274"/>
+    </row>
+    <row r="12" spans="2:12" ht="119.4" customHeight="1">
       <c r="B12" s="233" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C12" s="234"/>
       <c r="E12" s="233" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F12" s="234"/>
       <c r="H12" s="233" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="I12" s="234"/>
       <c r="K12" s="233" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="L12" s="234"/>
     </row>
@@ -4453,160 +4483,160 @@
       </c>
       <c r="I13" s="234"/>
       <c r="K13" s="235" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="L13" s="234"/>
     </row>
     <row r="14" spans="2:12" ht="27" customHeight="1">
       <c r="B14" s="236" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C14" s="234"/>
       <c r="E14" s="236" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="F14" s="234"/>
       <c r="H14" s="236" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="I14" s="234"/>
       <c r="K14" s="236" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="L14" s="234"/>
     </row>
     <row r="15" spans="2:12" ht="27" customHeight="1">
       <c r="B15" s="236" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C15" s="234"/>
       <c r="E15" s="236" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F15" s="234"/>
       <c r="H15" s="236" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="I15" s="234"/>
       <c r="K15" s="236" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="L15" s="234"/>
     </row>
     <row r="16" spans="2:12" s="237" customFormat="1" ht="27" customHeight="1">
-      <c r="B16" s="309" t="s">
-        <v>217</v>
+      <c r="B16" s="267" t="s">
+        <v>210</v>
       </c>
       <c r="C16" s="234"/>
-      <c r="E16" s="309" t="s">
-        <v>218</v>
+      <c r="E16" s="267" t="s">
+        <v>211</v>
       </c>
       <c r="F16" s="234"/>
-      <c r="H16" s="310" t="s">
-        <v>219</v>
+      <c r="H16" s="268" t="s">
+        <v>212</v>
       </c>
       <c r="I16" s="234"/>
-      <c r="K16" s="310" t="s">
-        <v>220</v>
+      <c r="K16" s="268" t="s">
+        <v>213</v>
       </c>
       <c r="L16" s="234"/>
     </row>
     <row r="17" spans="2:12" ht="27" customHeight="1" thickBot="1">
       <c r="B17" s="238" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C17" s="239"/>
       <c r="E17" s="238" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="F17" s="239"/>
       <c r="H17" s="238" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="I17" s="239"/>
       <c r="K17" s="238" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="L17" s="239"/>
     </row>
     <row r="18" spans="2:12" ht="14.4" thickBot="1"/>
     <row r="19" spans="2:12" ht="14.4" customHeight="1" thickBot="1">
-      <c r="B19" s="267" t="s">
+      <c r="B19" s="270" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="267"/>
-      <c r="E19" s="267" t="s">
+      <c r="C19" s="270"/>
+      <c r="E19" s="270" t="s">
         <v>83</v>
       </c>
-      <c r="F19" s="267"/>
+      <c r="F19" s="270"/>
     </row>
     <row r="20" spans="2:12" ht="14.4" customHeight="1" thickBot="1">
-      <c r="B20" s="267"/>
-      <c r="C20" s="267"/>
-      <c r="E20" s="267"/>
-      <c r="F20" s="267"/>
+      <c r="B20" s="270"/>
+      <c r="C20" s="270"/>
+      <c r="E20" s="270"/>
+      <c r="F20" s="270"/>
     </row>
     <row r="21" spans="2:12" ht="14.4" customHeight="1" thickBot="1">
-      <c r="B21" s="267"/>
-      <c r="C21" s="267"/>
-      <c r="E21" s="267"/>
-      <c r="F21" s="267"/>
+      <c r="B21" s="270"/>
+      <c r="C21" s="270"/>
+      <c r="E21" s="270"/>
+      <c r="F21" s="270"/>
     </row>
     <row r="22" spans="2:12" ht="14.4" customHeight="1" thickBot="1">
-      <c r="B22" s="267"/>
-      <c r="C22" s="267"/>
-      <c r="E22" s="267"/>
-      <c r="F22" s="267"/>
+      <c r="B22" s="270"/>
+      <c r="C22" s="270"/>
+      <c r="E22" s="270"/>
+      <c r="F22" s="270"/>
     </row>
     <row r="23" spans="2:12" ht="13.8" customHeight="1">
-      <c r="B23" s="268" t="s">
+      <c r="B23" s="271" t="s">
+        <v>199</v>
+      </c>
+      <c r="C23" s="271"/>
+      <c r="E23" s="271" t="s">
+        <v>199</v>
+      </c>
+      <c r="F23" s="271"/>
+    </row>
+    <row r="24" spans="2:12" ht="13.8" customHeight="1">
+      <c r="B24" s="271"/>
+      <c r="C24" s="271"/>
+      <c r="E24" s="271"/>
+      <c r="F24" s="271"/>
+    </row>
+    <row r="25" spans="2:12" ht="49.2" customHeight="1">
+      <c r="B25" s="272" t="s">
+        <v>204</v>
+      </c>
+      <c r="C25" s="273"/>
+      <c r="E25" s="272" t="s">
         <v>206</v>
       </c>
-      <c r="C23" s="268"/>
-      <c r="E23" s="268" t="s">
-        <v>206</v>
-      </c>
-      <c r="F23" s="268"/>
-    </row>
-    <row r="24" spans="2:12" ht="13.8" customHeight="1">
-      <c r="B24" s="268"/>
-      <c r="C24" s="268"/>
-      <c r="E24" s="268"/>
-      <c r="F24" s="268"/>
-    </row>
-    <row r="25" spans="2:12" ht="49.2" customHeight="1">
-      <c r="B25" s="269" t="s">
-        <v>211</v>
-      </c>
-      <c r="C25" s="270"/>
-      <c r="E25" s="269" t="s">
-        <v>213</v>
-      </c>
-      <c r="F25" s="270"/>
+      <c r="F25" s="273"/>
     </row>
     <row r="26" spans="2:12" ht="13.8" customHeight="1">
-      <c r="B26" s="270"/>
-      <c r="C26" s="270"/>
-      <c r="E26" s="270"/>
-      <c r="F26" s="270"/>
+      <c r="B26" s="273"/>
+      <c r="C26" s="273"/>
+      <c r="E26" s="273"/>
+      <c r="F26" s="273"/>
     </row>
     <row r="27" spans="2:12" ht="14.4">
-      <c r="B27" s="271" t="s">
+      <c r="B27" s="274" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="271"/>
-      <c r="E27" s="271" t="s">
+      <c r="C27" s="274"/>
+      <c r="E27" s="274" t="s">
         <v>84</v>
       </c>
-      <c r="F27" s="271"/>
+      <c r="F27" s="274"/>
     </row>
     <row r="28" spans="2:12" ht="172.8">
       <c r="B28" s="233" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C28" s="234"/>
       <c r="E28" s="233" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F28" s="234"/>
     </row>
@@ -4622,47 +4652,47 @@
     </row>
     <row r="30" spans="2:12" ht="14.4">
       <c r="B30" s="236" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C30" s="234"/>
       <c r="E30" s="236" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F30" s="234"/>
     </row>
     <row r="31" spans="2:12" ht="14.4">
       <c r="B31" s="236" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C31" s="234"/>
       <c r="E31" s="236" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F31" s="234"/>
     </row>
     <row r="32" spans="2:12">
-      <c r="B32" s="309" t="s">
-        <v>221</v>
+      <c r="B32" s="267" t="s">
+        <v>214</v>
       </c>
       <c r="C32" s="234"/>
-      <c r="E32" s="309" t="s">
-        <v>222</v>
+      <c r="E32" s="267" t="s">
+        <v>215</v>
       </c>
       <c r="F32" s="234"/>
     </row>
     <row r="33" spans="2:6" ht="15" thickBot="1">
       <c r="B33" s="238" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C33" s="239"/>
       <c r="E33" s="238" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="F33" s="239"/>
     </row>
     <row r="36" spans="2:6" ht="31.2" customHeight="1">
       <c r="B36" s="264" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C36" s="264"/>
       <c r="D36" s="264"/>
@@ -4712,9 +4742,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC336"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
+    <sheetView zoomScale="75" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.8"/>
@@ -4736,12 +4766,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="29.25" customHeight="1" thickBot="1">
-      <c r="A1" s="278" t="s">
+      <c r="A1" s="281" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="278"/>
+      <c r="B1" s="281"/>
       <c r="C1" s="252" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="D1" s="33" t="s">
         <v>32</v>
@@ -4759,10 +4789,10 @@
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
       <c r="K1" s="37"/>
-      <c r="L1" s="277" t="s">
+      <c r="L1" s="280" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="277"/>
+      <c r="M1" s="280"/>
       <c r="N1" s="38"/>
       <c r="O1" s="38"/>
       <c r="P1" s="38"/>
@@ -4781,12 +4811,12 @@
       <c r="AC1" s="38"/>
     </row>
     <row r="2" spans="1:29" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A2" s="278" t="s">
+      <c r="A2" s="281" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="278"/>
+      <c r="B2" s="281"/>
       <c r="C2" s="39" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="D2" s="40" t="s">
         <v>36</v>
@@ -4829,15 +4859,15 @@
       <c r="AC2" s="38"/>
     </row>
     <row r="3" spans="1:29" ht="33" customHeight="1" thickBot="1">
-      <c r="A3" s="278" t="s">
+      <c r="A3" s="281" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="278"/>
+      <c r="B3" s="281"/>
       <c r="C3" s="39"/>
       <c r="D3" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="313" t="s">
         <v>111</v>
       </c>
       <c r="F3" s="44" t="s">
@@ -4875,10 +4905,10 @@
       <c r="AC3" s="38"/>
     </row>
     <row r="4" spans="1:29" ht="34.5" customHeight="1">
-      <c r="A4" s="278" t="s">
+      <c r="A4" s="281" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="278"/>
+      <c r="B4" s="281"/>
       <c r="C4" s="39"/>
       <c r="D4" s="40" t="s">
         <v>44</v>
@@ -4919,15 +4949,15 @@
       <c r="AC4" s="38"/>
     </row>
     <row r="5" spans="1:29" s="52" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A5" s="285" t="s">
+      <c r="A5" s="288" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="285"/>
-      <c r="C5" s="286"/>
-      <c r="D5" s="286"/>
-      <c r="E5" s="286"/>
-      <c r="F5" s="286"/>
-      <c r="G5" s="286"/>
+      <c r="B5" s="288"/>
+      <c r="C5" s="289"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
       <c r="H5" s="47"/>
       <c r="I5" s="47"/>
       <c r="J5" s="47"/>
@@ -5059,7 +5089,7 @@
       </c>
       <c r="D8" s="62"/>
       <c r="E8" s="65" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F8" s="65" t="s">
         <v>62</v>
@@ -5132,9 +5162,9 @@
         <v>2</v>
       </c>
       <c r="B10" s="255" t="s">
-        <v>139</v>
-      </c>
-      <c r="C10" s="287" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="290" t="s">
         <v>66</v>
       </c>
       <c r="D10" s="255" t="s">
@@ -5144,10 +5174,10 @@
         <v>67</v>
       </c>
       <c r="F10" s="65" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="G10" s="65" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="H10" s="65" t="s">
         <v>68</v>
@@ -5186,37 +5216,37 @@
       <c r="A11" s="80">
         <v>3</v>
       </c>
-      <c r="B11" s="274" t="s">
+      <c r="B11" s="277" t="s">
         <v>119</v>
       </c>
-      <c r="C11" s="287"/>
-      <c r="D11" s="274" t="s">
-        <v>122</v>
+      <c r="C11" s="290"/>
+      <c r="D11" s="277" t="s">
+        <v>121</v>
       </c>
       <c r="E11" s="65" t="s">
         <v>67</v>
       </c>
       <c r="F11" s="65" t="s">
-        <v>126</v>
+        <v>232</v>
       </c>
       <c r="G11" s="65" t="s">
-        <v>127</v>
+        <v>235</v>
       </c>
       <c r="H11" s="65" t="s">
         <v>68</v>
       </c>
       <c r="I11" s="66" t="s">
-        <v>125</v>
+        <v>230</v>
       </c>
       <c r="J11" s="265" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="K11" s="81"/>
       <c r="L11" s="82" t="s">
         <v>70</v>
       </c>
       <c r="M11" s="256" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N11" s="83"/>
       <c r="O11" s="83"/>
@@ -5239,33 +5269,33 @@
       <c r="A12" s="80">
         <v>4</v>
       </c>
-      <c r="B12" s="275"/>
-      <c r="C12" s="287"/>
-      <c r="D12" s="275"/>
+      <c r="B12" s="278"/>
+      <c r="C12" s="290"/>
+      <c r="D12" s="278"/>
       <c r="E12" s="65" t="s">
         <v>67</v>
       </c>
       <c r="F12" s="65" t="s">
-        <v>123</v>
+        <v>233</v>
       </c>
       <c r="G12" s="65" t="s">
-        <v>128</v>
+        <v>234</v>
       </c>
       <c r="H12" s="65" t="s">
         <v>68</v>
       </c>
       <c r="I12" s="66" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="J12" s="265" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="K12" s="85"/>
       <c r="L12" s="82" t="s">
         <v>70</v>
       </c>
       <c r="M12" s="256" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N12" s="86"/>
       <c r="O12" s="86"/>
@@ -5284,22 +5314,22 @@
       <c r="AB12" s="83"/>
       <c r="AC12" s="83"/>
     </row>
-    <row r="13" spans="1:29" s="84" customFormat="1" ht="73.8" customHeight="1" thickBot="1">
+    <row r="13" spans="1:29" s="84" customFormat="1" ht="107.4" customHeight="1" thickBot="1">
       <c r="A13" s="80">
         <v>5</v>
       </c>
-      <c r="B13" s="274" t="s">
-        <v>132</v>
-      </c>
-      <c r="C13" s="287"/>
-      <c r="D13" s="272" t="s">
-        <v>133</v>
+      <c r="B13" s="277" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="290"/>
+      <c r="D13" s="275" t="s">
+        <v>127</v>
       </c>
       <c r="E13" s="65" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="F13" s="65" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G13" s="65" t="s">
         <v>69</v>
@@ -5308,17 +5338,17 @@
         <v>68</v>
       </c>
       <c r="I13" s="66" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="J13" s="265" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="K13" s="85"/>
       <c r="L13" s="82" t="s">
         <v>70</v>
       </c>
       <c r="M13" s="266" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="N13" s="86"/>
       <c r="O13" s="86"/>
@@ -5341,26 +5371,26 @@
       <c r="A14" s="80">
         <v>6</v>
       </c>
-      <c r="B14" s="275"/>
-      <c r="C14" s="287"/>
-      <c r="D14" s="273"/>
+      <c r="B14" s="278"/>
+      <c r="C14" s="290"/>
+      <c r="D14" s="276"/>
       <c r="E14" s="65" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F14" s="65" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="G14" s="65" t="s">
-        <v>137</v>
+        <v>226</v>
       </c>
       <c r="H14" s="65" t="s">
         <v>68</v>
       </c>
       <c r="I14" s="66" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="J14" s="265" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="K14" s="85"/>
       <c r="L14" s="82" t="s">
@@ -5419,39 +5449,39 @@
       <c r="A16" s="95">
         <v>10</v>
       </c>
-      <c r="B16" s="272" t="s">
-        <v>139</v>
-      </c>
-      <c r="C16" s="288" t="s">
+      <c r="B16" s="275" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="291" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="272" t="s">
+      <c r="D16" s="275" t="s">
         <v>116</v>
       </c>
       <c r="E16" s="102" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="F16" s="96" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G16" s="96" t="s">
-        <v>69</v>
+        <v>227</v>
       </c>
       <c r="H16" s="96" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I16" s="66" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="J16" s="265" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="K16" s="97"/>
       <c r="L16" s="68" t="s">
         <v>70</v>
       </c>
       <c r="M16" s="96" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="N16" s="98"/>
       <c r="O16" s="98"/>
@@ -5474,33 +5504,33 @@
       <c r="A17" s="95">
         <v>11</v>
       </c>
-      <c r="B17" s="273"/>
-      <c r="C17" s="288"/>
-      <c r="D17" s="273"/>
+      <c r="B17" s="276"/>
+      <c r="C17" s="291"/>
+      <c r="D17" s="276"/>
       <c r="E17" s="102" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="F17" s="65" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G17" s="96" t="s">
         <v>69</v>
       </c>
       <c r="H17" s="96" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="I17" s="66" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="J17" s="265" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="K17" s="97"/>
       <c r="L17" s="68" t="s">
         <v>70</v>
       </c>
       <c r="M17" s="96" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="N17" s="98"/>
       <c r="O17" s="98"/>
@@ -5523,15 +5553,15 @@
       <c r="A18" s="95">
         <v>12</v>
       </c>
-      <c r="B18" s="274" t="s">
+      <c r="B18" s="277" t="s">
         <v>119</v>
       </c>
-      <c r="C18" s="288"/>
-      <c r="D18" s="272" t="s">
-        <v>122</v>
+      <c r="C18" s="291"/>
+      <c r="D18" s="275" t="s">
+        <v>121</v>
       </c>
       <c r="E18" s="261" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F18" s="65" t="s">
         <v>71</v>
@@ -5540,20 +5570,20 @@
         <v>69</v>
       </c>
       <c r="H18" s="96" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="I18" s="66" t="s">
-        <v>163</v>
-      </c>
-      <c r="J18" s="311" t="s">
-        <v>164</v>
+        <v>156</v>
+      </c>
+      <c r="J18" s="269" t="s">
+        <v>157</v>
       </c>
       <c r="K18" s="97"/>
       <c r="L18" s="68" t="s">
         <v>70</v>
       </c>
       <c r="M18" s="101" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="N18" s="98"/>
       <c r="O18" s="98"/>
@@ -5576,26 +5606,26 @@
       <c r="A19" s="95">
         <v>13</v>
       </c>
-      <c r="B19" s="275"/>
-      <c r="C19" s="288"/>
-      <c r="D19" s="276"/>
+      <c r="B19" s="278"/>
+      <c r="C19" s="291"/>
+      <c r="D19" s="279"/>
       <c r="E19" s="102" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F19" s="65" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="G19" s="96" t="s">
         <v>69</v>
       </c>
       <c r="H19" s="96" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="I19" s="66" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="J19" s="265" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="K19" s="103"/>
       <c r="L19" s="68" t="s">
@@ -5655,11 +5685,11 @@
         <v>48</v>
       </c>
       <c r="B21" s="253"/>
-      <c r="C21" s="288" t="s">
+      <c r="C21" s="291" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="272" t="s">
-        <v>210</v>
+      <c r="D21" s="275" t="s">
+        <v>203</v>
       </c>
       <c r="E21" s="102" t="s">
         <v>72</v>
@@ -5674,7 +5704,7 @@
         <v>68</v>
       </c>
       <c r="I21" s="66" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="J21" s="96"/>
       <c r="K21" s="96"/>
@@ -5704,8 +5734,8 @@
         <v>49</v>
       </c>
       <c r="B22" s="253"/>
-      <c r="C22" s="288"/>
-      <c r="D22" s="276"/>
+      <c r="C22" s="291"/>
+      <c r="D22" s="279"/>
       <c r="E22" s="110" t="s">
         <v>75</v>
       </c>
@@ -5719,7 +5749,7 @@
         <v>77</v>
       </c>
       <c r="I22" s="66" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="J22" s="96"/>
       <c r="K22" s="96"/>
@@ -5749,8 +5779,8 @@
         <v>50</v>
       </c>
       <c r="B23" s="253"/>
-      <c r="C23" s="288"/>
-      <c r="D23" s="273"/>
+      <c r="C23" s="291"/>
+      <c r="D23" s="276"/>
       <c r="E23" s="110" t="s">
         <v>78</v>
       </c>
@@ -5764,7 +5794,7 @@
         <v>80</v>
       </c>
       <c r="I23" s="66" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="J23" s="96"/>
       <c r="K23" s="96"/>
@@ -5823,12 +5853,12 @@
     <row r="25" spans="1:29" s="100" customFormat="1" ht="78" customHeight="1" thickBot="1">
       <c r="A25" s="95"/>
       <c r="B25" s="253"/>
-      <c r="C25" s="283"/>
-      <c r="D25" s="284" t="s">
+      <c r="C25" s="286"/>
+      <c r="D25" s="287" t="s">
         <v>81</v>
       </c>
       <c r="E25" s="102" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="F25" s="96"/>
       <c r="G25" s="96"/>
@@ -5858,10 +5888,10 @@
     <row r="26" spans="1:29" s="100" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
       <c r="A26" s="95"/>
       <c r="B26" s="253"/>
-      <c r="C26" s="283"/>
-      <c r="D26" s="284"/>
+      <c r="C26" s="286"/>
+      <c r="D26" s="287"/>
       <c r="E26" s="102" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F26" s="96"/>
       <c r="G26" s="96"/>
@@ -5891,10 +5921,10 @@
     <row r="27" spans="1:29" s="100" customFormat="1" ht="69.599999999999994" customHeight="1" thickBot="1">
       <c r="A27" s="95"/>
       <c r="B27" s="253"/>
-      <c r="C27" s="283"/>
-      <c r="D27" s="284"/>
+      <c r="C27" s="286"/>
+      <c r="D27" s="287"/>
       <c r="E27" s="96" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F27" s="80"/>
       <c r="G27" s="96"/>
@@ -5924,10 +5954,10 @@
     <row r="28" spans="1:29" s="100" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A28" s="95"/>
       <c r="B28" s="253"/>
-      <c r="C28" s="283"/>
-      <c r="D28" s="284"/>
+      <c r="C28" s="286"/>
+      <c r="D28" s="287"/>
       <c r="E28" s="96" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F28" s="96"/>
       <c r="G28" s="96"/>
@@ -5954,12 +5984,16 @@
       <c r="AB28" s="99"/>
       <c r="AC28" s="99"/>
     </row>
-    <row r="29" spans="1:29" s="100" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+    <row r="29" spans="1:29" s="100" customFormat="1" ht="133.80000000000001" customHeight="1" thickBot="1">
       <c r="A29" s="95"/>
       <c r="B29" s="253"/>
-      <c r="C29" s="283"/>
-      <c r="D29" s="116"/>
-      <c r="E29" s="117"/>
+      <c r="C29" s="286"/>
+      <c r="D29" s="312" t="s">
+        <v>228</v>
+      </c>
+      <c r="E29" s="117" t="s">
+        <v>229</v>
+      </c>
       <c r="F29" s="96"/>
       <c r="G29" s="96"/>
       <c r="H29" s="96"/>
@@ -6175,7 +6209,7 @@
       <c r="A36" s="118"/>
       <c r="B36" s="253"/>
       <c r="C36" s="115"/>
-      <c r="D36" s="279"/>
+      <c r="D36" s="282"/>
       <c r="E36" s="119"/>
       <c r="F36" s="80"/>
       <c r="G36" s="96"/>
@@ -6206,7 +6240,7 @@
       <c r="A37" s="118"/>
       <c r="B37" s="253"/>
       <c r="C37" s="115"/>
-      <c r="D37" s="279"/>
+      <c r="D37" s="282"/>
       <c r="E37" s="119"/>
       <c r="F37" s="96"/>
       <c r="G37" s="96"/>
@@ -6237,7 +6271,7 @@
       <c r="A38" s="118"/>
       <c r="B38" s="253"/>
       <c r="C38" s="115"/>
-      <c r="D38" s="279"/>
+      <c r="D38" s="282"/>
       <c r="E38" s="121"/>
       <c r="F38" s="65"/>
       <c r="G38" s="96"/>
@@ -6268,7 +6302,7 @@
       <c r="A39" s="118"/>
       <c r="B39" s="253"/>
       <c r="C39" s="115"/>
-      <c r="D39" s="279"/>
+      <c r="D39" s="282"/>
       <c r="E39" s="121"/>
       <c r="F39" s="65"/>
       <c r="G39" s="96"/>
@@ -6299,7 +6333,7 @@
       <c r="A40" s="118"/>
       <c r="B40" s="253"/>
       <c r="C40" s="115"/>
-      <c r="D40" s="279"/>
+      <c r="D40" s="282"/>
       <c r="E40" s="121"/>
       <c r="F40" s="65"/>
       <c r="G40" s="96"/>
@@ -6361,7 +6395,7 @@
       <c r="A42" s="118"/>
       <c r="B42" s="253"/>
       <c r="C42" s="115"/>
-      <c r="D42" s="279"/>
+      <c r="D42" s="282"/>
       <c r="E42" s="117"/>
       <c r="F42" s="96"/>
       <c r="G42" s="96"/>
@@ -6392,7 +6426,7 @@
       <c r="A43" s="118"/>
       <c r="B43" s="253"/>
       <c r="C43" s="115"/>
-      <c r="D43" s="279"/>
+      <c r="D43" s="282"/>
       <c r="E43" s="117"/>
       <c r="F43" s="96"/>
       <c r="G43" s="96"/>
@@ -6454,7 +6488,7 @@
       <c r="A45" s="118"/>
       <c r="B45" s="253"/>
       <c r="C45" s="115"/>
-      <c r="D45" s="280"/>
+      <c r="D45" s="283"/>
       <c r="E45" s="119"/>
       <c r="F45" s="96"/>
       <c r="G45" s="96"/>
@@ -6485,7 +6519,7 @@
       <c r="A46" s="118"/>
       <c r="B46" s="253"/>
       <c r="C46" s="115"/>
-      <c r="D46" s="280"/>
+      <c r="D46" s="283"/>
       <c r="E46" s="119"/>
       <c r="F46" s="96"/>
       <c r="G46" s="96"/>
@@ -6516,7 +6550,7 @@
       <c r="A47" s="118"/>
       <c r="B47" s="253"/>
       <c r="C47" s="115"/>
-      <c r="D47" s="280"/>
+      <c r="D47" s="283"/>
       <c r="E47" s="121"/>
       <c r="F47" s="65"/>
       <c r="G47" s="96"/>
@@ -6547,7 +6581,7 @@
       <c r="A48" s="118"/>
       <c r="B48" s="253"/>
       <c r="C48" s="115"/>
-      <c r="D48" s="280"/>
+      <c r="D48" s="283"/>
       <c r="E48" s="117"/>
       <c r="F48" s="96"/>
       <c r="G48" s="96"/>
@@ -6578,7 +6612,7 @@
       <c r="A49" s="118"/>
       <c r="B49" s="253"/>
       <c r="C49" s="115"/>
-      <c r="D49" s="280"/>
+      <c r="D49" s="283"/>
       <c r="E49" s="117"/>
       <c r="F49" s="96"/>
       <c r="G49" s="96"/>
@@ -6609,7 +6643,7 @@
       <c r="A50" s="118"/>
       <c r="B50" s="253"/>
       <c r="C50" s="115"/>
-      <c r="D50" s="280"/>
+      <c r="D50" s="283"/>
       <c r="E50" s="119"/>
       <c r="F50" s="96"/>
       <c r="G50" s="96"/>
@@ -6640,7 +6674,7 @@
       <c r="A51" s="118"/>
       <c r="B51" s="253"/>
       <c r="C51" s="115"/>
-      <c r="D51" s="280"/>
+      <c r="D51" s="283"/>
       <c r="E51" s="119"/>
       <c r="F51" s="96"/>
       <c r="G51" s="96"/>
@@ -6671,7 +6705,7 @@
       <c r="A52" s="118"/>
       <c r="B52" s="253"/>
       <c r="C52" s="115"/>
-      <c r="D52" s="280"/>
+      <c r="D52" s="283"/>
       <c r="E52" s="119"/>
       <c r="F52" s="96"/>
       <c r="G52" s="96"/>
@@ -6702,7 +6736,7 @@
       <c r="A53" s="118"/>
       <c r="B53" s="253"/>
       <c r="C53" s="115"/>
-      <c r="D53" s="280"/>
+      <c r="D53" s="283"/>
       <c r="E53" s="121"/>
       <c r="F53" s="65"/>
       <c r="G53" s="96"/>
@@ -6733,7 +6767,7 @@
       <c r="A54" s="118"/>
       <c r="B54" s="253"/>
       <c r="C54" s="115"/>
-      <c r="D54" s="280"/>
+      <c r="D54" s="283"/>
       <c r="E54" s="123"/>
       <c r="F54" s="101"/>
       <c r="G54" s="101"/>
@@ -6764,7 +6798,7 @@
       <c r="A55" s="118"/>
       <c r="B55" s="253"/>
       <c r="C55" s="115"/>
-      <c r="D55" s="280"/>
+      <c r="D55" s="283"/>
       <c r="E55" s="117"/>
       <c r="F55" s="96"/>
       <c r="G55" s="96"/>
@@ -6826,7 +6860,7 @@
       <c r="A57" s="118"/>
       <c r="B57" s="253"/>
       <c r="C57" s="115"/>
-      <c r="D57" s="281"/>
+      <c r="D57" s="284"/>
       <c r="E57" s="119"/>
       <c r="F57" s="96"/>
       <c r="G57" s="96"/>
@@ -6857,7 +6891,7 @@
       <c r="A58" s="118"/>
       <c r="B58" s="253"/>
       <c r="C58" s="115"/>
-      <c r="D58" s="281"/>
+      <c r="D58" s="284"/>
       <c r="E58" s="119"/>
       <c r="F58" s="96"/>
       <c r="G58" s="96"/>
@@ -6888,7 +6922,7 @@
       <c r="A59" s="118"/>
       <c r="B59" s="253"/>
       <c r="C59" s="115"/>
-      <c r="D59" s="281"/>
+      <c r="D59" s="284"/>
       <c r="E59" s="119"/>
       <c r="F59" s="96"/>
       <c r="G59" s="96"/>
@@ -6919,7 +6953,7 @@
       <c r="A60" s="118"/>
       <c r="B60" s="253"/>
       <c r="C60" s="115"/>
-      <c r="D60" s="281"/>
+      <c r="D60" s="284"/>
       <c r="E60" s="121"/>
       <c r="F60" s="65"/>
       <c r="G60" s="96"/>
@@ -6950,7 +6984,7 @@
       <c r="A61" s="126"/>
       <c r="B61" s="253"/>
       <c r="C61" s="127"/>
-      <c r="D61" s="281"/>
+      <c r="D61" s="284"/>
       <c r="E61" s="128"/>
       <c r="F61" s="129"/>
       <c r="G61" s="129"/>
@@ -6981,7 +7015,7 @@
       <c r="A62" s="133"/>
       <c r="B62" s="253"/>
       <c r="C62" s="127"/>
-      <c r="D62" s="281"/>
+      <c r="D62" s="284"/>
       <c r="E62" s="134"/>
       <c r="F62" s="135"/>
       <c r="G62" s="136"/>
@@ -7012,7 +7046,7 @@
       <c r="A63" s="133"/>
       <c r="B63" s="253"/>
       <c r="C63" s="127"/>
-      <c r="D63" s="281"/>
+      <c r="D63" s="284"/>
       <c r="E63" s="141"/>
       <c r="F63" s="142"/>
       <c r="G63" s="142"/>
@@ -7043,7 +7077,7 @@
       <c r="A64" s="133"/>
       <c r="B64" s="253"/>
       <c r="C64" s="127"/>
-      <c r="D64" s="281"/>
+      <c r="D64" s="284"/>
       <c r="E64" s="141"/>
       <c r="F64" s="142"/>
       <c r="G64" s="142"/>
@@ -7074,7 +7108,7 @@
       <c r="A65" s="133"/>
       <c r="B65" s="253"/>
       <c r="C65" s="127"/>
-      <c r="D65" s="281"/>
+      <c r="D65" s="284"/>
       <c r="E65" s="145"/>
       <c r="F65" s="142"/>
       <c r="G65" s="142"/>
@@ -7105,7 +7139,7 @@
       <c r="A66" s="133"/>
       <c r="B66" s="253"/>
       <c r="C66" s="127"/>
-      <c r="D66" s="281"/>
+      <c r="D66" s="284"/>
       <c r="E66" s="146"/>
       <c r="F66" s="135"/>
       <c r="G66" s="136"/>
@@ -7167,7 +7201,7 @@
       <c r="A68" s="133"/>
       <c r="B68" s="253"/>
       <c r="C68" s="127"/>
-      <c r="D68" s="282"/>
+      <c r="D68" s="285"/>
       <c r="E68" s="148"/>
       <c r="F68" s="135"/>
       <c r="G68" s="136"/>
@@ -7198,7 +7232,7 @@
       <c r="A69" s="133"/>
       <c r="B69" s="253"/>
       <c r="C69" s="127"/>
-      <c r="D69" s="282"/>
+      <c r="D69" s="285"/>
       <c r="E69" s="150"/>
       <c r="F69" s="142"/>
       <c r="G69" s="142"/>
@@ -7260,7 +7294,7 @@
       <c r="A71" s="133"/>
       <c r="B71" s="253"/>
       <c r="C71" s="127"/>
-      <c r="D71" s="289"/>
+      <c r="D71" s="292"/>
       <c r="E71" s="150"/>
       <c r="F71" s="142"/>
       <c r="G71" s="142"/>
@@ -7291,7 +7325,7 @@
       <c r="A72" s="133"/>
       <c r="B72" s="253"/>
       <c r="C72" s="127"/>
-      <c r="D72" s="289"/>
+      <c r="D72" s="292"/>
       <c r="E72" s="148"/>
       <c r="F72" s="142"/>
       <c r="G72" s="142"/>
@@ -7322,7 +7356,7 @@
       <c r="A73" s="133"/>
       <c r="B73" s="253"/>
       <c r="C73" s="127"/>
-      <c r="D73" s="289"/>
+      <c r="D73" s="292"/>
       <c r="E73" s="150"/>
       <c r="F73" s="142"/>
       <c r="G73" s="142"/>
@@ -7353,7 +7387,7 @@
       <c r="A74" s="133"/>
       <c r="B74" s="253"/>
       <c r="C74" s="127"/>
-      <c r="D74" s="289"/>
+      <c r="D74" s="292"/>
       <c r="E74" s="148"/>
       <c r="F74" s="135"/>
       <c r="G74" s="136"/>
@@ -7384,7 +7418,7 @@
       <c r="A75" s="133"/>
       <c r="B75" s="253"/>
       <c r="C75" s="127"/>
-      <c r="D75" s="289"/>
+      <c r="D75" s="292"/>
       <c r="E75" s="152"/>
       <c r="F75" s="153"/>
       <c r="G75" s="144"/>
@@ -7415,7 +7449,7 @@
       <c r="A76" s="133"/>
       <c r="B76" s="253"/>
       <c r="C76" s="127"/>
-      <c r="D76" s="289"/>
+      <c r="D76" s="292"/>
       <c r="E76" s="148"/>
       <c r="F76" s="154"/>
       <c r="G76" s="136"/>
@@ -7446,7 +7480,7 @@
       <c r="A77" s="133"/>
       <c r="B77" s="253"/>
       <c r="C77" s="127"/>
-      <c r="D77" s="289"/>
+      <c r="D77" s="292"/>
       <c r="E77" s="152"/>
       <c r="F77" s="155"/>
       <c r="G77" s="144"/>
@@ -7508,7 +7542,7 @@
       <c r="A79" s="133"/>
       <c r="B79" s="253"/>
       <c r="C79" s="127"/>
-      <c r="D79" s="290"/>
+      <c r="D79" s="293"/>
       <c r="E79" s="157"/>
       <c r="F79" s="158"/>
       <c r="G79" s="144"/>
@@ -7539,7 +7573,7 @@
       <c r="A80" s="133"/>
       <c r="B80" s="253"/>
       <c r="C80" s="127"/>
-      <c r="D80" s="290"/>
+      <c r="D80" s="293"/>
       <c r="E80" s="152"/>
       <c r="F80" s="158"/>
       <c r="G80" s="144"/>
@@ -7570,7 +7604,7 @@
       <c r="A81" s="133"/>
       <c r="B81" s="253"/>
       <c r="C81" s="127"/>
-      <c r="D81" s="290"/>
+      <c r="D81" s="293"/>
       <c r="E81" s="159"/>
       <c r="F81" s="149"/>
       <c r="G81" s="149"/>
@@ -7601,7 +7635,7 @@
       <c r="A82" s="133"/>
       <c r="B82" s="253"/>
       <c r="C82" s="127"/>
-      <c r="D82" s="290"/>
+      <c r="D82" s="293"/>
       <c r="E82" s="159"/>
       <c r="F82" s="149"/>
       <c r="G82" s="149"/>
@@ -7632,7 +7666,7 @@
       <c r="A83" s="133"/>
       <c r="B83" s="253"/>
       <c r="C83" s="127"/>
-      <c r="D83" s="290"/>
+      <c r="D83" s="293"/>
       <c r="E83" s="159"/>
       <c r="F83" s="149"/>
       <c r="G83" s="149"/>
@@ -7663,7 +7697,7 @@
       <c r="A84" s="133"/>
       <c r="B84" s="253"/>
       <c r="C84" s="127"/>
-      <c r="D84" s="290"/>
+      <c r="D84" s="293"/>
       <c r="E84" s="159"/>
       <c r="F84" s="149"/>
       <c r="G84" s="149"/>
@@ -7694,7 +7728,7 @@
       <c r="A85" s="133"/>
       <c r="B85" s="253"/>
       <c r="C85" s="127"/>
-      <c r="D85" s="290"/>
+      <c r="D85" s="293"/>
       <c r="E85" s="159"/>
       <c r="F85" s="149"/>
       <c r="G85" s="149"/>
@@ -7725,7 +7759,7 @@
       <c r="A86" s="133"/>
       <c r="B86" s="253"/>
       <c r="C86" s="127"/>
-      <c r="D86" s="290"/>
+      <c r="D86" s="293"/>
       <c r="E86" s="159"/>
       <c r="F86" s="149"/>
       <c r="G86" s="149"/>
@@ -7756,7 +7790,7 @@
       <c r="A87" s="133"/>
       <c r="B87" s="253"/>
       <c r="C87" s="127"/>
-      <c r="D87" s="290"/>
+      <c r="D87" s="293"/>
       <c r="E87" s="159"/>
       <c r="F87" s="149"/>
       <c r="G87" s="149"/>
@@ -7880,7 +7914,7 @@
       <c r="A91" s="133"/>
       <c r="B91" s="253"/>
       <c r="C91" s="162"/>
-      <c r="D91" s="291"/>
+      <c r="D91" s="294"/>
       <c r="E91" s="164"/>
       <c r="F91" s="149"/>
       <c r="G91" s="149"/>
@@ -7911,7 +7945,7 @@
       <c r="A92" s="133"/>
       <c r="B92" s="253"/>
       <c r="C92" s="162"/>
-      <c r="D92" s="291"/>
+      <c r="D92" s="294"/>
       <c r="E92" s="164"/>
       <c r="F92" s="149"/>
       <c r="G92" s="149"/>
@@ -8903,7 +8937,7 @@
       <c r="A124" s="172"/>
       <c r="B124" s="253"/>
       <c r="C124" s="162"/>
-      <c r="D124" s="292"/>
+      <c r="D124" s="295"/>
       <c r="E124" s="159"/>
       <c r="F124" s="149"/>
       <c r="G124" s="149"/>
@@ -8912,7 +8946,7 @@
       <c r="J124" s="149"/>
       <c r="K124" s="149"/>
       <c r="L124" s="139"/>
-      <c r="M124" s="293"/>
+      <c r="M124" s="296"/>
       <c r="N124" s="140"/>
       <c r="O124" s="140"/>
       <c r="P124" s="140"/>
@@ -8934,7 +8968,7 @@
       <c r="A125" s="133"/>
       <c r="B125" s="253"/>
       <c r="C125" s="162"/>
-      <c r="D125" s="292"/>
+      <c r="D125" s="295"/>
       <c r="E125" s="159"/>
       <c r="F125" s="149"/>
       <c r="G125" s="149"/>
@@ -8943,7 +8977,7 @@
       <c r="J125" s="149"/>
       <c r="K125" s="149"/>
       <c r="L125" s="139"/>
-      <c r="M125" s="293"/>
+      <c r="M125" s="296"/>
       <c r="N125" s="140"/>
       <c r="O125" s="140"/>
       <c r="P125" s="140"/>
@@ -8965,7 +8999,7 @@
       <c r="A126" s="133"/>
       <c r="B126" s="253"/>
       <c r="C126" s="162"/>
-      <c r="D126" s="292"/>
+      <c r="D126" s="295"/>
       <c r="E126" s="176"/>
       <c r="F126" s="149"/>
       <c r="G126" s="149"/>
@@ -8974,7 +9008,7 @@
       <c r="J126" s="149"/>
       <c r="K126" s="149"/>
       <c r="L126" s="139"/>
-      <c r="M126" s="293"/>
+      <c r="M126" s="296"/>
       <c r="N126" s="140"/>
       <c r="O126" s="140"/>
       <c r="P126" s="140"/>
@@ -8996,7 +9030,7 @@
       <c r="A127" s="133"/>
       <c r="B127" s="253"/>
       <c r="C127" s="162"/>
-      <c r="D127" s="292"/>
+      <c r="D127" s="295"/>
       <c r="E127" s="177"/>
       <c r="F127" s="149"/>
       <c r="G127" s="149"/>
@@ -9005,7 +9039,7 @@
       <c r="J127" s="149"/>
       <c r="K127" s="149"/>
       <c r="L127" s="139"/>
-      <c r="M127" s="293"/>
+      <c r="M127" s="296"/>
       <c r="N127" s="140"/>
       <c r="O127" s="140"/>
       <c r="P127" s="140"/>
@@ -9027,7 +9061,7 @@
       <c r="A128" s="133"/>
       <c r="B128" s="253"/>
       <c r="C128" s="162"/>
-      <c r="D128" s="292"/>
+      <c r="D128" s="295"/>
       <c r="E128" s="177"/>
       <c r="F128" s="149"/>
       <c r="G128" s="149"/>
@@ -9036,7 +9070,7 @@
       <c r="J128" s="149"/>
       <c r="K128" s="149"/>
       <c r="L128" s="139"/>
-      <c r="M128" s="293"/>
+      <c r="M128" s="296"/>
       <c r="N128" s="140"/>
       <c r="O128" s="140"/>
       <c r="P128" s="140"/>
@@ -9058,7 +9092,7 @@
       <c r="A129" s="133"/>
       <c r="B129" s="253"/>
       <c r="C129" s="162"/>
-      <c r="D129" s="292"/>
+      <c r="D129" s="295"/>
       <c r="E129" s="177"/>
       <c r="F129" s="149"/>
       <c r="G129" s="149"/>
@@ -9067,7 +9101,7 @@
       <c r="J129" s="149"/>
       <c r="K129" s="149"/>
       <c r="L129" s="139"/>
-      <c r="M129" s="293"/>
+      <c r="M129" s="296"/>
       <c r="N129" s="140"/>
       <c r="O129" s="140"/>
       <c r="P129" s="140"/>
@@ -9089,7 +9123,7 @@
       <c r="A130" s="133"/>
       <c r="B130" s="253"/>
       <c r="C130" s="162"/>
-      <c r="D130" s="292"/>
+      <c r="D130" s="295"/>
       <c r="E130" s="177"/>
       <c r="F130" s="149"/>
       <c r="G130" s="149"/>
@@ -9098,7 +9132,7 @@
       <c r="J130" s="149"/>
       <c r="K130" s="149"/>
       <c r="L130" s="139"/>
-      <c r="M130" s="293"/>
+      <c r="M130" s="296"/>
       <c r="N130" s="140"/>
       <c r="O130" s="140"/>
       <c r="P130" s="140"/>
@@ -9120,7 +9154,7 @@
       <c r="A131" s="133"/>
       <c r="B131" s="253"/>
       <c r="C131" s="162"/>
-      <c r="D131" s="292"/>
+      <c r="D131" s="295"/>
       <c r="E131" s="159"/>
       <c r="F131" s="149"/>
       <c r="G131" s="149"/>
@@ -9129,7 +9163,7 @@
       <c r="J131" s="149"/>
       <c r="K131" s="149"/>
       <c r="L131" s="139"/>
-      <c r="M131" s="293"/>
+      <c r="M131" s="296"/>
       <c r="N131" s="140"/>
       <c r="O131" s="140"/>
       <c r="P131" s="140"/>
@@ -9151,7 +9185,7 @@
       <c r="A132" s="133"/>
       <c r="B132" s="253"/>
       <c r="C132" s="162"/>
-      <c r="D132" s="292"/>
+      <c r="D132" s="295"/>
       <c r="E132" s="159"/>
       <c r="F132" s="149"/>
       <c r="G132" s="149"/>
@@ -9182,7 +9216,7 @@
       <c r="A133" s="133"/>
       <c r="B133" s="253"/>
       <c r="C133" s="162"/>
-      <c r="D133" s="292"/>
+      <c r="D133" s="295"/>
       <c r="E133" s="159"/>
       <c r="F133" s="149"/>
       <c r="G133" s="149"/>
@@ -9213,7 +9247,7 @@
       <c r="A134" s="133"/>
       <c r="B134" s="253"/>
       <c r="C134" s="162"/>
-      <c r="D134" s="292"/>
+      <c r="D134" s="295"/>
       <c r="E134" s="159"/>
       <c r="F134" s="149"/>
       <c r="G134" s="149"/>
@@ -9277,7 +9311,7 @@
       <c r="C136" s="183" t="s">
         <v>82</v>
       </c>
-      <c r="D136" s="294"/>
+      <c r="D136" s="297"/>
       <c r="E136" s="159"/>
       <c r="F136" s="149"/>
       <c r="G136" s="171"/>
@@ -9308,7 +9342,7 @@
       <c r="A137" s="181"/>
       <c r="B137" s="180"/>
       <c r="C137" s="185"/>
-      <c r="D137" s="294"/>
+      <c r="D137" s="297"/>
       <c r="E137" s="159"/>
       <c r="F137" s="149"/>
       <c r="G137" s="171"/>
@@ -9339,7 +9373,7 @@
       <c r="A138" s="181"/>
       <c r="B138" s="180"/>
       <c r="C138" s="185"/>
-      <c r="D138" s="294"/>
+      <c r="D138" s="297"/>
       <c r="E138" s="159"/>
       <c r="F138" s="149"/>
       <c r="G138" s="171"/>
@@ -9370,7 +9404,7 @@
       <c r="A139" s="181"/>
       <c r="B139" s="180"/>
       <c r="C139" s="180"/>
-      <c r="D139" s="294"/>
+      <c r="D139" s="297"/>
       <c r="E139" s="167"/>
       <c r="F139" s="149"/>
       <c r="G139" s="171"/>
@@ -9401,7 +9435,7 @@
       <c r="A140" s="181"/>
       <c r="B140" s="184"/>
       <c r="C140" s="180"/>
-      <c r="D140" s="294"/>
+      <c r="D140" s="297"/>
       <c r="E140" s="167"/>
       <c r="F140" s="149"/>
       <c r="G140" s="171"/>
@@ -9432,7 +9466,7 @@
       <c r="A141" s="181"/>
       <c r="B141" s="184"/>
       <c r="C141" s="180"/>
-      <c r="D141" s="294"/>
+      <c r="D141" s="297"/>
       <c r="E141" s="167"/>
       <c r="F141" s="149"/>
       <c r="G141" s="171"/>
@@ -9463,7 +9497,7 @@
       <c r="A142" s="181"/>
       <c r="B142" s="184"/>
       <c r="C142" s="180"/>
-      <c r="D142" s="294"/>
+      <c r="D142" s="297"/>
       <c r="E142" s="159"/>
       <c r="F142" s="149"/>
       <c r="G142" s="171"/>
@@ -9494,7 +9528,7 @@
       <c r="A143" s="181"/>
       <c r="B143" s="184"/>
       <c r="C143" s="180"/>
-      <c r="D143" s="294"/>
+      <c r="D143" s="297"/>
       <c r="E143" s="159"/>
       <c r="F143" s="149"/>
       <c r="G143" s="171"/>
@@ -9525,7 +9559,7 @@
       <c r="A144" s="181"/>
       <c r="B144" s="184"/>
       <c r="C144" s="184"/>
-      <c r="D144" s="294"/>
+      <c r="D144" s="297"/>
       <c r="E144" s="159"/>
       <c r="F144" s="149"/>
       <c r="G144" s="171"/>
@@ -10865,8 +10899,8 @@
       <c r="H187" s="205"/>
       <c r="I187" s="205"/>
       <c r="J187" s="205"/>
-      <c r="K187" s="295"/>
-      <c r="L187" s="293"/>
+      <c r="K187" s="298"/>
+      <c r="L187" s="296"/>
       <c r="M187" s="200"/>
       <c r="N187" s="140"/>
       <c r="O187" s="140"/>
@@ -10896,8 +10930,8 @@
       <c r="H188" s="206"/>
       <c r="I188" s="206"/>
       <c r="J188" s="206"/>
-      <c r="K188" s="295"/>
-      <c r="L188" s="293"/>
+      <c r="K188" s="298"/>
+      <c r="L188" s="296"/>
       <c r="M188" s="200"/>
       <c r="N188" s="140"/>
       <c r="O188" s="140"/>
@@ -10927,8 +10961,8 @@
       <c r="H189" s="129"/>
       <c r="I189" s="129"/>
       <c r="J189" s="129"/>
-      <c r="K189" s="295"/>
-      <c r="L189" s="293"/>
+      <c r="K189" s="298"/>
+      <c r="L189" s="296"/>
       <c r="M189" s="200"/>
       <c r="N189" s="140"/>
       <c r="O189" s="140"/>
@@ -11136,9 +11170,9 @@
     <row r="196" spans="1:29" ht="15.75" customHeight="1">
       <c r="A196" s="181"/>
       <c r="B196" s="192"/>
-      <c r="C196" s="296"/>
+      <c r="C196" s="299"/>
       <c r="D196" s="180"/>
-      <c r="E196" s="297"/>
+      <c r="E196" s="300"/>
       <c r="F196" s="142"/>
       <c r="G196" s="142"/>
       <c r="H196" s="142"/>
@@ -11167,9 +11201,9 @@
     <row r="197" spans="1:29" ht="15.75" customHeight="1">
       <c r="A197" s="181"/>
       <c r="B197" s="192"/>
-      <c r="C197" s="296"/>
+      <c r="C197" s="299"/>
       <c r="D197" s="180"/>
-      <c r="E197" s="297"/>
+      <c r="E197" s="300"/>
       <c r="F197" s="142"/>
       <c r="G197" s="142"/>
       <c r="H197" s="142"/>
@@ -11198,9 +11232,9 @@
     <row r="198" spans="1:29" ht="15.75" customHeight="1">
       <c r="A198" s="181"/>
       <c r="B198" s="192"/>
-      <c r="C198" s="296"/>
+      <c r="C198" s="299"/>
       <c r="D198" s="180"/>
-      <c r="E198" s="297"/>
+      <c r="E198" s="300"/>
       <c r="F198" s="142"/>
       <c r="G198" s="142"/>
       <c r="H198" s="142"/>
@@ -11229,7 +11263,7 @@
     <row r="199" spans="1:29" ht="15.75" customHeight="1">
       <c r="A199" s="181"/>
       <c r="B199" s="192"/>
-      <c r="C199" s="296"/>
+      <c r="C199" s="299"/>
       <c r="D199" s="180"/>
       <c r="E199" s="150"/>
       <c r="F199" s="142"/>
@@ -11260,7 +11294,7 @@
     <row r="200" spans="1:29" ht="15.75" customHeight="1">
       <c r="A200" s="181"/>
       <c r="B200" s="192"/>
-      <c r="C200" s="296"/>
+      <c r="C200" s="299"/>
       <c r="D200" s="180"/>
       <c r="E200" s="150"/>
       <c r="F200" s="142"/>
@@ -11291,7 +11325,7 @@
     <row r="201" spans="1:29" ht="15.75" customHeight="1">
       <c r="A201" s="181"/>
       <c r="B201" s="192"/>
-      <c r="C201" s="296"/>
+      <c r="C201" s="299"/>
       <c r="D201" s="180"/>
       <c r="E201" s="150"/>
       <c r="F201" s="203"/>
@@ -11322,7 +11356,7 @@
     <row r="202" spans="1:29" ht="15.75" customHeight="1">
       <c r="A202" s="181"/>
       <c r="B202" s="192"/>
-      <c r="C202" s="296"/>
+      <c r="C202" s="299"/>
       <c r="D202" s="180"/>
       <c r="E202" s="150"/>
       <c r="F202" s="142"/>
@@ -11353,7 +11387,7 @@
     <row r="203" spans="1:29" ht="15.75" customHeight="1">
       <c r="A203" s="181"/>
       <c r="B203" s="192"/>
-      <c r="C203" s="298"/>
+      <c r="C203" s="301"/>
       <c r="D203" s="190"/>
       <c r="E203" s="150"/>
       <c r="F203" s="203"/>
@@ -11384,7 +11418,7 @@
     <row r="204" spans="1:29" ht="15.75" customHeight="1">
       <c r="A204" s="181"/>
       <c r="B204" s="192"/>
-      <c r="C204" s="298"/>
+      <c r="C204" s="301"/>
       <c r="D204" s="211"/>
       <c r="E204" s="150"/>
       <c r="F204" s="203"/>
@@ -11446,7 +11480,7 @@
     <row r="206" spans="1:29" ht="30" customHeight="1">
       <c r="A206" s="181"/>
       <c r="B206" s="192"/>
-      <c r="C206" s="298"/>
+      <c r="C206" s="301"/>
       <c r="D206" s="190"/>
       <c r="E206" s="150"/>
       <c r="F206" s="142"/>
@@ -11477,7 +11511,7 @@
     <row r="207" spans="1:29" ht="15.75" customHeight="1">
       <c r="A207" s="181"/>
       <c r="B207" s="192"/>
-      <c r="C207" s="298"/>
+      <c r="C207" s="301"/>
       <c r="D207" s="191"/>
       <c r="E207" s="150"/>
       <c r="F207" s="142"/>
@@ -11508,7 +11542,7 @@
     <row r="208" spans="1:29" ht="15.75" customHeight="1">
       <c r="A208" s="181"/>
       <c r="B208" s="192"/>
-      <c r="C208" s="298"/>
+      <c r="C208" s="301"/>
       <c r="D208" s="191"/>
       <c r="E208" s="150"/>
       <c r="F208" s="142"/>
@@ -11539,7 +11573,7 @@
     <row r="209" spans="1:29" ht="15.75" customHeight="1">
       <c r="A209" s="181"/>
       <c r="B209" s="192"/>
-      <c r="C209" s="298"/>
+      <c r="C209" s="301"/>
       <c r="D209" s="191"/>
       <c r="E209" s="150"/>
       <c r="F209" s="203"/>
@@ -11570,7 +11604,7 @@
     <row r="210" spans="1:29" ht="15.75" customHeight="1">
       <c r="A210" s="181"/>
       <c r="B210" s="192"/>
-      <c r="C210" s="298"/>
+      <c r="C210" s="301"/>
       <c r="D210" s="191"/>
       <c r="E210" s="213"/>
       <c r="F210" s="142"/>
@@ -11950,7 +11984,7 @@
       <c r="H222" s="203"/>
       <c r="I222" s="203"/>
       <c r="J222" s="203"/>
-      <c r="K222" s="299"/>
+      <c r="K222" s="302"/>
       <c r="L222" s="139"/>
       <c r="M222" s="169"/>
       <c r="N222" s="140"/>
@@ -11981,7 +12015,7 @@
       <c r="H223" s="203"/>
       <c r="I223" s="203"/>
       <c r="J223" s="203"/>
-      <c r="K223" s="299"/>
+      <c r="K223" s="302"/>
       <c r="L223" s="139"/>
       <c r="M223" s="169"/>
       <c r="N223" s="140"/>
@@ -12066,7 +12100,7 @@
     <row r="226" spans="1:29" ht="15.75" customHeight="1">
       <c r="A226" s="181"/>
       <c r="B226" s="192"/>
-      <c r="C226" s="298"/>
+      <c r="C226" s="301"/>
       <c r="D226" s="190"/>
       <c r="E226" s="150"/>
       <c r="F226" s="203"/>
@@ -12074,7 +12108,7 @@
       <c r="H226" s="203"/>
       <c r="I226" s="203"/>
       <c r="J226" s="203"/>
-      <c r="K226" s="295"/>
+      <c r="K226" s="298"/>
       <c r="L226" s="139"/>
       <c r="M226" s="169"/>
       <c r="N226" s="140"/>
@@ -12097,7 +12131,7 @@
     <row r="227" spans="1:29" ht="15.75" customHeight="1">
       <c r="A227" s="181"/>
       <c r="B227" s="192"/>
-      <c r="C227" s="298"/>
+      <c r="C227" s="301"/>
       <c r="D227" s="211"/>
       <c r="E227" s="150"/>
       <c r="F227" s="203"/>
@@ -12105,7 +12139,7 @@
       <c r="H227" s="203"/>
       <c r="I227" s="203"/>
       <c r="J227" s="203"/>
-      <c r="K227" s="295"/>
+      <c r="K227" s="298"/>
       <c r="L227" s="139"/>
       <c r="M227" s="169"/>
       <c r="N227" s="140"/>
@@ -12128,7 +12162,7 @@
     <row r="228" spans="1:29" ht="15.75" customHeight="1">
       <c r="A228" s="181"/>
       <c r="B228" s="192"/>
-      <c r="C228" s="296"/>
+      <c r="C228" s="299"/>
       <c r="D228" s="204"/>
       <c r="E228" s="167"/>
       <c r="F228" s="149"/>
@@ -12159,7 +12193,7 @@
     <row r="229" spans="1:29" ht="15.75" customHeight="1">
       <c r="A229" s="181"/>
       <c r="B229" s="192"/>
-      <c r="C229" s="296"/>
+      <c r="C229" s="299"/>
       <c r="D229" s="165"/>
       <c r="E229" s="167"/>
       <c r="F229" s="149"/>
@@ -12221,7 +12255,7 @@
     <row r="231" spans="1:29" ht="15.75" customHeight="1">
       <c r="A231" s="181"/>
       <c r="B231" s="192"/>
-      <c r="C231" s="298"/>
+      <c r="C231" s="301"/>
       <c r="D231" s="190"/>
       <c r="E231" s="167"/>
       <c r="F231" s="149"/>
@@ -12252,7 +12286,7 @@
     <row r="232" spans="1:29" ht="15.75" customHeight="1">
       <c r="A232" s="181"/>
       <c r="B232" s="192"/>
-      <c r="C232" s="298"/>
+      <c r="C232" s="301"/>
       <c r="D232" s="191"/>
       <c r="E232" s="167"/>
       <c r="F232" s="149"/>
@@ -12283,7 +12317,7 @@
     <row r="233" spans="1:29" ht="15.75" customHeight="1">
       <c r="A233" s="181"/>
       <c r="B233" s="192"/>
-      <c r="C233" s="298"/>
+      <c r="C233" s="301"/>
       <c r="D233" s="211"/>
       <c r="E233" s="167"/>
       <c r="F233" s="149"/>
@@ -12468,10 +12502,10 @@
     </row>
     <row r="239" spans="1:29" ht="15.75" customHeight="1">
       <c r="A239" s="187"/>
-      <c r="B239" s="300"/>
-      <c r="C239" s="296"/>
+      <c r="B239" s="303"/>
+      <c r="C239" s="299"/>
       <c r="D239" s="180"/>
-      <c r="E239" s="296"/>
+      <c r="E239" s="299"/>
       <c r="F239" s="142"/>
       <c r="G239" s="142"/>
       <c r="H239" s="142"/>
@@ -12499,10 +12533,10 @@
     </row>
     <row r="240" spans="1:29" ht="15.75" customHeight="1">
       <c r="A240" s="187"/>
-      <c r="B240" s="300"/>
-      <c r="C240" s="300"/>
+      <c r="B240" s="303"/>
+      <c r="C240" s="303"/>
       <c r="D240" s="180"/>
-      <c r="E240" s="296"/>
+      <c r="E240" s="299"/>
       <c r="F240" s="142"/>
       <c r="G240" s="142"/>
       <c r="H240" s="142"/>
@@ -12530,10 +12564,10 @@
     </row>
     <row r="241" spans="1:29" ht="15.75" customHeight="1">
       <c r="A241" s="187"/>
-      <c r="B241" s="300"/>
-      <c r="C241" s="300"/>
+      <c r="B241" s="303"/>
+      <c r="C241" s="303"/>
       <c r="D241" s="180"/>
-      <c r="E241" s="296"/>
+      <c r="E241" s="299"/>
       <c r="F241" s="142"/>
       <c r="G241" s="142"/>
       <c r="H241" s="142"/>
@@ -12561,10 +12595,10 @@
     </row>
     <row r="242" spans="1:29" ht="15.75" customHeight="1">
       <c r="A242" s="187"/>
-      <c r="B242" s="300"/>
-      <c r="C242" s="300"/>
+      <c r="B242" s="303"/>
+      <c r="C242" s="303"/>
       <c r="D242" s="180"/>
-      <c r="E242" s="296"/>
+      <c r="E242" s="299"/>
       <c r="F242" s="142"/>
       <c r="G242" s="142"/>
       <c r="H242" s="142"/>
@@ -12592,10 +12626,10 @@
     </row>
     <row r="243" spans="1:29" ht="15.75" customHeight="1">
       <c r="A243" s="187"/>
-      <c r="B243" s="300"/>
-      <c r="C243" s="300"/>
+      <c r="B243" s="303"/>
+      <c r="C243" s="303"/>
       <c r="D243" s="180"/>
-      <c r="E243" s="296"/>
+      <c r="E243" s="299"/>
       <c r="F243" s="142"/>
       <c r="G243" s="142"/>
       <c r="H243" s="142"/>
@@ -12623,10 +12657,10 @@
     </row>
     <row r="244" spans="1:29" ht="15.75" customHeight="1">
       <c r="A244" s="187"/>
-      <c r="B244" s="300"/>
-      <c r="C244" s="300"/>
+      <c r="B244" s="303"/>
+      <c r="C244" s="303"/>
       <c r="D244" s="180"/>
-      <c r="E244" s="296"/>
+      <c r="E244" s="299"/>
       <c r="F244" s="203"/>
       <c r="G244" s="203"/>
       <c r="H244" s="203"/>
@@ -12654,10 +12688,10 @@
     </row>
     <row r="245" spans="1:29" ht="15.75" customHeight="1">
       <c r="A245" s="187"/>
-      <c r="B245" s="300"/>
-      <c r="C245" s="300"/>
+      <c r="B245" s="303"/>
+      <c r="C245" s="303"/>
       <c r="D245" s="180"/>
-      <c r="E245" s="296"/>
+      <c r="E245" s="299"/>
       <c r="F245" s="142"/>
       <c r="G245" s="142"/>
       <c r="H245" s="142"/>
@@ -12685,10 +12719,10 @@
     </row>
     <row r="246" spans="1:29" ht="15.75" customHeight="1">
       <c r="A246" s="187"/>
-      <c r="B246" s="300"/>
-      <c r="C246" s="300"/>
+      <c r="B246" s="303"/>
+      <c r="C246" s="303"/>
       <c r="D246" s="180"/>
-      <c r="E246" s="296"/>
+      <c r="E246" s="299"/>
       <c r="F246" s="142"/>
       <c r="G246" s="142"/>
       <c r="H246" s="142"/>
@@ -12716,8 +12750,8 @@
     </row>
     <row r="247" spans="1:29" ht="15.75" customHeight="1">
       <c r="A247" s="187"/>
-      <c r="B247" s="300"/>
-      <c r="C247" s="300"/>
+      <c r="B247" s="303"/>
+      <c r="C247" s="303"/>
       <c r="D247" s="180"/>
       <c r="E247" s="184"/>
       <c r="F247" s="138"/>
@@ -12747,8 +12781,8 @@
     </row>
     <row r="248" spans="1:29" ht="15.75" customHeight="1">
       <c r="A248" s="187"/>
-      <c r="B248" s="300"/>
-      <c r="C248" s="300"/>
+      <c r="B248" s="303"/>
+      <c r="C248" s="303"/>
       <c r="D248" s="180"/>
       <c r="E248" s="184"/>
       <c r="F248" s="139"/>
@@ -12778,10 +12812,10 @@
     </row>
     <row r="249" spans="1:29" ht="15.75" customHeight="1">
       <c r="A249" s="187"/>
-      <c r="B249" s="300"/>
-      <c r="C249" s="300"/>
+      <c r="B249" s="303"/>
+      <c r="C249" s="303"/>
       <c r="D249" s="204"/>
-      <c r="E249" s="296"/>
+      <c r="E249" s="299"/>
       <c r="F249" s="149"/>
       <c r="G249" s="149"/>
       <c r="H249" s="149"/>
@@ -12809,10 +12843,10 @@
     </row>
     <row r="250" spans="1:29" ht="15.75" customHeight="1">
       <c r="A250" s="187"/>
-      <c r="B250" s="300"/>
-      <c r="C250" s="300"/>
+      <c r="B250" s="303"/>
+      <c r="C250" s="303"/>
       <c r="D250" s="227"/>
-      <c r="E250" s="296"/>
+      <c r="E250" s="299"/>
       <c r="F250" s="139"/>
       <c r="G250" s="139"/>
       <c r="H250" s="139"/>
@@ -12840,10 +12874,10 @@
     </row>
     <row r="251" spans="1:29" ht="15.75" customHeight="1">
       <c r="A251" s="187"/>
-      <c r="B251" s="300"/>
-      <c r="C251" s="300"/>
+      <c r="B251" s="303"/>
+      <c r="C251" s="303"/>
       <c r="D251" s="227"/>
-      <c r="E251" s="296"/>
+      <c r="E251" s="299"/>
       <c r="F251" s="139"/>
       <c r="G251" s="139"/>
       <c r="H251" s="139"/>
@@ -12871,10 +12905,10 @@
     </row>
     <row r="252" spans="1:29" ht="15.75" customHeight="1">
       <c r="A252" s="187"/>
-      <c r="B252" s="300"/>
-      <c r="C252" s="296"/>
+      <c r="B252" s="303"/>
+      <c r="C252" s="299"/>
       <c r="D252" s="165"/>
-      <c r="E252" s="296"/>
+      <c r="E252" s="299"/>
       <c r="F252" s="139"/>
       <c r="G252" s="139"/>
       <c r="H252" s="139"/>
@@ -12902,7 +12936,7 @@
     </row>
     <row r="253" spans="1:29" ht="15.75" customHeight="1">
       <c r="A253" s="187"/>
-      <c r="B253" s="300"/>
+      <c r="B253" s="303"/>
       <c r="C253" s="180"/>
       <c r="D253" s="227"/>
       <c r="E253" s="227"/>
@@ -12933,10 +12967,10 @@
     </row>
     <row r="254" spans="1:29" ht="15.75" customHeight="1">
       <c r="A254" s="187"/>
-      <c r="B254" s="300"/>
-      <c r="C254" s="296"/>
+      <c r="B254" s="303"/>
+      <c r="C254" s="299"/>
       <c r="D254" s="204"/>
-      <c r="E254" s="301"/>
+      <c r="E254" s="304"/>
       <c r="F254" s="149"/>
       <c r="G254" s="149"/>
       <c r="H254" s="149"/>
@@ -12964,10 +12998,10 @@
     </row>
     <row r="255" spans="1:29" ht="15.75" customHeight="1">
       <c r="A255" s="187"/>
-      <c r="B255" s="300"/>
-      <c r="C255" s="300"/>
+      <c r="B255" s="303"/>
+      <c r="C255" s="303"/>
       <c r="D255" s="165"/>
-      <c r="E255" s="301"/>
+      <c r="E255" s="304"/>
       <c r="F255" s="149"/>
       <c r="G255" s="149"/>
       <c r="H255" s="149"/>
@@ -12995,10 +13029,10 @@
     </row>
     <row r="256" spans="1:29" ht="15.75" customHeight="1">
       <c r="A256" s="187"/>
-      <c r="B256" s="300"/>
-      <c r="C256" s="300"/>
+      <c r="B256" s="303"/>
+      <c r="C256" s="303"/>
       <c r="D256" s="180"/>
-      <c r="E256" s="301"/>
+      <c r="E256" s="304"/>
       <c r="F256" s="149"/>
       <c r="G256" s="149"/>
       <c r="H256" s="149"/>
@@ -13026,10 +13060,10 @@
     </row>
     <row r="257" spans="1:29" ht="15.75" customHeight="1">
       <c r="A257" s="187"/>
-      <c r="B257" s="300"/>
-      <c r="C257" s="296"/>
+      <c r="B257" s="303"/>
+      <c r="C257" s="299"/>
       <c r="D257" s="180"/>
-      <c r="E257" s="301"/>
+      <c r="E257" s="304"/>
       <c r="F257" s="149"/>
       <c r="G257" s="149"/>
       <c r="H257" s="149"/>
@@ -13057,7 +13091,7 @@
     </row>
     <row r="258" spans="1:29" ht="15.75" customHeight="1">
       <c r="A258" s="187"/>
-      <c r="B258" s="300"/>
+      <c r="B258" s="303"/>
       <c r="C258" s="184"/>
       <c r="D258" s="184"/>
       <c r="E258" s="187"/>
@@ -13088,10 +13122,10 @@
     </row>
     <row r="259" spans="1:29" ht="15.75" customHeight="1">
       <c r="A259" s="187"/>
-      <c r="B259" s="300"/>
-      <c r="C259" s="296"/>
+      <c r="B259" s="303"/>
+      <c r="C259" s="299"/>
       <c r="D259" s="204"/>
-      <c r="E259" s="296"/>
+      <c r="E259" s="299"/>
       <c r="F259" s="149"/>
       <c r="G259" s="149"/>
       <c r="H259" s="149"/>
@@ -13119,10 +13153,10 @@
     </row>
     <row r="260" spans="1:29" ht="15.75" customHeight="1">
       <c r="A260" s="187"/>
-      <c r="B260" s="300"/>
-      <c r="C260" s="300"/>
+      <c r="B260" s="303"/>
+      <c r="C260" s="303"/>
       <c r="D260" s="227"/>
-      <c r="E260" s="296"/>
+      <c r="E260" s="299"/>
       <c r="F260" s="149"/>
       <c r="G260" s="149"/>
       <c r="H260" s="149"/>
@@ -13150,10 +13184,10 @@
     </row>
     <row r="261" spans="1:29" ht="15.75" customHeight="1">
       <c r="A261" s="187"/>
-      <c r="B261" s="300"/>
-      <c r="C261" s="300"/>
+      <c r="B261" s="303"/>
+      <c r="C261" s="303"/>
       <c r="D261" s="227"/>
-      <c r="E261" s="296"/>
+      <c r="E261" s="299"/>
       <c r="F261" s="149"/>
       <c r="G261" s="149"/>
       <c r="H261" s="149"/>
@@ -13181,10 +13215,10 @@
     </row>
     <row r="262" spans="1:29" ht="15.75" customHeight="1">
       <c r="A262" s="187"/>
-      <c r="B262" s="300"/>
-      <c r="C262" s="300"/>
+      <c r="B262" s="303"/>
+      <c r="C262" s="303"/>
       <c r="D262" s="227"/>
-      <c r="E262" s="296"/>
+      <c r="E262" s="299"/>
       <c r="F262" s="149"/>
       <c r="G262" s="149"/>
       <c r="H262" s="149"/>
@@ -13212,10 +13246,10 @@
     </row>
     <row r="263" spans="1:29" ht="15.75" customHeight="1">
       <c r="A263" s="187"/>
-      <c r="B263" s="300"/>
-      <c r="C263" s="300"/>
+      <c r="B263" s="303"/>
+      <c r="C263" s="303"/>
       <c r="D263" s="227"/>
-      <c r="E263" s="296"/>
+      <c r="E263" s="299"/>
       <c r="F263" s="142"/>
       <c r="G263" s="142"/>
       <c r="H263" s="142"/>
@@ -13243,10 +13277,10 @@
     </row>
     <row r="264" spans="1:29" ht="15.75" customHeight="1">
       <c r="A264" s="187"/>
-      <c r="B264" s="300"/>
-      <c r="C264" s="300"/>
+      <c r="B264" s="303"/>
+      <c r="C264" s="303"/>
       <c r="D264" s="165"/>
-      <c r="E264" s="296"/>
+      <c r="E264" s="299"/>
       <c r="F264" s="142"/>
       <c r="G264" s="142"/>
       <c r="H264" s="142"/>
@@ -13274,10 +13308,10 @@
     </row>
     <row r="265" spans="1:29" ht="15.75" customHeight="1">
       <c r="A265" s="187"/>
-      <c r="B265" s="300"/>
-      <c r="C265" s="300"/>
+      <c r="B265" s="303"/>
+      <c r="C265" s="303"/>
       <c r="D265" s="204"/>
-      <c r="E265" s="296"/>
+      <c r="E265" s="299"/>
       <c r="F265" s="149"/>
       <c r="G265" s="149"/>
       <c r="H265" s="149"/>
@@ -13305,10 +13339,10 @@
     </row>
     <row r="266" spans="1:29" ht="15.75" customHeight="1">
       <c r="A266" s="187"/>
-      <c r="B266" s="300"/>
-      <c r="C266" s="300"/>
+      <c r="B266" s="303"/>
+      <c r="C266" s="303"/>
       <c r="D266" s="227"/>
-      <c r="E266" s="296"/>
+      <c r="E266" s="299"/>
       <c r="F266" s="139"/>
       <c r="G266" s="139"/>
       <c r="H266" s="139"/>
@@ -13336,10 +13370,10 @@
     </row>
     <row r="267" spans="1:29" ht="15.75" customHeight="1">
       <c r="A267" s="187"/>
-      <c r="B267" s="300"/>
-      <c r="C267" s="300"/>
+      <c r="B267" s="303"/>
+      <c r="C267" s="303"/>
       <c r="D267" s="227"/>
-      <c r="E267" s="296"/>
+      <c r="E267" s="299"/>
       <c r="F267" s="139"/>
       <c r="G267" s="139"/>
       <c r="H267" s="139"/>
@@ -13367,10 +13401,10 @@
     </row>
     <row r="268" spans="1:29" ht="15.75" customHeight="1">
       <c r="A268" s="187"/>
-      <c r="B268" s="300"/>
-      <c r="C268" s="300"/>
+      <c r="B268" s="303"/>
+      <c r="C268" s="303"/>
       <c r="D268" s="165"/>
-      <c r="E268" s="296"/>
+      <c r="E268" s="299"/>
       <c r="F268" s="139"/>
       <c r="G268" s="139"/>
       <c r="H268" s="139"/>
@@ -15787,21 +15821,21 @@
       <c r="E2" s="240"/>
     </row>
     <row r="3" spans="2:8" ht="13.5" customHeight="1">
-      <c r="B3" s="308" t="s">
+      <c r="B3" s="305" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="308"/>
-      <c r="D3" s="308"/>
-      <c r="E3" s="308"/>
+      <c r="C3" s="305"/>
+      <c r="D3" s="305"/>
+      <c r="E3" s="305"/>
       <c r="F3" s="241"/>
       <c r="G3" s="241"/>
       <c r="H3" s="241"/>
     </row>
     <row r="4" spans="2:8" ht="45.75" customHeight="1">
-      <c r="B4" s="308"/>
-      <c r="C4" s="308"/>
-      <c r="D4" s="308"/>
-      <c r="E4" s="308"/>
+      <c r="B4" s="305"/>
+      <c r="C4" s="305"/>
+      <c r="D4" s="305"/>
+      <c r="E4" s="305"/>
       <c r="F4" s="241"/>
       <c r="G4" s="241"/>
       <c r="H4" s="241"/>
@@ -15831,7 +15865,7 @@
         <v>90</v>
       </c>
       <c r="E6" s="245" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="2:8" s="244" customFormat="1" ht="29.25" customHeight="1">
@@ -15845,7 +15879,7 @@
         <v>92</v>
       </c>
       <c r="E7" s="245" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="2:8" s="250" customFormat="1" ht="27.75" customHeight="1">
@@ -15859,7 +15893,7 @@
         <v>94</v>
       </c>
       <c r="E8" s="245" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="2:8" s="250" customFormat="1" ht="29.25" customHeight="1">
@@ -15873,7 +15907,7 @@
         <v>96</v>
       </c>
       <c r="E9" s="245" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="2:8" s="250" customFormat="1" ht="28.5" customHeight="1">
@@ -15887,7 +15921,7 @@
         <v>98</v>
       </c>
       <c r="E10" s="245" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="2:8" s="250" customFormat="1" ht="27.75" customHeight="1">
@@ -16100,61 +16134,61 @@
     <row r="3" spans="1:3" ht="14.4" thickBot="1"/>
     <row r="4" spans="1:3" ht="50.4" customHeight="1" thickBot="1">
       <c r="A4" s="258" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B4" s="259" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="37.799999999999997" customHeight="1">
       <c r="A5" s="260" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B5" s="260" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="41.4" customHeight="1">
       <c r="A6" s="260" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B6" s="260" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C6" s="263" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="34.200000000000003" customHeight="1">
       <c r="A7" s="260" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B7" s="260" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="47.4" customHeight="1">
       <c r="A8" s="260" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B8" s="260" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="53.4" customHeight="1">
       <c r="A9" s="260" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B9" s="260" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="64.8" customHeight="1">
       <c r="A10" s="260" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B10" s="262" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C10" s="257"/>
     </row>
@@ -16175,7 +16209,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z219"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
@@ -16197,39 +16231,39 @@
     <row r="2" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="3" spans="1:26" ht="8.25" customHeight="1"/>
     <row r="4" spans="1:26" ht="25.5" customHeight="1">
-      <c r="B4" s="302" t="s">
+      <c r="B4" s="306" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="302"/>
-      <c r="D4" s="302"/>
-      <c r="E4" s="302"/>
-      <c r="F4" s="302"/>
-      <c r="G4" s="302"/>
+      <c r="C4" s="306"/>
+      <c r="D4" s="306"/>
+      <c r="E4" s="306"/>
+      <c r="F4" s="306"/>
+      <c r="G4" s="306"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="303" t="s">
-        <v>176</v>
-      </c>
-      <c r="D5" s="303"/>
-      <c r="E5" s="303"/>
-      <c r="F5" s="303"/>
-      <c r="G5" s="303"/>
+      <c r="C5" s="307" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5" s="307"/>
+      <c r="E5" s="307"/>
+      <c r="F5" s="307"/>
+      <c r="G5" s="307"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="303" t="s">
-        <v>177</v>
-      </c>
-      <c r="D6" s="303"/>
-      <c r="E6" s="303"/>
-      <c r="F6" s="303"/>
-      <c r="G6" s="303"/>
+      <c r="C6" s="307" t="s">
+        <v>170</v>
+      </c>
+      <c r="D6" s="307"/>
+      <c r="E6" s="307"/>
+      <c r="F6" s="307"/>
+      <c r="G6" s="307"/>
       <c r="I6" s="4" t="s">
         <v>3</v>
       </c>
@@ -16245,13 +16279,13 @@
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="303" t="s">
-        <v>178</v>
-      </c>
-      <c r="D7" s="303"/>
-      <c r="E7" s="303"/>
-      <c r="F7" s="303"/>
-      <c r="G7" s="303"/>
+      <c r="C7" s="307" t="s">
+        <v>171</v>
+      </c>
+      <c r="D7" s="307"/>
+      <c r="E7" s="307"/>
+      <c r="F7" s="307"/>
+      <c r="G7" s="307"/>
       <c r="I7" s="7">
         <f>C15</f>
         <v>4</v>
@@ -16266,13 +16300,13 @@
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="303" t="s">
+      <c r="C8" s="307" t="s">
         <v>111</v>
       </c>
-      <c r="D8" s="303"/>
-      <c r="E8" s="303"/>
-      <c r="F8" s="303"/>
-      <c r="G8" s="303"/>
+      <c r="D8" s="307"/>
+      <c r="E8" s="307"/>
+      <c r="F8" s="307"/>
+      <c r="G8" s="307"/>
       <c r="I8" s="7">
         <f>D15</f>
         <v>9</v>
@@ -16287,13 +16321,13 @@
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="303" t="s">
+      <c r="C9" s="307" t="s">
         <v>111</v>
       </c>
-      <c r="D9" s="303"/>
-      <c r="E9" s="303"/>
-      <c r="F9" s="303"/>
-      <c r="G9" s="303"/>
+      <c r="D9" s="307"/>
+      <c r="E9" s="307"/>
+      <c r="F9" s="307"/>
+      <c r="G9" s="307"/>
       <c r="I9" s="7">
         <f>E15</f>
         <v>0</v>
@@ -16309,7 +16343,7 @@
         <v>13</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="O9" s="9"/>
       <c r="P9" s="12"/>
@@ -16318,11 +16352,11 @@
       <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="303"/>
-      <c r="D10" s="303"/>
-      <c r="E10" s="303"/>
-      <c r="F10" s="303"/>
-      <c r="G10" s="303"/>
+      <c r="C10" s="307"/>
+      <c r="D10" s="307"/>
+      <c r="E10" s="307"/>
+      <c r="F10" s="307"/>
+      <c r="G10" s="307"/>
       <c r="I10" s="7">
         <f>F15</f>
         <v>0</v>
@@ -16336,28 +16370,28 @@
       </c>
       <c r="M10" s="9"/>
       <c r="N10" s="9" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B11" s="304" t="s">
+      <c r="B11" s="309" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="304"/>
-      <c r="D11" s="304"/>
-      <c r="E11" s="304"/>
-      <c r="F11" s="304"/>
-      <c r="G11" s="304"/>
+      <c r="C11" s="309"/>
+      <c r="D11" s="309"/>
+      <c r="E11" s="309"/>
+      <c r="F11" s="309"/>
+      <c r="G11" s="309"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B12" s="304"/>
-      <c r="C12" s="304"/>
-      <c r="D12" s="304"/>
-      <c r="E12" s="304"/>
-      <c r="F12" s="304"/>
-      <c r="G12" s="304"/>
+      <c r="B12" s="309"/>
+      <c r="C12" s="309"/>
+      <c r="D12" s="309"/>
+      <c r="E12" s="309"/>
+      <c r="F12" s="309"/>
+      <c r="G12" s="309"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1">
       <c r="B13" s="13" t="s">
@@ -16492,21 +16526,21 @@
       <c r="R17" s="16"/>
     </row>
     <row r="18" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B18" s="305" t="s">
+      <c r="B18" s="310" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="305"/>
-      <c r="D18" s="305"/>
-      <c r="E18" s="305"/>
-      <c r="F18" s="305"/>
-      <c r="G18" s="305"/>
+      <c r="C18" s="310"/>
+      <c r="D18" s="310"/>
+      <c r="E18" s="310"/>
+      <c r="F18" s="310"/>
+      <c r="G18" s="310"/>
     </row>
     <row r="19" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B19" s="306" t="s">
+      <c r="B19" s="311" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="306"/>
-      <c r="D19" s="306"/>
+      <c r="C19" s="311"/>
+      <c r="D19" s="311"/>
       <c r="E19" s="31"/>
       <c r="F19" s="31" t="s">
         <v>23</v>
@@ -16516,11 +16550,11 @@
       </c>
     </row>
     <row r="20" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B20" s="307" t="s">
+      <c r="B20" s="308" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="307"/>
-      <c r="D20" s="307"/>
+      <c r="C20" s="308"/>
+      <c r="D20" s="308"/>
       <c r="E20" s="32"/>
       <c r="F20" s="32" t="s">
         <v>26</v>
@@ -16530,11 +16564,11 @@
       </c>
     </row>
     <row r="21" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B21" s="307" t="s">
+      <c r="B21" s="308" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="307"/>
-      <c r="D21" s="307"/>
+      <c r="C21" s="308"/>
+      <c r="D21" s="308"/>
       <c r="E21" s="32"/>
       <c r="F21" s="32" t="s">
         <v>26</v>

--- a/Academy_LMS_Kodezen.xlsx
+++ b/Academy_LMS_Kodezen.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Bug Report" sheetId="5" r:id="rId1"/>
     <sheet name="TestCase" sheetId="4" r:id="rId2"/>
-    <sheet name="Test Metrics" sheetId="6" r:id="rId3"/>
+    <sheet name="Report" sheetId="3" r:id="rId3"/>
     <sheet name="Test Plan" sheetId="1" r:id="rId4"/>
-    <sheet name="Report" sheetId="3" r:id="rId5"/>
+    <sheet name="Test Metrics" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="Remember_Me_checkbox_error">TestCase!#REF!</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="238">
   <si>
     <t>Test Case Report</t>
   </si>
@@ -1451,6 +1451,9 @@
   </si>
   <si>
     <t>Settings (Academy LMS Admin Panel), Sign In, Registration</t>
+  </si>
+  <si>
+    <t># SL 06</t>
   </si>
 </sst>
 </file>
@@ -3109,6 +3112,12 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3212,9 +3221,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3231,11 +3237,8 @@
     <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3612,7 +3615,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3700,7 +3702,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:spPr>
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
@@ -3728,9 +3729,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-FF29-49CA-8DC2-E12A10C7CE75}"/>
                 </c:ext>
@@ -3738,7 +3737,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:spPr>
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
@@ -3766,9 +3764,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-FF29-49CA-8DC2-E12A10C7CE75}"/>
                 </c:ext>
@@ -3776,7 +3772,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:spPr>
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
@@ -3804,9 +3799,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-FF29-49CA-8DC2-E12A10C7CE75}"/>
                 </c:ext>
@@ -3814,7 +3807,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
-              <c:layout/>
               <c:spPr>
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
@@ -3842,9 +3834,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-FF29-49CA-8DC2-E12A10C7CE75}"/>
                 </c:ext>
@@ -3952,7 +3942,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -4027,7 +4016,7 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>1855080</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>64275</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4314,8 +4303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L36"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.8"/>
@@ -4330,126 +4319,126 @@
   <sheetData>
     <row r="2" spans="2:12" ht="14.4" thickBot="1"/>
     <row r="3" spans="2:12" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B3" s="270" t="s">
+      <c r="B3" s="272" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="270"/>
-      <c r="E3" s="270" t="s">
+      <c r="C3" s="272"/>
+      <c r="E3" s="272" t="s">
         <v>83</v>
       </c>
-      <c r="F3" s="270"/>
-      <c r="H3" s="270" t="s">
+      <c r="F3" s="272"/>
+      <c r="H3" s="272" t="s">
         <v>83</v>
       </c>
-      <c r="I3" s="270"/>
-      <c r="K3" s="270" t="s">
+      <c r="I3" s="272"/>
+      <c r="K3" s="272" t="s">
         <v>83</v>
       </c>
-      <c r="L3" s="270"/>
+      <c r="L3" s="272"/>
     </row>
     <row r="4" spans="2:12" ht="14.4" customHeight="1" thickBot="1">
-      <c r="B4" s="270"/>
-      <c r="C4" s="270"/>
-      <c r="E4" s="270"/>
-      <c r="F4" s="270"/>
-      <c r="H4" s="270"/>
-      <c r="I4" s="270"/>
-      <c r="K4" s="270"/>
-      <c r="L4" s="270"/>
+      <c r="B4" s="272"/>
+      <c r="C4" s="272"/>
+      <c r="E4" s="272"/>
+      <c r="F4" s="272"/>
+      <c r="H4" s="272"/>
+      <c r="I4" s="272"/>
+      <c r="K4" s="272"/>
+      <c r="L4" s="272"/>
     </row>
     <row r="5" spans="2:12" ht="14.4" customHeight="1" thickBot="1">
-      <c r="B5" s="270"/>
-      <c r="C5" s="270"/>
-      <c r="E5" s="270"/>
-      <c r="F5" s="270"/>
-      <c r="H5" s="270"/>
-      <c r="I5" s="270"/>
-      <c r="K5" s="270"/>
-      <c r="L5" s="270"/>
+      <c r="B5" s="272"/>
+      <c r="C5" s="272"/>
+      <c r="E5" s="272"/>
+      <c r="F5" s="272"/>
+      <c r="H5" s="272"/>
+      <c r="I5" s="272"/>
+      <c r="K5" s="272"/>
+      <c r="L5" s="272"/>
     </row>
     <row r="6" spans="2:12" ht="14.4" customHeight="1" thickBot="1">
-      <c r="B6" s="270"/>
-      <c r="C6" s="270"/>
-      <c r="E6" s="270"/>
-      <c r="F6" s="270"/>
-      <c r="H6" s="270"/>
-      <c r="I6" s="270"/>
-      <c r="K6" s="270"/>
-      <c r="L6" s="270"/>
+      <c r="B6" s="272"/>
+      <c r="C6" s="272"/>
+      <c r="E6" s="272"/>
+      <c r="F6" s="272"/>
+      <c r="H6" s="272"/>
+      <c r="I6" s="272"/>
+      <c r="K6" s="272"/>
+      <c r="L6" s="272"/>
     </row>
     <row r="7" spans="2:12" ht="15" customHeight="1">
-      <c r="B7" s="271" t="s">
+      <c r="B7" s="273" t="s">
         <v>174</v>
       </c>
-      <c r="C7" s="271"/>
-      <c r="E7" s="271" t="s">
+      <c r="C7" s="273"/>
+      <c r="E7" s="273" t="s">
         <v>182</v>
       </c>
-      <c r="F7" s="271"/>
-      <c r="H7" s="271" t="s">
+      <c r="F7" s="273"/>
+      <c r="H7" s="273" t="s">
         <v>186</v>
       </c>
-      <c r="I7" s="271"/>
-      <c r="K7" s="271" t="s">
+      <c r="I7" s="273"/>
+      <c r="K7" s="273" t="s">
         <v>191</v>
       </c>
-      <c r="L7" s="271"/>
+      <c r="L7" s="273"/>
     </row>
     <row r="8" spans="2:12" ht="18.75" customHeight="1">
-      <c r="B8" s="271"/>
-      <c r="C8" s="271"/>
-      <c r="E8" s="271"/>
-      <c r="F8" s="271"/>
-      <c r="H8" s="271"/>
-      <c r="I8" s="271"/>
-      <c r="K8" s="271"/>
-      <c r="L8" s="271"/>
+      <c r="B8" s="273"/>
+      <c r="C8" s="273"/>
+      <c r="E8" s="273"/>
+      <c r="F8" s="273"/>
+      <c r="H8" s="273"/>
+      <c r="I8" s="273"/>
+      <c r="K8" s="273"/>
+      <c r="L8" s="273"/>
     </row>
     <row r="9" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B9" s="272" t="s">
+      <c r="B9" s="274" t="s">
         <v>178</v>
       </c>
-      <c r="C9" s="273"/>
-      <c r="E9" s="272" t="s">
+      <c r="C9" s="275"/>
+      <c r="E9" s="274" t="s">
         <v>183</v>
       </c>
-      <c r="F9" s="273"/>
-      <c r="H9" s="272" t="s">
+      <c r="F9" s="275"/>
+      <c r="H9" s="274" t="s">
         <v>188</v>
       </c>
-      <c r="I9" s="273"/>
-      <c r="K9" s="272" t="s">
+      <c r="I9" s="275"/>
+      <c r="K9" s="274" t="s">
         <v>195</v>
       </c>
-      <c r="L9" s="273"/>
+      <c r="L9" s="275"/>
     </row>
     <row r="10" spans="2:12" ht="50.4" customHeight="1">
-      <c r="B10" s="273"/>
-      <c r="C10" s="273"/>
-      <c r="E10" s="273"/>
-      <c r="F10" s="273"/>
-      <c r="H10" s="273"/>
-      <c r="I10" s="273"/>
-      <c r="K10" s="273"/>
-      <c r="L10" s="273"/>
+      <c r="B10" s="275"/>
+      <c r="C10" s="275"/>
+      <c r="E10" s="275"/>
+      <c r="F10" s="275"/>
+      <c r="H10" s="275"/>
+      <c r="I10" s="275"/>
+      <c r="K10" s="275"/>
+      <c r="L10" s="275"/>
     </row>
     <row r="11" spans="2:12" ht="21" customHeight="1">
-      <c r="B11" s="274" t="s">
+      <c r="B11" s="276" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="274"/>
-      <c r="E11" s="274" t="s">
+      <c r="C11" s="276"/>
+      <c r="E11" s="276" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="274"/>
-      <c r="H11" s="274" t="s">
+      <c r="F11" s="276"/>
+      <c r="H11" s="276" t="s">
         <v>84</v>
       </c>
-      <c r="I11" s="274"/>
-      <c r="K11" s="274" t="s">
+      <c r="I11" s="276"/>
+      <c r="K11" s="276" t="s">
         <v>84</v>
       </c>
-      <c r="L11" s="274"/>
+      <c r="L11" s="276"/>
     </row>
     <row r="12" spans="2:12" ht="119.4" customHeight="1">
       <c r="B12" s="233" t="s">
@@ -4561,74 +4550,74 @@
     </row>
     <row r="18" spans="2:12" ht="14.4" thickBot="1"/>
     <row r="19" spans="2:12" ht="14.4" customHeight="1" thickBot="1">
-      <c r="B19" s="270" t="s">
+      <c r="B19" s="272" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="270"/>
-      <c r="E19" s="270" t="s">
+      <c r="C19" s="272"/>
+      <c r="E19" s="272" t="s">
         <v>83</v>
       </c>
-      <c r="F19" s="270"/>
+      <c r="F19" s="272"/>
     </row>
     <row r="20" spans="2:12" ht="14.4" customHeight="1" thickBot="1">
-      <c r="B20" s="270"/>
-      <c r="C20" s="270"/>
-      <c r="E20" s="270"/>
-      <c r="F20" s="270"/>
+      <c r="B20" s="272"/>
+      <c r="C20" s="272"/>
+      <c r="E20" s="272"/>
+      <c r="F20" s="272"/>
     </row>
     <row r="21" spans="2:12" ht="14.4" customHeight="1" thickBot="1">
-      <c r="B21" s="270"/>
-      <c r="C21" s="270"/>
-      <c r="E21" s="270"/>
-      <c r="F21" s="270"/>
+      <c r="B21" s="272"/>
+      <c r="C21" s="272"/>
+      <c r="E21" s="272"/>
+      <c r="F21" s="272"/>
     </row>
     <row r="22" spans="2:12" ht="14.4" customHeight="1" thickBot="1">
-      <c r="B22" s="270"/>
-      <c r="C22" s="270"/>
-      <c r="E22" s="270"/>
-      <c r="F22" s="270"/>
+      <c r="B22" s="272"/>
+      <c r="C22" s="272"/>
+      <c r="E22" s="272"/>
+      <c r="F22" s="272"/>
     </row>
     <row r="23" spans="2:12" ht="13.8" customHeight="1">
-      <c r="B23" s="271" t="s">
+      <c r="B23" s="273" t="s">
         <v>199</v>
       </c>
-      <c r="C23" s="271"/>
-      <c r="E23" s="271" t="s">
-        <v>199</v>
-      </c>
-      <c r="F23" s="271"/>
+      <c r="C23" s="273"/>
+      <c r="E23" s="273" t="s">
+        <v>237</v>
+      </c>
+      <c r="F23" s="273"/>
     </row>
     <row r="24" spans="2:12" ht="13.8" customHeight="1">
-      <c r="B24" s="271"/>
-      <c r="C24" s="271"/>
-      <c r="E24" s="271"/>
-      <c r="F24" s="271"/>
+      <c r="B24" s="273"/>
+      <c r="C24" s="273"/>
+      <c r="E24" s="273"/>
+      <c r="F24" s="273"/>
     </row>
     <row r="25" spans="2:12" ht="49.2" customHeight="1">
-      <c r="B25" s="272" t="s">
+      <c r="B25" s="274" t="s">
         <v>204</v>
       </c>
-      <c r="C25" s="273"/>
-      <c r="E25" s="272" t="s">
+      <c r="C25" s="275"/>
+      <c r="E25" s="274" t="s">
         <v>206</v>
       </c>
-      <c r="F25" s="273"/>
+      <c r="F25" s="275"/>
     </row>
     <row r="26" spans="2:12" ht="13.8" customHeight="1">
-      <c r="B26" s="273"/>
-      <c r="C26" s="273"/>
-      <c r="E26" s="273"/>
-      <c r="F26" s="273"/>
+      <c r="B26" s="275"/>
+      <c r="C26" s="275"/>
+      <c r="E26" s="275"/>
+      <c r="F26" s="275"/>
     </row>
     <row r="27" spans="2:12" ht="14.4">
-      <c r="B27" s="274" t="s">
+      <c r="B27" s="276" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="274"/>
-      <c r="E27" s="274" t="s">
+      <c r="C27" s="276"/>
+      <c r="E27" s="276" t="s">
         <v>84</v>
       </c>
-      <c r="F27" s="274"/>
+      <c r="F27" s="276"/>
     </row>
     <row r="28" spans="2:12" ht="172.8">
       <c r="B28" s="233" t="s">
@@ -4766,10 +4755,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="29.25" customHeight="1" thickBot="1">
-      <c r="A1" s="281" t="s">
+      <c r="A1" s="283" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="281"/>
+      <c r="B1" s="283"/>
       <c r="C1" s="252" t="s">
         <v>222</v>
       </c>
@@ -4789,10 +4778,10 @@
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
       <c r="K1" s="37"/>
-      <c r="L1" s="280" t="s">
+      <c r="L1" s="282" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="280"/>
+      <c r="M1" s="282"/>
       <c r="N1" s="38"/>
       <c r="O1" s="38"/>
       <c r="P1" s="38"/>
@@ -4811,10 +4800,10 @@
       <c r="AC1" s="38"/>
     </row>
     <row r="2" spans="1:29" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A2" s="281" t="s">
+      <c r="A2" s="283" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="281"/>
+      <c r="B2" s="283"/>
       <c r="C2" s="39" t="s">
         <v>236</v>
       </c>
@@ -4859,15 +4848,15 @@
       <c r="AC2" s="38"/>
     </row>
     <row r="3" spans="1:29" ht="33" customHeight="1" thickBot="1">
-      <c r="A3" s="281" t="s">
+      <c r="A3" s="283" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="281"/>
+      <c r="B3" s="283"/>
       <c r="C3" s="39"/>
       <c r="D3" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="313" t="s">
+      <c r="E3" s="271" t="s">
         <v>111</v>
       </c>
       <c r="F3" s="44" t="s">
@@ -4905,10 +4894,10 @@
       <c r="AC3" s="38"/>
     </row>
     <row r="4" spans="1:29" ht="34.5" customHeight="1">
-      <c r="A4" s="281" t="s">
+      <c r="A4" s="283" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="281"/>
+      <c r="B4" s="283"/>
       <c r="C4" s="39"/>
       <c r="D4" s="40" t="s">
         <v>44</v>
@@ -4949,15 +4938,15 @@
       <c r="AC4" s="38"/>
     </row>
     <row r="5" spans="1:29" s="52" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A5" s="288" t="s">
+      <c r="A5" s="290" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="288"/>
-      <c r="C5" s="289"/>
-      <c r="D5" s="289"/>
-      <c r="E5" s="289"/>
-      <c r="F5" s="289"/>
-      <c r="G5" s="289"/>
+      <c r="B5" s="290"/>
+      <c r="C5" s="291"/>
+      <c r="D5" s="291"/>
+      <c r="E5" s="291"/>
+      <c r="F5" s="291"/>
+      <c r="G5" s="291"/>
       <c r="H5" s="47"/>
       <c r="I5" s="47"/>
       <c r="J5" s="47"/>
@@ -5164,7 +5153,7 @@
       <c r="B10" s="255" t="s">
         <v>132</v>
       </c>
-      <c r="C10" s="290" t="s">
+      <c r="C10" s="292" t="s">
         <v>66</v>
       </c>
       <c r="D10" s="255" t="s">
@@ -5216,11 +5205,11 @@
       <c r="A11" s="80">
         <v>3</v>
       </c>
-      <c r="B11" s="277" t="s">
+      <c r="B11" s="279" t="s">
         <v>119</v>
       </c>
-      <c r="C11" s="290"/>
-      <c r="D11" s="277" t="s">
+      <c r="C11" s="292"/>
+      <c r="D11" s="279" t="s">
         <v>121</v>
       </c>
       <c r="E11" s="65" t="s">
@@ -5269,9 +5258,9 @@
       <c r="A12" s="80">
         <v>4</v>
       </c>
-      <c r="B12" s="278"/>
-      <c r="C12" s="290"/>
-      <c r="D12" s="278"/>
+      <c r="B12" s="280"/>
+      <c r="C12" s="292"/>
+      <c r="D12" s="280"/>
       <c r="E12" s="65" t="s">
         <v>67</v>
       </c>
@@ -5318,11 +5307,11 @@
       <c r="A13" s="80">
         <v>5</v>
       </c>
-      <c r="B13" s="277" t="s">
+      <c r="B13" s="279" t="s">
         <v>126</v>
       </c>
-      <c r="C13" s="290"/>
-      <c r="D13" s="275" t="s">
+      <c r="C13" s="292"/>
+      <c r="D13" s="277" t="s">
         <v>127</v>
       </c>
       <c r="E13" s="65" t="s">
@@ -5371,9 +5360,9 @@
       <c r="A14" s="80">
         <v>6</v>
       </c>
-      <c r="B14" s="278"/>
-      <c r="C14" s="290"/>
-      <c r="D14" s="276"/>
+      <c r="B14" s="280"/>
+      <c r="C14" s="292"/>
+      <c r="D14" s="278"/>
       <c r="E14" s="65" t="s">
         <v>177</v>
       </c>
@@ -5449,13 +5438,13 @@
       <c r="A16" s="95">
         <v>10</v>
       </c>
-      <c r="B16" s="275" t="s">
+      <c r="B16" s="277" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="291" t="s">
+      <c r="C16" s="293" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="275" t="s">
+      <c r="D16" s="277" t="s">
         <v>116</v>
       </c>
       <c r="E16" s="102" t="s">
@@ -5504,9 +5493,9 @@
       <c r="A17" s="95">
         <v>11</v>
       </c>
-      <c r="B17" s="276"/>
-      <c r="C17" s="291"/>
-      <c r="D17" s="276"/>
+      <c r="B17" s="278"/>
+      <c r="C17" s="293"/>
+      <c r="D17" s="278"/>
       <c r="E17" s="102" t="s">
         <v>194</v>
       </c>
@@ -5553,11 +5542,11 @@
       <c r="A18" s="95">
         <v>12</v>
       </c>
-      <c r="B18" s="277" t="s">
+      <c r="B18" s="279" t="s">
         <v>119</v>
       </c>
-      <c r="C18" s="291"/>
-      <c r="D18" s="275" t="s">
+      <c r="C18" s="293"/>
+      <c r="D18" s="277" t="s">
         <v>121</v>
       </c>
       <c r="E18" s="261" t="s">
@@ -5606,9 +5595,9 @@
       <c r="A19" s="95">
         <v>13</v>
       </c>
-      <c r="B19" s="278"/>
-      <c r="C19" s="291"/>
-      <c r="D19" s="279"/>
+      <c r="B19" s="280"/>
+      <c r="C19" s="293"/>
+      <c r="D19" s="281"/>
       <c r="E19" s="102" t="s">
         <v>158</v>
       </c>
@@ -5685,10 +5674,10 @@
         <v>48</v>
       </c>
       <c r="B21" s="253"/>
-      <c r="C21" s="291" t="s">
+      <c r="C21" s="293" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="275" t="s">
+      <c r="D21" s="277" t="s">
         <v>203</v>
       </c>
       <c r="E21" s="102" t="s">
@@ -5734,8 +5723,8 @@
         <v>49</v>
       </c>
       <c r="B22" s="253"/>
-      <c r="C22" s="291"/>
-      <c r="D22" s="279"/>
+      <c r="C22" s="293"/>
+      <c r="D22" s="281"/>
       <c r="E22" s="110" t="s">
         <v>75</v>
       </c>
@@ -5779,8 +5768,8 @@
         <v>50</v>
       </c>
       <c r="B23" s="253"/>
-      <c r="C23" s="291"/>
-      <c r="D23" s="276"/>
+      <c r="C23" s="293"/>
+      <c r="D23" s="278"/>
       <c r="E23" s="110" t="s">
         <v>78</v>
       </c>
@@ -5853,8 +5842,8 @@
     <row r="25" spans="1:29" s="100" customFormat="1" ht="78" customHeight="1" thickBot="1">
       <c r="A25" s="95"/>
       <c r="B25" s="253"/>
-      <c r="C25" s="286"/>
-      <c r="D25" s="287" t="s">
+      <c r="C25" s="288"/>
+      <c r="D25" s="289" t="s">
         <v>81</v>
       </c>
       <c r="E25" s="102" t="s">
@@ -5888,8 +5877,8 @@
     <row r="26" spans="1:29" s="100" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
       <c r="A26" s="95"/>
       <c r="B26" s="253"/>
-      <c r="C26" s="286"/>
-      <c r="D26" s="287"/>
+      <c r="C26" s="288"/>
+      <c r="D26" s="289"/>
       <c r="E26" s="102" t="s">
         <v>165</v>
       </c>
@@ -5921,8 +5910,8 @@
     <row r="27" spans="1:29" s="100" customFormat="1" ht="69.599999999999994" customHeight="1" thickBot="1">
       <c r="A27" s="95"/>
       <c r="B27" s="253"/>
-      <c r="C27" s="286"/>
-      <c r="D27" s="287"/>
+      <c r="C27" s="288"/>
+      <c r="D27" s="289"/>
       <c r="E27" s="96" t="s">
         <v>166</v>
       </c>
@@ -5954,8 +5943,8 @@
     <row r="28" spans="1:29" s="100" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A28" s="95"/>
       <c r="B28" s="253"/>
-      <c r="C28" s="286"/>
-      <c r="D28" s="287"/>
+      <c r="C28" s="288"/>
+      <c r="D28" s="289"/>
       <c r="E28" s="96" t="s">
         <v>167</v>
       </c>
@@ -5987,8 +5976,8 @@
     <row r="29" spans="1:29" s="100" customFormat="1" ht="133.80000000000001" customHeight="1" thickBot="1">
       <c r="A29" s="95"/>
       <c r="B29" s="253"/>
-      <c r="C29" s="286"/>
-      <c r="D29" s="312" t="s">
+      <c r="C29" s="288"/>
+      <c r="D29" s="270" t="s">
         <v>228</v>
       </c>
       <c r="E29" s="117" t="s">
@@ -6209,7 +6198,7 @@
       <c r="A36" s="118"/>
       <c r="B36" s="253"/>
       <c r="C36" s="115"/>
-      <c r="D36" s="282"/>
+      <c r="D36" s="284"/>
       <c r="E36" s="119"/>
       <c r="F36" s="80"/>
       <c r="G36" s="96"/>
@@ -6240,7 +6229,7 @@
       <c r="A37" s="118"/>
       <c r="B37" s="253"/>
       <c r="C37" s="115"/>
-      <c r="D37" s="282"/>
+      <c r="D37" s="284"/>
       <c r="E37" s="119"/>
       <c r="F37" s="96"/>
       <c r="G37" s="96"/>
@@ -6271,7 +6260,7 @@
       <c r="A38" s="118"/>
       <c r="B38" s="253"/>
       <c r="C38" s="115"/>
-      <c r="D38" s="282"/>
+      <c r="D38" s="284"/>
       <c r="E38" s="121"/>
       <c r="F38" s="65"/>
       <c r="G38" s="96"/>
@@ -6302,7 +6291,7 @@
       <c r="A39" s="118"/>
       <c r="B39" s="253"/>
       <c r="C39" s="115"/>
-      <c r="D39" s="282"/>
+      <c r="D39" s="284"/>
       <c r="E39" s="121"/>
       <c r="F39" s="65"/>
       <c r="G39" s="96"/>
@@ -6333,7 +6322,7 @@
       <c r="A40" s="118"/>
       <c r="B40" s="253"/>
       <c r="C40" s="115"/>
-      <c r="D40" s="282"/>
+      <c r="D40" s="284"/>
       <c r="E40" s="121"/>
       <c r="F40" s="65"/>
       <c r="G40" s="96"/>
@@ -6395,7 +6384,7 @@
       <c r="A42" s="118"/>
       <c r="B42" s="253"/>
       <c r="C42" s="115"/>
-      <c r="D42" s="282"/>
+      <c r="D42" s="284"/>
       <c r="E42" s="117"/>
       <c r="F42" s="96"/>
       <c r="G42" s="96"/>
@@ -6426,7 +6415,7 @@
       <c r="A43" s="118"/>
       <c r="B43" s="253"/>
       <c r="C43" s="115"/>
-      <c r="D43" s="282"/>
+      <c r="D43" s="284"/>
       <c r="E43" s="117"/>
       <c r="F43" s="96"/>
       <c r="G43" s="96"/>
@@ -6488,7 +6477,7 @@
       <c r="A45" s="118"/>
       <c r="B45" s="253"/>
       <c r="C45" s="115"/>
-      <c r="D45" s="283"/>
+      <c r="D45" s="285"/>
       <c r="E45" s="119"/>
       <c r="F45" s="96"/>
       <c r="G45" s="96"/>
@@ -6519,7 +6508,7 @@
       <c r="A46" s="118"/>
       <c r="B46" s="253"/>
       <c r="C46" s="115"/>
-      <c r="D46" s="283"/>
+      <c r="D46" s="285"/>
       <c r="E46" s="119"/>
       <c r="F46" s="96"/>
       <c r="G46" s="96"/>
@@ -6550,7 +6539,7 @@
       <c r="A47" s="118"/>
       <c r="B47" s="253"/>
       <c r="C47" s="115"/>
-      <c r="D47" s="283"/>
+      <c r="D47" s="285"/>
       <c r="E47" s="121"/>
       <c r="F47" s="65"/>
       <c r="G47" s="96"/>
@@ -6581,7 +6570,7 @@
       <c r="A48" s="118"/>
       <c r="B48" s="253"/>
       <c r="C48" s="115"/>
-      <c r="D48" s="283"/>
+      <c r="D48" s="285"/>
       <c r="E48" s="117"/>
       <c r="F48" s="96"/>
       <c r="G48" s="96"/>
@@ -6612,7 +6601,7 @@
       <c r="A49" s="118"/>
       <c r="B49" s="253"/>
       <c r="C49" s="115"/>
-      <c r="D49" s="283"/>
+      <c r="D49" s="285"/>
       <c r="E49" s="117"/>
       <c r="F49" s="96"/>
       <c r="G49" s="96"/>
@@ -6643,7 +6632,7 @@
       <c r="A50" s="118"/>
       <c r="B50" s="253"/>
       <c r="C50" s="115"/>
-      <c r="D50" s="283"/>
+      <c r="D50" s="285"/>
       <c r="E50" s="119"/>
       <c r="F50" s="96"/>
       <c r="G50" s="96"/>
@@ -6674,7 +6663,7 @@
       <c r="A51" s="118"/>
       <c r="B51" s="253"/>
       <c r="C51" s="115"/>
-      <c r="D51" s="283"/>
+      <c r="D51" s="285"/>
       <c r="E51" s="119"/>
       <c r="F51" s="96"/>
       <c r="G51" s="96"/>
@@ -6705,7 +6694,7 @@
       <c r="A52" s="118"/>
       <c r="B52" s="253"/>
       <c r="C52" s="115"/>
-      <c r="D52" s="283"/>
+      <c r="D52" s="285"/>
       <c r="E52" s="119"/>
       <c r="F52" s="96"/>
       <c r="G52" s="96"/>
@@ -6736,7 +6725,7 @@
       <c r="A53" s="118"/>
       <c r="B53" s="253"/>
       <c r="C53" s="115"/>
-      <c r="D53" s="283"/>
+      <c r="D53" s="285"/>
       <c r="E53" s="121"/>
       <c r="F53" s="65"/>
       <c r="G53" s="96"/>
@@ -6767,7 +6756,7 @@
       <c r="A54" s="118"/>
       <c r="B54" s="253"/>
       <c r="C54" s="115"/>
-      <c r="D54" s="283"/>
+      <c r="D54" s="285"/>
       <c r="E54" s="123"/>
       <c r="F54" s="101"/>
       <c r="G54" s="101"/>
@@ -6798,7 +6787,7 @@
       <c r="A55" s="118"/>
       <c r="B55" s="253"/>
       <c r="C55" s="115"/>
-      <c r="D55" s="283"/>
+      <c r="D55" s="285"/>
       <c r="E55" s="117"/>
       <c r="F55" s="96"/>
       <c r="G55" s="96"/>
@@ -6860,7 +6849,7 @@
       <c r="A57" s="118"/>
       <c r="B57" s="253"/>
       <c r="C57" s="115"/>
-      <c r="D57" s="284"/>
+      <c r="D57" s="286"/>
       <c r="E57" s="119"/>
       <c r="F57" s="96"/>
       <c r="G57" s="96"/>
@@ -6891,7 +6880,7 @@
       <c r="A58" s="118"/>
       <c r="B58" s="253"/>
       <c r="C58" s="115"/>
-      <c r="D58" s="284"/>
+      <c r="D58" s="286"/>
       <c r="E58" s="119"/>
       <c r="F58" s="96"/>
       <c r="G58" s="96"/>
@@ -6922,7 +6911,7 @@
       <c r="A59" s="118"/>
       <c r="B59" s="253"/>
       <c r="C59" s="115"/>
-      <c r="D59" s="284"/>
+      <c r="D59" s="286"/>
       <c r="E59" s="119"/>
       <c r="F59" s="96"/>
       <c r="G59" s="96"/>
@@ -6953,7 +6942,7 @@
       <c r="A60" s="118"/>
       <c r="B60" s="253"/>
       <c r="C60" s="115"/>
-      <c r="D60" s="284"/>
+      <c r="D60" s="286"/>
       <c r="E60" s="121"/>
       <c r="F60" s="65"/>
       <c r="G60" s="96"/>
@@ -6984,7 +6973,7 @@
       <c r="A61" s="126"/>
       <c r="B61" s="253"/>
       <c r="C61" s="127"/>
-      <c r="D61" s="284"/>
+      <c r="D61" s="286"/>
       <c r="E61" s="128"/>
       <c r="F61" s="129"/>
       <c r="G61" s="129"/>
@@ -7015,7 +7004,7 @@
       <c r="A62" s="133"/>
       <c r="B62" s="253"/>
       <c r="C62" s="127"/>
-      <c r="D62" s="284"/>
+      <c r="D62" s="286"/>
       <c r="E62" s="134"/>
       <c r="F62" s="135"/>
       <c r="G62" s="136"/>
@@ -7046,7 +7035,7 @@
       <c r="A63" s="133"/>
       <c r="B63" s="253"/>
       <c r="C63" s="127"/>
-      <c r="D63" s="284"/>
+      <c r="D63" s="286"/>
       <c r="E63" s="141"/>
       <c r="F63" s="142"/>
       <c r="G63" s="142"/>
@@ -7077,7 +7066,7 @@
       <c r="A64" s="133"/>
       <c r="B64" s="253"/>
       <c r="C64" s="127"/>
-      <c r="D64" s="284"/>
+      <c r="D64" s="286"/>
       <c r="E64" s="141"/>
       <c r="F64" s="142"/>
       <c r="G64" s="142"/>
@@ -7108,7 +7097,7 @@
       <c r="A65" s="133"/>
       <c r="B65" s="253"/>
       <c r="C65" s="127"/>
-      <c r="D65" s="284"/>
+      <c r="D65" s="286"/>
       <c r="E65" s="145"/>
       <c r="F65" s="142"/>
       <c r="G65" s="142"/>
@@ -7139,7 +7128,7 @@
       <c r="A66" s="133"/>
       <c r="B66" s="253"/>
       <c r="C66" s="127"/>
-      <c r="D66" s="284"/>
+      <c r="D66" s="286"/>
       <c r="E66" s="146"/>
       <c r="F66" s="135"/>
       <c r="G66" s="136"/>
@@ -7201,7 +7190,7 @@
       <c r="A68" s="133"/>
       <c r="B68" s="253"/>
       <c r="C68" s="127"/>
-      <c r="D68" s="285"/>
+      <c r="D68" s="287"/>
       <c r="E68" s="148"/>
       <c r="F68" s="135"/>
       <c r="G68" s="136"/>
@@ -7232,7 +7221,7 @@
       <c r="A69" s="133"/>
       <c r="B69" s="253"/>
       <c r="C69" s="127"/>
-      <c r="D69" s="285"/>
+      <c r="D69" s="287"/>
       <c r="E69" s="150"/>
       <c r="F69" s="142"/>
       <c r="G69" s="142"/>
@@ -7294,7 +7283,7 @@
       <c r="A71" s="133"/>
       <c r="B71" s="253"/>
       <c r="C71" s="127"/>
-      <c r="D71" s="292"/>
+      <c r="D71" s="294"/>
       <c r="E71" s="150"/>
       <c r="F71" s="142"/>
       <c r="G71" s="142"/>
@@ -7325,7 +7314,7 @@
       <c r="A72" s="133"/>
       <c r="B72" s="253"/>
       <c r="C72" s="127"/>
-      <c r="D72" s="292"/>
+      <c r="D72" s="294"/>
       <c r="E72" s="148"/>
       <c r="F72" s="142"/>
       <c r="G72" s="142"/>
@@ -7356,7 +7345,7 @@
       <c r="A73" s="133"/>
       <c r="B73" s="253"/>
       <c r="C73" s="127"/>
-      <c r="D73" s="292"/>
+      <c r="D73" s="294"/>
       <c r="E73" s="150"/>
       <c r="F73" s="142"/>
       <c r="G73" s="142"/>
@@ -7387,7 +7376,7 @@
       <c r="A74" s="133"/>
       <c r="B74" s="253"/>
       <c r="C74" s="127"/>
-      <c r="D74" s="292"/>
+      <c r="D74" s="294"/>
       <c r="E74" s="148"/>
       <c r="F74" s="135"/>
       <c r="G74" s="136"/>
@@ -7418,7 +7407,7 @@
       <c r="A75" s="133"/>
       <c r="B75" s="253"/>
       <c r="C75" s="127"/>
-      <c r="D75" s="292"/>
+      <c r="D75" s="294"/>
       <c r="E75" s="152"/>
       <c r="F75" s="153"/>
       <c r="G75" s="144"/>
@@ -7449,7 +7438,7 @@
       <c r="A76" s="133"/>
       <c r="B76" s="253"/>
       <c r="C76" s="127"/>
-      <c r="D76" s="292"/>
+      <c r="D76" s="294"/>
       <c r="E76" s="148"/>
       <c r="F76" s="154"/>
       <c r="G76" s="136"/>
@@ -7480,7 +7469,7 @@
       <c r="A77" s="133"/>
       <c r="B77" s="253"/>
       <c r="C77" s="127"/>
-      <c r="D77" s="292"/>
+      <c r="D77" s="294"/>
       <c r="E77" s="152"/>
       <c r="F77" s="155"/>
       <c r="G77" s="144"/>
@@ -7542,7 +7531,7 @@
       <c r="A79" s="133"/>
       <c r="B79" s="253"/>
       <c r="C79" s="127"/>
-      <c r="D79" s="293"/>
+      <c r="D79" s="295"/>
       <c r="E79" s="157"/>
       <c r="F79" s="158"/>
       <c r="G79" s="144"/>
@@ -7573,7 +7562,7 @@
       <c r="A80" s="133"/>
       <c r="B80" s="253"/>
       <c r="C80" s="127"/>
-      <c r="D80" s="293"/>
+      <c r="D80" s="295"/>
       <c r="E80" s="152"/>
       <c r="F80" s="158"/>
       <c r="G80" s="144"/>
@@ -7604,7 +7593,7 @@
       <c r="A81" s="133"/>
       <c r="B81" s="253"/>
       <c r="C81" s="127"/>
-      <c r="D81" s="293"/>
+      <c r="D81" s="295"/>
       <c r="E81" s="159"/>
       <c r="F81" s="149"/>
       <c r="G81" s="149"/>
@@ -7635,7 +7624,7 @@
       <c r="A82" s="133"/>
       <c r="B82" s="253"/>
       <c r="C82" s="127"/>
-      <c r="D82" s="293"/>
+      <c r="D82" s="295"/>
       <c r="E82" s="159"/>
       <c r="F82" s="149"/>
       <c r="G82" s="149"/>
@@ -7666,7 +7655,7 @@
       <c r="A83" s="133"/>
       <c r="B83" s="253"/>
       <c r="C83" s="127"/>
-      <c r="D83" s="293"/>
+      <c r="D83" s="295"/>
       <c r="E83" s="159"/>
       <c r="F83" s="149"/>
       <c r="G83" s="149"/>
@@ -7697,7 +7686,7 @@
       <c r="A84" s="133"/>
       <c r="B84" s="253"/>
       <c r="C84" s="127"/>
-      <c r="D84" s="293"/>
+      <c r="D84" s="295"/>
       <c r="E84" s="159"/>
       <c r="F84" s="149"/>
       <c r="G84" s="149"/>
@@ -7728,7 +7717,7 @@
       <c r="A85" s="133"/>
       <c r="B85" s="253"/>
       <c r="C85" s="127"/>
-      <c r="D85" s="293"/>
+      <c r="D85" s="295"/>
       <c r="E85" s="159"/>
       <c r="F85" s="149"/>
       <c r="G85" s="149"/>
@@ -7759,7 +7748,7 @@
       <c r="A86" s="133"/>
       <c r="B86" s="253"/>
       <c r="C86" s="127"/>
-      <c r="D86" s="293"/>
+      <c r="D86" s="295"/>
       <c r="E86" s="159"/>
       <c r="F86" s="149"/>
       <c r="G86" s="149"/>
@@ -7790,7 +7779,7 @@
       <c r="A87" s="133"/>
       <c r="B87" s="253"/>
       <c r="C87" s="127"/>
-      <c r="D87" s="293"/>
+      <c r="D87" s="295"/>
       <c r="E87" s="159"/>
       <c r="F87" s="149"/>
       <c r="G87" s="149"/>
@@ -7914,7 +7903,7 @@
       <c r="A91" s="133"/>
       <c r="B91" s="253"/>
       <c r="C91" s="162"/>
-      <c r="D91" s="294"/>
+      <c r="D91" s="296"/>
       <c r="E91" s="164"/>
       <c r="F91" s="149"/>
       <c r="G91" s="149"/>
@@ -7945,7 +7934,7 @@
       <c r="A92" s="133"/>
       <c r="B92" s="253"/>
       <c r="C92" s="162"/>
-      <c r="D92" s="294"/>
+      <c r="D92" s="296"/>
       <c r="E92" s="164"/>
       <c r="F92" s="149"/>
       <c r="G92" s="149"/>
@@ -8937,7 +8926,7 @@
       <c r="A124" s="172"/>
       <c r="B124" s="253"/>
       <c r="C124" s="162"/>
-      <c r="D124" s="295"/>
+      <c r="D124" s="297"/>
       <c r="E124" s="159"/>
       <c r="F124" s="149"/>
       <c r="G124" s="149"/>
@@ -8946,7 +8935,7 @@
       <c r="J124" s="149"/>
       <c r="K124" s="149"/>
       <c r="L124" s="139"/>
-      <c r="M124" s="296"/>
+      <c r="M124" s="298"/>
       <c r="N124" s="140"/>
       <c r="O124" s="140"/>
       <c r="P124" s="140"/>
@@ -8968,7 +8957,7 @@
       <c r="A125" s="133"/>
       <c r="B125" s="253"/>
       <c r="C125" s="162"/>
-      <c r="D125" s="295"/>
+      <c r="D125" s="297"/>
       <c r="E125" s="159"/>
       <c r="F125" s="149"/>
       <c r="G125" s="149"/>
@@ -8977,7 +8966,7 @@
       <c r="J125" s="149"/>
       <c r="K125" s="149"/>
       <c r="L125" s="139"/>
-      <c r="M125" s="296"/>
+      <c r="M125" s="298"/>
       <c r="N125" s="140"/>
       <c r="O125" s="140"/>
       <c r="P125" s="140"/>
@@ -8999,7 +8988,7 @@
       <c r="A126" s="133"/>
       <c r="B126" s="253"/>
       <c r="C126" s="162"/>
-      <c r="D126" s="295"/>
+      <c r="D126" s="297"/>
       <c r="E126" s="176"/>
       <c r="F126" s="149"/>
       <c r="G126" s="149"/>
@@ -9008,7 +8997,7 @@
       <c r="J126" s="149"/>
       <c r="K126" s="149"/>
       <c r="L126" s="139"/>
-      <c r="M126" s="296"/>
+      <c r="M126" s="298"/>
       <c r="N126" s="140"/>
       <c r="O126" s="140"/>
       <c r="P126" s="140"/>
@@ -9030,7 +9019,7 @@
       <c r="A127" s="133"/>
       <c r="B127" s="253"/>
       <c r="C127" s="162"/>
-      <c r="D127" s="295"/>
+      <c r="D127" s="297"/>
       <c r="E127" s="177"/>
       <c r="F127" s="149"/>
       <c r="G127" s="149"/>
@@ -9039,7 +9028,7 @@
       <c r="J127" s="149"/>
       <c r="K127" s="149"/>
       <c r="L127" s="139"/>
-      <c r="M127" s="296"/>
+      <c r="M127" s="298"/>
       <c r="N127" s="140"/>
       <c r="O127" s="140"/>
       <c r="P127" s="140"/>
@@ -9061,7 +9050,7 @@
       <c r="A128" s="133"/>
       <c r="B128" s="253"/>
       <c r="C128" s="162"/>
-      <c r="D128" s="295"/>
+      <c r="D128" s="297"/>
       <c r="E128" s="177"/>
       <c r="F128" s="149"/>
       <c r="G128" s="149"/>
@@ -9070,7 +9059,7 @@
       <c r="J128" s="149"/>
       <c r="K128" s="149"/>
       <c r="L128" s="139"/>
-      <c r="M128" s="296"/>
+      <c r="M128" s="298"/>
       <c r="N128" s="140"/>
       <c r="O128" s="140"/>
       <c r="P128" s="140"/>
@@ -9092,7 +9081,7 @@
       <c r="A129" s="133"/>
       <c r="B129" s="253"/>
       <c r="C129" s="162"/>
-      <c r="D129" s="295"/>
+      <c r="D129" s="297"/>
       <c r="E129" s="177"/>
       <c r="F129" s="149"/>
       <c r="G129" s="149"/>
@@ -9101,7 +9090,7 @@
       <c r="J129" s="149"/>
       <c r="K129" s="149"/>
       <c r="L129" s="139"/>
-      <c r="M129" s="296"/>
+      <c r="M129" s="298"/>
       <c r="N129" s="140"/>
       <c r="O129" s="140"/>
       <c r="P129" s="140"/>
@@ -9123,7 +9112,7 @@
       <c r="A130" s="133"/>
       <c r="B130" s="253"/>
       <c r="C130" s="162"/>
-      <c r="D130" s="295"/>
+      <c r="D130" s="297"/>
       <c r="E130" s="177"/>
       <c r="F130" s="149"/>
       <c r="G130" s="149"/>
@@ -9132,7 +9121,7 @@
       <c r="J130" s="149"/>
       <c r="K130" s="149"/>
       <c r="L130" s="139"/>
-      <c r="M130" s="296"/>
+      <c r="M130" s="298"/>
       <c r="N130" s="140"/>
       <c r="O130" s="140"/>
       <c r="P130" s="140"/>
@@ -9154,7 +9143,7 @@
       <c r="A131" s="133"/>
       <c r="B131" s="253"/>
       <c r="C131" s="162"/>
-      <c r="D131" s="295"/>
+      <c r="D131" s="297"/>
       <c r="E131" s="159"/>
       <c r="F131" s="149"/>
       <c r="G131" s="149"/>
@@ -9163,7 +9152,7 @@
       <c r="J131" s="149"/>
       <c r="K131" s="149"/>
       <c r="L131" s="139"/>
-      <c r="M131" s="296"/>
+      <c r="M131" s="298"/>
       <c r="N131" s="140"/>
       <c r="O131" s="140"/>
       <c r="P131" s="140"/>
@@ -9185,7 +9174,7 @@
       <c r="A132" s="133"/>
       <c r="B132" s="253"/>
       <c r="C132" s="162"/>
-      <c r="D132" s="295"/>
+      <c r="D132" s="297"/>
       <c r="E132" s="159"/>
       <c r="F132" s="149"/>
       <c r="G132" s="149"/>
@@ -9216,7 +9205,7 @@
       <c r="A133" s="133"/>
       <c r="B133" s="253"/>
       <c r="C133" s="162"/>
-      <c r="D133" s="295"/>
+      <c r="D133" s="297"/>
       <c r="E133" s="159"/>
       <c r="F133" s="149"/>
       <c r="G133" s="149"/>
@@ -9247,7 +9236,7 @@
       <c r="A134" s="133"/>
       <c r="B134" s="253"/>
       <c r="C134" s="162"/>
-      <c r="D134" s="295"/>
+      <c r="D134" s="297"/>
       <c r="E134" s="159"/>
       <c r="F134" s="149"/>
       <c r="G134" s="149"/>
@@ -9311,7 +9300,7 @@
       <c r="C136" s="183" t="s">
         <v>82</v>
       </c>
-      <c r="D136" s="297"/>
+      <c r="D136" s="299"/>
       <c r="E136" s="159"/>
       <c r="F136" s="149"/>
       <c r="G136" s="171"/>
@@ -9342,7 +9331,7 @@
       <c r="A137" s="181"/>
       <c r="B137" s="180"/>
       <c r="C137" s="185"/>
-      <c r="D137" s="297"/>
+      <c r="D137" s="299"/>
       <c r="E137" s="159"/>
       <c r="F137" s="149"/>
       <c r="G137" s="171"/>
@@ -9373,7 +9362,7 @@
       <c r="A138" s="181"/>
       <c r="B138" s="180"/>
       <c r="C138" s="185"/>
-      <c r="D138" s="297"/>
+      <c r="D138" s="299"/>
       <c r="E138" s="159"/>
       <c r="F138" s="149"/>
       <c r="G138" s="171"/>
@@ -9404,7 +9393,7 @@
       <c r="A139" s="181"/>
       <c r="B139" s="180"/>
       <c r="C139" s="180"/>
-      <c r="D139" s="297"/>
+      <c r="D139" s="299"/>
       <c r="E139" s="167"/>
       <c r="F139" s="149"/>
       <c r="G139" s="171"/>
@@ -9435,7 +9424,7 @@
       <c r="A140" s="181"/>
       <c r="B140" s="184"/>
       <c r="C140" s="180"/>
-      <c r="D140" s="297"/>
+      <c r="D140" s="299"/>
       <c r="E140" s="167"/>
       <c r="F140" s="149"/>
       <c r="G140" s="171"/>
@@ -9466,7 +9455,7 @@
       <c r="A141" s="181"/>
       <c r="B141" s="184"/>
       <c r="C141" s="180"/>
-      <c r="D141" s="297"/>
+      <c r="D141" s="299"/>
       <c r="E141" s="167"/>
       <c r="F141" s="149"/>
       <c r="G141" s="171"/>
@@ -9497,7 +9486,7 @@
       <c r="A142" s="181"/>
       <c r="B142" s="184"/>
       <c r="C142" s="180"/>
-      <c r="D142" s="297"/>
+      <c r="D142" s="299"/>
       <c r="E142" s="159"/>
       <c r="F142" s="149"/>
       <c r="G142" s="171"/>
@@ -9528,7 +9517,7 @@
       <c r="A143" s="181"/>
       <c r="B143" s="184"/>
       <c r="C143" s="180"/>
-      <c r="D143" s="297"/>
+      <c r="D143" s="299"/>
       <c r="E143" s="159"/>
       <c r="F143" s="149"/>
       <c r="G143" s="171"/>
@@ -9559,7 +9548,7 @@
       <c r="A144" s="181"/>
       <c r="B144" s="184"/>
       <c r="C144" s="184"/>
-      <c r="D144" s="297"/>
+      <c r="D144" s="299"/>
       <c r="E144" s="159"/>
       <c r="F144" s="149"/>
       <c r="G144" s="171"/>
@@ -10899,8 +10888,8 @@
       <c r="H187" s="205"/>
       <c r="I187" s="205"/>
       <c r="J187" s="205"/>
-      <c r="K187" s="298"/>
-      <c r="L187" s="296"/>
+      <c r="K187" s="300"/>
+      <c r="L187" s="298"/>
       <c r="M187" s="200"/>
       <c r="N187" s="140"/>
       <c r="O187" s="140"/>
@@ -10930,8 +10919,8 @@
       <c r="H188" s="206"/>
       <c r="I188" s="206"/>
       <c r="J188" s="206"/>
-      <c r="K188" s="298"/>
-      <c r="L188" s="296"/>
+      <c r="K188" s="300"/>
+      <c r="L188" s="298"/>
       <c r="M188" s="200"/>
       <c r="N188" s="140"/>
       <c r="O188" s="140"/>
@@ -10961,8 +10950,8 @@
       <c r="H189" s="129"/>
       <c r="I189" s="129"/>
       <c r="J189" s="129"/>
-      <c r="K189" s="298"/>
-      <c r="L189" s="296"/>
+      <c r="K189" s="300"/>
+      <c r="L189" s="298"/>
       <c r="M189" s="200"/>
       <c r="N189" s="140"/>
       <c r="O189" s="140"/>
@@ -11170,9 +11159,9 @@
     <row r="196" spans="1:29" ht="15.75" customHeight="1">
       <c r="A196" s="181"/>
       <c r="B196" s="192"/>
-      <c r="C196" s="299"/>
+      <c r="C196" s="301"/>
       <c r="D196" s="180"/>
-      <c r="E196" s="300"/>
+      <c r="E196" s="302"/>
       <c r="F196" s="142"/>
       <c r="G196" s="142"/>
       <c r="H196" s="142"/>
@@ -11201,9 +11190,9 @@
     <row r="197" spans="1:29" ht="15.75" customHeight="1">
       <c r="A197" s="181"/>
       <c r="B197" s="192"/>
-      <c r="C197" s="299"/>
+      <c r="C197" s="301"/>
       <c r="D197" s="180"/>
-      <c r="E197" s="300"/>
+      <c r="E197" s="302"/>
       <c r="F197" s="142"/>
       <c r="G197" s="142"/>
       <c r="H197" s="142"/>
@@ -11232,9 +11221,9 @@
     <row r="198" spans="1:29" ht="15.75" customHeight="1">
       <c r="A198" s="181"/>
       <c r="B198" s="192"/>
-      <c r="C198" s="299"/>
+      <c r="C198" s="301"/>
       <c r="D198" s="180"/>
-      <c r="E198" s="300"/>
+      <c r="E198" s="302"/>
       <c r="F198" s="142"/>
       <c r="G198" s="142"/>
       <c r="H198" s="142"/>
@@ -11263,7 +11252,7 @@
     <row r="199" spans="1:29" ht="15.75" customHeight="1">
       <c r="A199" s="181"/>
       <c r="B199" s="192"/>
-      <c r="C199" s="299"/>
+      <c r="C199" s="301"/>
       <c r="D199" s="180"/>
       <c r="E199" s="150"/>
       <c r="F199" s="142"/>
@@ -11294,7 +11283,7 @@
     <row r="200" spans="1:29" ht="15.75" customHeight="1">
       <c r="A200" s="181"/>
       <c r="B200" s="192"/>
-      <c r="C200" s="299"/>
+      <c r="C200" s="301"/>
       <c r="D200" s="180"/>
       <c r="E200" s="150"/>
       <c r="F200" s="142"/>
@@ -11325,7 +11314,7 @@
     <row r="201" spans="1:29" ht="15.75" customHeight="1">
       <c r="A201" s="181"/>
       <c r="B201" s="192"/>
-      <c r="C201" s="299"/>
+      <c r="C201" s="301"/>
       <c r="D201" s="180"/>
       <c r="E201" s="150"/>
       <c r="F201" s="203"/>
@@ -11356,7 +11345,7 @@
     <row r="202" spans="1:29" ht="15.75" customHeight="1">
       <c r="A202" s="181"/>
       <c r="B202" s="192"/>
-      <c r="C202" s="299"/>
+      <c r="C202" s="301"/>
       <c r="D202" s="180"/>
       <c r="E202" s="150"/>
       <c r="F202" s="142"/>
@@ -11387,7 +11376,7 @@
     <row r="203" spans="1:29" ht="15.75" customHeight="1">
       <c r="A203" s="181"/>
       <c r="B203" s="192"/>
-      <c r="C203" s="301"/>
+      <c r="C203" s="303"/>
       <c r="D203" s="190"/>
       <c r="E203" s="150"/>
       <c r="F203" s="203"/>
@@ -11418,7 +11407,7 @@
     <row r="204" spans="1:29" ht="15.75" customHeight="1">
       <c r="A204" s="181"/>
       <c r="B204" s="192"/>
-      <c r="C204" s="301"/>
+      <c r="C204" s="303"/>
       <c r="D204" s="211"/>
       <c r="E204" s="150"/>
       <c r="F204" s="203"/>
@@ -11480,7 +11469,7 @@
     <row r="206" spans="1:29" ht="30" customHeight="1">
       <c r="A206" s="181"/>
       <c r="B206" s="192"/>
-      <c r="C206" s="301"/>
+      <c r="C206" s="303"/>
       <c r="D206" s="190"/>
       <c r="E206" s="150"/>
       <c r="F206" s="142"/>
@@ -11511,7 +11500,7 @@
     <row r="207" spans="1:29" ht="15.75" customHeight="1">
       <c r="A207" s="181"/>
       <c r="B207" s="192"/>
-      <c r="C207" s="301"/>
+      <c r="C207" s="303"/>
       <c r="D207" s="191"/>
       <c r="E207" s="150"/>
       <c r="F207" s="142"/>
@@ -11542,7 +11531,7 @@
     <row r="208" spans="1:29" ht="15.75" customHeight="1">
       <c r="A208" s="181"/>
       <c r="B208" s="192"/>
-      <c r="C208" s="301"/>
+      <c r="C208" s="303"/>
       <c r="D208" s="191"/>
       <c r="E208" s="150"/>
       <c r="F208" s="142"/>
@@ -11573,7 +11562,7 @@
     <row r="209" spans="1:29" ht="15.75" customHeight="1">
       <c r="A209" s="181"/>
       <c r="B209" s="192"/>
-      <c r="C209" s="301"/>
+      <c r="C209" s="303"/>
       <c r="D209" s="191"/>
       <c r="E209" s="150"/>
       <c r="F209" s="203"/>
@@ -11604,7 +11593,7 @@
     <row r="210" spans="1:29" ht="15.75" customHeight="1">
       <c r="A210" s="181"/>
       <c r="B210" s="192"/>
-      <c r="C210" s="301"/>
+      <c r="C210" s="303"/>
       <c r="D210" s="191"/>
       <c r="E210" s="213"/>
       <c r="F210" s="142"/>
@@ -11984,7 +11973,7 @@
       <c r="H222" s="203"/>
       <c r="I222" s="203"/>
       <c r="J222" s="203"/>
-      <c r="K222" s="302"/>
+      <c r="K222" s="304"/>
       <c r="L222" s="139"/>
       <c r="M222" s="169"/>
       <c r="N222" s="140"/>
@@ -12015,7 +12004,7 @@
       <c r="H223" s="203"/>
       <c r="I223" s="203"/>
       <c r="J223" s="203"/>
-      <c r="K223" s="302"/>
+      <c r="K223" s="304"/>
       <c r="L223" s="139"/>
       <c r="M223" s="169"/>
       <c r="N223" s="140"/>
@@ -12100,7 +12089,7 @@
     <row r="226" spans="1:29" ht="15.75" customHeight="1">
       <c r="A226" s="181"/>
       <c r="B226" s="192"/>
-      <c r="C226" s="301"/>
+      <c r="C226" s="303"/>
       <c r="D226" s="190"/>
       <c r="E226" s="150"/>
       <c r="F226" s="203"/>
@@ -12108,7 +12097,7 @@
       <c r="H226" s="203"/>
       <c r="I226" s="203"/>
       <c r="J226" s="203"/>
-      <c r="K226" s="298"/>
+      <c r="K226" s="300"/>
       <c r="L226" s="139"/>
       <c r="M226" s="169"/>
       <c r="N226" s="140"/>
@@ -12131,7 +12120,7 @@
     <row r="227" spans="1:29" ht="15.75" customHeight="1">
       <c r="A227" s="181"/>
       <c r="B227" s="192"/>
-      <c r="C227" s="301"/>
+      <c r="C227" s="303"/>
       <c r="D227" s="211"/>
       <c r="E227" s="150"/>
       <c r="F227" s="203"/>
@@ -12139,7 +12128,7 @@
       <c r="H227" s="203"/>
       <c r="I227" s="203"/>
       <c r="J227" s="203"/>
-      <c r="K227" s="298"/>
+      <c r="K227" s="300"/>
       <c r="L227" s="139"/>
       <c r="M227" s="169"/>
       <c r="N227" s="140"/>
@@ -12162,7 +12151,7 @@
     <row r="228" spans="1:29" ht="15.75" customHeight="1">
       <c r="A228" s="181"/>
       <c r="B228" s="192"/>
-      <c r="C228" s="299"/>
+      <c r="C228" s="301"/>
       <c r="D228" s="204"/>
       <c r="E228" s="167"/>
       <c r="F228" s="149"/>
@@ -12193,7 +12182,7 @@
     <row r="229" spans="1:29" ht="15.75" customHeight="1">
       <c r="A229" s="181"/>
       <c r="B229" s="192"/>
-      <c r="C229" s="299"/>
+      <c r="C229" s="301"/>
       <c r="D229" s="165"/>
       <c r="E229" s="167"/>
       <c r="F229" s="149"/>
@@ -12255,7 +12244,7 @@
     <row r="231" spans="1:29" ht="15.75" customHeight="1">
       <c r="A231" s="181"/>
       <c r="B231" s="192"/>
-      <c r="C231" s="301"/>
+      <c r="C231" s="303"/>
       <c r="D231" s="190"/>
       <c r="E231" s="167"/>
       <c r="F231" s="149"/>
@@ -12286,7 +12275,7 @@
     <row r="232" spans="1:29" ht="15.75" customHeight="1">
       <c r="A232" s="181"/>
       <c r="B232" s="192"/>
-      <c r="C232" s="301"/>
+      <c r="C232" s="303"/>
       <c r="D232" s="191"/>
       <c r="E232" s="167"/>
       <c r="F232" s="149"/>
@@ -12317,7 +12306,7 @@
     <row r="233" spans="1:29" ht="15.75" customHeight="1">
       <c r="A233" s="181"/>
       <c r="B233" s="192"/>
-      <c r="C233" s="301"/>
+      <c r="C233" s="303"/>
       <c r="D233" s="211"/>
       <c r="E233" s="167"/>
       <c r="F233" s="149"/>
@@ -12502,10 +12491,10 @@
     </row>
     <row r="239" spans="1:29" ht="15.75" customHeight="1">
       <c r="A239" s="187"/>
-      <c r="B239" s="303"/>
-      <c r="C239" s="299"/>
+      <c r="B239" s="305"/>
+      <c r="C239" s="301"/>
       <c r="D239" s="180"/>
-      <c r="E239" s="299"/>
+      <c r="E239" s="301"/>
       <c r="F239" s="142"/>
       <c r="G239" s="142"/>
       <c r="H239" s="142"/>
@@ -12533,10 +12522,10 @@
     </row>
     <row r="240" spans="1:29" ht="15.75" customHeight="1">
       <c r="A240" s="187"/>
-      <c r="B240" s="303"/>
-      <c r="C240" s="303"/>
+      <c r="B240" s="305"/>
+      <c r="C240" s="305"/>
       <c r="D240" s="180"/>
-      <c r="E240" s="299"/>
+      <c r="E240" s="301"/>
       <c r="F240" s="142"/>
       <c r="G240" s="142"/>
       <c r="H240" s="142"/>
@@ -12564,10 +12553,10 @@
     </row>
     <row r="241" spans="1:29" ht="15.75" customHeight="1">
       <c r="A241" s="187"/>
-      <c r="B241" s="303"/>
-      <c r="C241" s="303"/>
+      <c r="B241" s="305"/>
+      <c r="C241" s="305"/>
       <c r="D241" s="180"/>
-      <c r="E241" s="299"/>
+      <c r="E241" s="301"/>
       <c r="F241" s="142"/>
       <c r="G241" s="142"/>
       <c r="H241" s="142"/>
@@ -12595,10 +12584,10 @@
     </row>
     <row r="242" spans="1:29" ht="15.75" customHeight="1">
       <c r="A242" s="187"/>
-      <c r="B242" s="303"/>
-      <c r="C242" s="303"/>
+      <c r="B242" s="305"/>
+      <c r="C242" s="305"/>
       <c r="D242" s="180"/>
-      <c r="E242" s="299"/>
+      <c r="E242" s="301"/>
       <c r="F242" s="142"/>
       <c r="G242" s="142"/>
       <c r="H242" s="142"/>
@@ -12626,10 +12615,10 @@
     </row>
     <row r="243" spans="1:29" ht="15.75" customHeight="1">
       <c r="A243" s="187"/>
-      <c r="B243" s="303"/>
-      <c r="C243" s="303"/>
+      <c r="B243" s="305"/>
+      <c r="C243" s="305"/>
       <c r="D243" s="180"/>
-      <c r="E243" s="299"/>
+      <c r="E243" s="301"/>
       <c r="F243" s="142"/>
       <c r="G243" s="142"/>
       <c r="H243" s="142"/>
@@ -12657,10 +12646,10 @@
     </row>
     <row r="244" spans="1:29" ht="15.75" customHeight="1">
       <c r="A244" s="187"/>
-      <c r="B244" s="303"/>
-      <c r="C244" s="303"/>
+      <c r="B244" s="305"/>
+      <c r="C244" s="305"/>
       <c r="D244" s="180"/>
-      <c r="E244" s="299"/>
+      <c r="E244" s="301"/>
       <c r="F244" s="203"/>
       <c r="G244" s="203"/>
       <c r="H244" s="203"/>
@@ -12688,10 +12677,10 @@
     </row>
     <row r="245" spans="1:29" ht="15.75" customHeight="1">
       <c r="A245" s="187"/>
-      <c r="B245" s="303"/>
-      <c r="C245" s="303"/>
+      <c r="B245" s="305"/>
+      <c r="C245" s="305"/>
       <c r="D245" s="180"/>
-      <c r="E245" s="299"/>
+      <c r="E245" s="301"/>
       <c r="F245" s="142"/>
       <c r="G245" s="142"/>
       <c r="H245" s="142"/>
@@ -12719,10 +12708,10 @@
     </row>
     <row r="246" spans="1:29" ht="15.75" customHeight="1">
       <c r="A246" s="187"/>
-      <c r="B246" s="303"/>
-      <c r="C246" s="303"/>
+      <c r="B246" s="305"/>
+      <c r="C246" s="305"/>
       <c r="D246" s="180"/>
-      <c r="E246" s="299"/>
+      <c r="E246" s="301"/>
       <c r="F246" s="142"/>
       <c r="G246" s="142"/>
       <c r="H246" s="142"/>
@@ -12750,8 +12739,8 @@
     </row>
     <row r="247" spans="1:29" ht="15.75" customHeight="1">
       <c r="A247" s="187"/>
-      <c r="B247" s="303"/>
-      <c r="C247" s="303"/>
+      <c r="B247" s="305"/>
+      <c r="C247" s="305"/>
       <c r="D247" s="180"/>
       <c r="E247" s="184"/>
       <c r="F247" s="138"/>
@@ -12781,8 +12770,8 @@
     </row>
     <row r="248" spans="1:29" ht="15.75" customHeight="1">
       <c r="A248" s="187"/>
-      <c r="B248" s="303"/>
-      <c r="C248" s="303"/>
+      <c r="B248" s="305"/>
+      <c r="C248" s="305"/>
       <c r="D248" s="180"/>
       <c r="E248" s="184"/>
       <c r="F248" s="139"/>
@@ -12812,10 +12801,10 @@
     </row>
     <row r="249" spans="1:29" ht="15.75" customHeight="1">
       <c r="A249" s="187"/>
-      <c r="B249" s="303"/>
-      <c r="C249" s="303"/>
+      <c r="B249" s="305"/>
+      <c r="C249" s="305"/>
       <c r="D249" s="204"/>
-      <c r="E249" s="299"/>
+      <c r="E249" s="301"/>
       <c r="F249" s="149"/>
       <c r="G249" s="149"/>
       <c r="H249" s="149"/>
@@ -12843,10 +12832,10 @@
     </row>
     <row r="250" spans="1:29" ht="15.75" customHeight="1">
       <c r="A250" s="187"/>
-      <c r="B250" s="303"/>
-      <c r="C250" s="303"/>
+      <c r="B250" s="305"/>
+      <c r="C250" s="305"/>
       <c r="D250" s="227"/>
-      <c r="E250" s="299"/>
+      <c r="E250" s="301"/>
       <c r="F250" s="139"/>
       <c r="G250" s="139"/>
       <c r="H250" s="139"/>
@@ -12874,10 +12863,10 @@
     </row>
     <row r="251" spans="1:29" ht="15.75" customHeight="1">
       <c r="A251" s="187"/>
-      <c r="B251" s="303"/>
-      <c r="C251" s="303"/>
+      <c r="B251" s="305"/>
+      <c r="C251" s="305"/>
       <c r="D251" s="227"/>
-      <c r="E251" s="299"/>
+      <c r="E251" s="301"/>
       <c r="F251" s="139"/>
       <c r="G251" s="139"/>
       <c r="H251" s="139"/>
@@ -12905,10 +12894,10 @@
     </row>
     <row r="252" spans="1:29" ht="15.75" customHeight="1">
       <c r="A252" s="187"/>
-      <c r="B252" s="303"/>
-      <c r="C252" s="299"/>
+      <c r="B252" s="305"/>
+      <c r="C252" s="301"/>
       <c r="D252" s="165"/>
-      <c r="E252" s="299"/>
+      <c r="E252" s="301"/>
       <c r="F252" s="139"/>
       <c r="G252" s="139"/>
       <c r="H252" s="139"/>
@@ -12936,7 +12925,7 @@
     </row>
     <row r="253" spans="1:29" ht="15.75" customHeight="1">
       <c r="A253" s="187"/>
-      <c r="B253" s="303"/>
+      <c r="B253" s="305"/>
       <c r="C253" s="180"/>
       <c r="D253" s="227"/>
       <c r="E253" s="227"/>
@@ -12967,10 +12956,10 @@
     </row>
     <row r="254" spans="1:29" ht="15.75" customHeight="1">
       <c r="A254" s="187"/>
-      <c r="B254" s="303"/>
-      <c r="C254" s="299"/>
+      <c r="B254" s="305"/>
+      <c r="C254" s="301"/>
       <c r="D254" s="204"/>
-      <c r="E254" s="304"/>
+      <c r="E254" s="306"/>
       <c r="F254" s="149"/>
       <c r="G254" s="149"/>
       <c r="H254" s="149"/>
@@ -12998,10 +12987,10 @@
     </row>
     <row r="255" spans="1:29" ht="15.75" customHeight="1">
       <c r="A255" s="187"/>
-      <c r="B255" s="303"/>
-      <c r="C255" s="303"/>
+      <c r="B255" s="305"/>
+      <c r="C255" s="305"/>
       <c r="D255" s="165"/>
-      <c r="E255" s="304"/>
+      <c r="E255" s="306"/>
       <c r="F255" s="149"/>
       <c r="G255" s="149"/>
       <c r="H255" s="149"/>
@@ -13029,10 +13018,10 @@
     </row>
     <row r="256" spans="1:29" ht="15.75" customHeight="1">
       <c r="A256" s="187"/>
-      <c r="B256" s="303"/>
-      <c r="C256" s="303"/>
+      <c r="B256" s="305"/>
+      <c r="C256" s="305"/>
       <c r="D256" s="180"/>
-      <c r="E256" s="304"/>
+      <c r="E256" s="306"/>
       <c r="F256" s="149"/>
       <c r="G256" s="149"/>
       <c r="H256" s="149"/>
@@ -13060,10 +13049,10 @@
     </row>
     <row r="257" spans="1:29" ht="15.75" customHeight="1">
       <c r="A257" s="187"/>
-      <c r="B257" s="303"/>
-      <c r="C257" s="299"/>
+      <c r="B257" s="305"/>
+      <c r="C257" s="301"/>
       <c r="D257" s="180"/>
-      <c r="E257" s="304"/>
+      <c r="E257" s="306"/>
       <c r="F257" s="149"/>
       <c r="G257" s="149"/>
       <c r="H257" s="149"/>
@@ -13091,7 +13080,7 @@
     </row>
     <row r="258" spans="1:29" ht="15.75" customHeight="1">
       <c r="A258" s="187"/>
-      <c r="B258" s="303"/>
+      <c r="B258" s="305"/>
       <c r="C258" s="184"/>
       <c r="D258" s="184"/>
       <c r="E258" s="187"/>
@@ -13122,10 +13111,10 @@
     </row>
     <row r="259" spans="1:29" ht="15.75" customHeight="1">
       <c r="A259" s="187"/>
-      <c r="B259" s="303"/>
-      <c r="C259" s="299"/>
+      <c r="B259" s="305"/>
+      <c r="C259" s="301"/>
       <c r="D259" s="204"/>
-      <c r="E259" s="299"/>
+      <c r="E259" s="301"/>
       <c r="F259" s="149"/>
       <c r="G259" s="149"/>
       <c r="H259" s="149"/>
@@ -13153,10 +13142,10 @@
     </row>
     <row r="260" spans="1:29" ht="15.75" customHeight="1">
       <c r="A260" s="187"/>
-      <c r="B260" s="303"/>
-      <c r="C260" s="303"/>
+      <c r="B260" s="305"/>
+      <c r="C260" s="305"/>
       <c r="D260" s="227"/>
-      <c r="E260" s="299"/>
+      <c r="E260" s="301"/>
       <c r="F260" s="149"/>
       <c r="G260" s="149"/>
       <c r="H260" s="149"/>
@@ -13184,10 +13173,10 @@
     </row>
     <row r="261" spans="1:29" ht="15.75" customHeight="1">
       <c r="A261" s="187"/>
-      <c r="B261" s="303"/>
-      <c r="C261" s="303"/>
+      <c r="B261" s="305"/>
+      <c r="C261" s="305"/>
       <c r="D261" s="227"/>
-      <c r="E261" s="299"/>
+      <c r="E261" s="301"/>
       <c r="F261" s="149"/>
       <c r="G261" s="149"/>
       <c r="H261" s="149"/>
@@ -13215,10 +13204,10 @@
     </row>
     <row r="262" spans="1:29" ht="15.75" customHeight="1">
       <c r="A262" s="187"/>
-      <c r="B262" s="303"/>
-      <c r="C262" s="303"/>
+      <c r="B262" s="305"/>
+      <c r="C262" s="305"/>
       <c r="D262" s="227"/>
-      <c r="E262" s="299"/>
+      <c r="E262" s="301"/>
       <c r="F262" s="149"/>
       <c r="G262" s="149"/>
       <c r="H262" s="149"/>
@@ -13246,10 +13235,10 @@
     </row>
     <row r="263" spans="1:29" ht="15.75" customHeight="1">
       <c r="A263" s="187"/>
-      <c r="B263" s="303"/>
-      <c r="C263" s="303"/>
+      <c r="B263" s="305"/>
+      <c r="C263" s="305"/>
       <c r="D263" s="227"/>
-      <c r="E263" s="299"/>
+      <c r="E263" s="301"/>
       <c r="F263" s="142"/>
       <c r="G263" s="142"/>
       <c r="H263" s="142"/>
@@ -13277,10 +13266,10 @@
     </row>
     <row r="264" spans="1:29" ht="15.75" customHeight="1">
       <c r="A264" s="187"/>
-      <c r="B264" s="303"/>
-      <c r="C264" s="303"/>
+      <c r="B264" s="305"/>
+      <c r="C264" s="305"/>
       <c r="D264" s="165"/>
-      <c r="E264" s="299"/>
+      <c r="E264" s="301"/>
       <c r="F264" s="142"/>
       <c r="G264" s="142"/>
       <c r="H264" s="142"/>
@@ -13308,10 +13297,10 @@
     </row>
     <row r="265" spans="1:29" ht="15.75" customHeight="1">
       <c r="A265" s="187"/>
-      <c r="B265" s="303"/>
-      <c r="C265" s="303"/>
+      <c r="B265" s="305"/>
+      <c r="C265" s="305"/>
       <c r="D265" s="204"/>
-      <c r="E265" s="299"/>
+      <c r="E265" s="301"/>
       <c r="F265" s="149"/>
       <c r="G265" s="149"/>
       <c r="H265" s="149"/>
@@ -13339,10 +13328,10 @@
     </row>
     <row r="266" spans="1:29" ht="15.75" customHeight="1">
       <c r="A266" s="187"/>
-      <c r="B266" s="303"/>
-      <c r="C266" s="303"/>
+      <c r="B266" s="305"/>
+      <c r="C266" s="305"/>
       <c r="D266" s="227"/>
-      <c r="E266" s="299"/>
+      <c r="E266" s="301"/>
       <c r="F266" s="139"/>
       <c r="G266" s="139"/>
       <c r="H266" s="139"/>
@@ -13370,10 +13359,10 @@
     </row>
     <row r="267" spans="1:29" ht="15.75" customHeight="1">
       <c r="A267" s="187"/>
-      <c r="B267" s="303"/>
-      <c r="C267" s="303"/>
+      <c r="B267" s="305"/>
+      <c r="C267" s="305"/>
       <c r="D267" s="227"/>
-      <c r="E267" s="299"/>
+      <c r="E267" s="301"/>
       <c r="F267" s="139"/>
       <c r="G267" s="139"/>
       <c r="H267" s="139"/>
@@ -13401,10 +13390,10 @@
     </row>
     <row r="268" spans="1:29" ht="15.75" customHeight="1">
       <c r="A268" s="187"/>
-      <c r="B268" s="303"/>
-      <c r="C268" s="303"/>
+      <c r="B268" s="305"/>
+      <c r="C268" s="305"/>
       <c r="D268" s="165"/>
-      <c r="E268" s="299"/>
+      <c r="E268" s="301"/>
       <c r="F268" s="139"/>
       <c r="G268" s="139"/>
       <c r="H268" s="139"/>
@@ -15799,417 +15788,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H49"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.8"/>
-  <cols>
-    <col min="1" max="1" width="24.44140625" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="237" customWidth="1"/>
-    <col min="3" max="3" width="35.77734375" customWidth="1"/>
-    <col min="4" max="4" width="59.33203125" customWidth="1"/>
-    <col min="5" max="5" width="22.44140625" style="240" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:8" s="237" customFormat="1">
-      <c r="E1" s="240"/>
-    </row>
-    <row r="2" spans="2:8" s="237" customFormat="1">
-      <c r="E2" s="240"/>
-    </row>
-    <row r="3" spans="2:8" ht="13.5" customHeight="1">
-      <c r="B3" s="305" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="305"/>
-      <c r="D3" s="305"/>
-      <c r="E3" s="305"/>
-      <c r="F3" s="241"/>
-      <c r="G3" s="241"/>
-      <c r="H3" s="241"/>
-    </row>
-    <row r="4" spans="2:8" ht="45.75" customHeight="1">
-      <c r="B4" s="305"/>
-      <c r="C4" s="305"/>
-      <c r="D4" s="305"/>
-      <c r="E4" s="305"/>
-      <c r="F4" s="241"/>
-      <c r="G4" s="241"/>
-      <c r="H4" s="241"/>
-    </row>
-    <row r="5" spans="2:8" ht="44.25" customHeight="1">
-      <c r="B5" s="242" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="243" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="243" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="243" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" s="244" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B6" s="245">
-        <v>1</v>
-      </c>
-      <c r="C6" s="246" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="247" t="s">
-        <v>90</v>
-      </c>
-      <c r="E6" s="245" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" s="244" customFormat="1" ht="29.25" customHeight="1">
-      <c r="B7" s="245">
-        <v>2</v>
-      </c>
-      <c r="C7" s="248" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" s="249" t="s">
-        <v>92</v>
-      </c>
-      <c r="E7" s="245" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" s="250" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B8" s="245">
-        <v>3</v>
-      </c>
-      <c r="C8" s="248" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8" s="249" t="s">
-        <v>94</v>
-      </c>
-      <c r="E8" s="245" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" s="250" customFormat="1" ht="29.25" customHeight="1">
-      <c r="B9" s="245">
-        <v>4</v>
-      </c>
-      <c r="C9" s="248" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" s="249" t="s">
-        <v>96</v>
-      </c>
-      <c r="E9" s="245" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" s="250" customFormat="1" ht="28.5" customHeight="1">
-      <c r="B10" s="245">
-        <v>5</v>
-      </c>
-      <c r="C10" s="248" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="249" t="s">
-        <v>98</v>
-      </c>
-      <c r="E10" s="245" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" s="250" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B11" s="245">
-        <v>6</v>
-      </c>
-      <c r="C11" s="248" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="249" t="s">
-        <v>100</v>
-      </c>
-      <c r="E11" s="245" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" s="250" customFormat="1" ht="29.25" customHeight="1">
-      <c r="B12" s="245">
-        <v>7</v>
-      </c>
-      <c r="C12" s="248" t="s">
-        <v>101</v>
-      </c>
-      <c r="D12" s="249" t="s">
-        <v>102</v>
-      </c>
-      <c r="E12" s="245" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" s="250" customFormat="1" ht="29.25" customHeight="1">
-      <c r="B13" s="245">
-        <v>8</v>
-      </c>
-      <c r="C13" s="248" t="s">
-        <v>103</v>
-      </c>
-      <c r="D13" s="249" t="s">
-        <v>104</v>
-      </c>
-      <c r="E13" s="245" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" s="250" customFormat="1" ht="28.5" customHeight="1">
-      <c r="B14" s="245">
-        <v>9</v>
-      </c>
-      <c r="C14" s="248" t="s">
-        <v>105</v>
-      </c>
-      <c r="D14" s="249" t="s">
-        <v>106</v>
-      </c>
-      <c r="E14" s="245" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" s="250" customFormat="1" ht="28.5" customHeight="1">
-      <c r="B15" s="245">
-        <v>10</v>
-      </c>
-      <c r="C15" s="248" t="s">
-        <v>107</v>
-      </c>
-      <c r="D15" s="249" t="s">
-        <v>108</v>
-      </c>
-      <c r="E15" s="245" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" s="250" customFormat="1" ht="28.5" customHeight="1">
-      <c r="B16" s="245">
-        <v>11</v>
-      </c>
-      <c r="C16" s="248" t="s">
-        <v>109</v>
-      </c>
-      <c r="D16" s="249" t="s">
-        <v>110</v>
-      </c>
-      <c r="E16" s="245" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="251"/>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="251"/>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="251"/>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="251"/>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="251"/>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="251"/>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="251"/>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="251"/>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="251"/>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="251"/>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="251"/>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="251"/>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="251"/>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="251"/>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" s="251"/>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" s="251"/>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="251"/>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="251"/>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="251"/>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="251"/>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="251"/>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="251"/>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39" s="251"/>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" s="251"/>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" s="251"/>
-    </row>
-    <row r="42" spans="2:2">
-      <c r="B42" s="251"/>
-    </row>
-    <row r="43" spans="2:2">
-      <c r="B43" s="251"/>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44" s="251"/>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" s="251"/>
-    </row>
-    <row r="46" spans="2:2">
-      <c r="B46" s="251"/>
-    </row>
-    <row r="47" spans="2:2">
-      <c r="B47" s="251"/>
-    </row>
-    <row r="48" spans="2:2">
-      <c r="B48" s="251"/>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="251"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B3:E4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:C10"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.8"/>
-  <cols>
-    <col min="1" max="1" width="71.33203125" customWidth="1"/>
-    <col min="2" max="2" width="71.6640625" customWidth="1"/>
-    <col min="3" max="3" width="42.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:3" ht="14.4" thickBot="1"/>
-    <row r="4" spans="1:3" ht="50.4" customHeight="1" thickBot="1">
-      <c r="A4" s="258" t="s">
-        <v>142</v>
-      </c>
-      <c r="B4" s="259" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="37.799999999999997" customHeight="1">
-      <c r="A5" s="260" t="s">
-        <v>144</v>
-      </c>
-      <c r="B5" s="260" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="41.4" customHeight="1">
-      <c r="A6" s="260" t="s">
-        <v>146</v>
-      </c>
-      <c r="B6" s="260" t="s">
-        <v>147</v>
-      </c>
-      <c r="C6" s="263" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="34.200000000000003" customHeight="1">
-      <c r="A7" s="260" t="s">
-        <v>148</v>
-      </c>
-      <c r="B7" s="260" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="47.4" customHeight="1">
-      <c r="A8" s="260" t="s">
-        <v>150</v>
-      </c>
-      <c r="B8" s="260" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="53.4" customHeight="1">
-      <c r="A9" s="260" t="s">
-        <v>153</v>
-      </c>
-      <c r="B9" s="260" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="64.8" customHeight="1">
-      <c r="A10" s="260" t="s">
-        <v>168</v>
-      </c>
-      <c r="B10" s="262" t="s">
-        <v>200</v>
-      </c>
-      <c r="C10" s="257"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
@@ -16231,39 +15812,39 @@
     <row r="2" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="3" spans="1:26" ht="8.25" customHeight="1"/>
     <row r="4" spans="1:26" ht="25.5" customHeight="1">
-      <c r="B4" s="306" t="s">
+      <c r="B4" s="307" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="306"/>
-      <c r="D4" s="306"/>
-      <c r="E4" s="306"/>
-      <c r="F4" s="306"/>
-      <c r="G4" s="306"/>
+      <c r="C4" s="307"/>
+      <c r="D4" s="307"/>
+      <c r="E4" s="307"/>
+      <c r="F4" s="307"/>
+      <c r="G4" s="307"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="307" t="s">
+      <c r="C5" s="308" t="s">
         <v>169</v>
       </c>
-      <c r="D5" s="307"/>
-      <c r="E5" s="307"/>
-      <c r="F5" s="307"/>
-      <c r="G5" s="307"/>
+      <c r="D5" s="308"/>
+      <c r="E5" s="308"/>
+      <c r="F5" s="308"/>
+      <c r="G5" s="308"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="307" t="s">
+      <c r="C6" s="308" t="s">
         <v>170</v>
       </c>
-      <c r="D6" s="307"/>
-      <c r="E6" s="307"/>
-      <c r="F6" s="307"/>
-      <c r="G6" s="307"/>
+      <c r="D6" s="308"/>
+      <c r="E6" s="308"/>
+      <c r="F6" s="308"/>
+      <c r="G6" s="308"/>
       <c r="I6" s="4" t="s">
         <v>3</v>
       </c>
@@ -16279,13 +15860,13 @@
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="307" t="s">
+      <c r="C7" s="308" t="s">
         <v>171</v>
       </c>
-      <c r="D7" s="307"/>
-      <c r="E7" s="307"/>
-      <c r="F7" s="307"/>
-      <c r="G7" s="307"/>
+      <c r="D7" s="308"/>
+      <c r="E7" s="308"/>
+      <c r="F7" s="308"/>
+      <c r="G7" s="308"/>
       <c r="I7" s="7">
         <f>C15</f>
         <v>4</v>
@@ -16300,13 +15881,13 @@
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="307" t="s">
+      <c r="C8" s="308" t="s">
         <v>111</v>
       </c>
-      <c r="D8" s="307"/>
-      <c r="E8" s="307"/>
-      <c r="F8" s="307"/>
-      <c r="G8" s="307"/>
+      <c r="D8" s="308"/>
+      <c r="E8" s="308"/>
+      <c r="F8" s="308"/>
+      <c r="G8" s="308"/>
       <c r="I8" s="7">
         <f>D15</f>
         <v>9</v>
@@ -16321,13 +15902,13 @@
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="307" t="s">
+      <c r="C9" s="308" t="s">
         <v>111</v>
       </c>
-      <c r="D9" s="307"/>
-      <c r="E9" s="307"/>
-      <c r="F9" s="307"/>
-      <c r="G9" s="307"/>
+      <c r="D9" s="308"/>
+      <c r="E9" s="308"/>
+      <c r="F9" s="308"/>
+      <c r="G9" s="308"/>
       <c r="I9" s="7">
         <f>E15</f>
         <v>0</v>
@@ -16352,11 +15933,11 @@
       <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="307"/>
-      <c r="D10" s="307"/>
-      <c r="E10" s="307"/>
-      <c r="F10" s="307"/>
-      <c r="G10" s="307"/>
+      <c r="C10" s="308"/>
+      <c r="D10" s="308"/>
+      <c r="E10" s="308"/>
+      <c r="F10" s="308"/>
+      <c r="G10" s="308"/>
       <c r="I10" s="7">
         <f>F15</f>
         <v>0</v>
@@ -16376,22 +15957,22 @@
       <c r="P10" s="9"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B11" s="309" t="s">
+      <c r="B11" s="310" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="309"/>
-      <c r="D11" s="309"/>
-      <c r="E11" s="309"/>
-      <c r="F11" s="309"/>
-      <c r="G11" s="309"/>
+      <c r="C11" s="310"/>
+      <c r="D11" s="310"/>
+      <c r="E11" s="310"/>
+      <c r="F11" s="310"/>
+      <c r="G11" s="310"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B12" s="309"/>
-      <c r="C12" s="309"/>
-      <c r="D12" s="309"/>
-      <c r="E12" s="309"/>
-      <c r="F12" s="309"/>
-      <c r="G12" s="309"/>
+      <c r="B12" s="310"/>
+      <c r="C12" s="310"/>
+      <c r="D12" s="310"/>
+      <c r="E12" s="310"/>
+      <c r="F12" s="310"/>
+      <c r="G12" s="310"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1">
       <c r="B13" s="13" t="s">
@@ -16463,7 +16044,7 @@
       <c r="Y14" s="17"/>
       <c r="Z14" s="17"/>
     </row>
-    <row r="15" spans="1:26" ht="18">
+    <row r="15" spans="1:26" ht="18.600000000000001" thickBot="1">
       <c r="B15" s="25" t="s">
         <v>20</v>
       </c>
@@ -16526,21 +16107,21 @@
       <c r="R17" s="16"/>
     </row>
     <row r="18" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B18" s="310" t="s">
+      <c r="B18" s="311" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="310"/>
-      <c r="D18" s="310"/>
-      <c r="E18" s="310"/>
-      <c r="F18" s="310"/>
-      <c r="G18" s="310"/>
+      <c r="C18" s="311"/>
+      <c r="D18" s="311"/>
+      <c r="E18" s="311"/>
+      <c r="F18" s="311"/>
+      <c r="G18" s="311"/>
     </row>
     <row r="19" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B19" s="311" t="s">
+      <c r="B19" s="312" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="311"/>
-      <c r="D19" s="311"/>
+      <c r="C19" s="312"/>
+      <c r="D19" s="312"/>
       <c r="E19" s="31"/>
       <c r="F19" s="31" t="s">
         <v>23</v>
@@ -16550,11 +16131,11 @@
       </c>
     </row>
     <row r="20" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B20" s="308" t="s">
+      <c r="B20" s="309" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="308"/>
-      <c r="D20" s="308"/>
+      <c r="C20" s="309"/>
+      <c r="D20" s="309"/>
       <c r="E20" s="32"/>
       <c r="F20" s="32" t="s">
         <v>26</v>
@@ -16564,11 +16145,11 @@
       </c>
     </row>
     <row r="21" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B21" s="308" t="s">
+      <c r="B21" s="309" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="308"/>
-      <c r="D21" s="308"/>
+      <c r="C21" s="309"/>
+      <c r="D21" s="309"/>
       <c r="E21" s="32"/>
       <c r="F21" s="32" t="s">
         <v>26</v>
@@ -16794,4 +16375,412 @@
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:C10"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="71.33203125" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="42.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" ht="14.4" thickBot="1"/>
+    <row r="4" spans="1:3" ht="50.4" customHeight="1" thickBot="1">
+      <c r="A4" s="258" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="259" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="37.799999999999997" customHeight="1">
+      <c r="A5" s="260" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="260" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="41.4" customHeight="1">
+      <c r="A6" s="260" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" s="260" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" s="263" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="34.200000000000003" customHeight="1">
+      <c r="A7" s="260" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" s="260" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="47.4" customHeight="1">
+      <c r="A8" s="260" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" s="260" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="53.4" customHeight="1">
+      <c r="A9" s="260" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" s="260" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="64.8" customHeight="1">
+      <c r="A10" s="260" t="s">
+        <v>168</v>
+      </c>
+      <c r="B10" s="262" t="s">
+        <v>200</v>
+      </c>
+      <c r="C10" s="257"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B10" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H49"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="237" customWidth="1"/>
+    <col min="3" max="3" width="35.77734375" customWidth="1"/>
+    <col min="4" max="4" width="59.33203125" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" style="240" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" s="237" customFormat="1">
+      <c r="E1" s="240"/>
+    </row>
+    <row r="2" spans="2:8" s="237" customFormat="1">
+      <c r="E2" s="240"/>
+    </row>
+    <row r="3" spans="2:8" ht="13.5" customHeight="1">
+      <c r="B3" s="313" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="313"/>
+      <c r="D3" s="313"/>
+      <c r="E3" s="313"/>
+      <c r="F3" s="241"/>
+      <c r="G3" s="241"/>
+      <c r="H3" s="241"/>
+    </row>
+    <row r="4" spans="2:8" ht="45.75" customHeight="1">
+      <c r="B4" s="313"/>
+      <c r="C4" s="313"/>
+      <c r="D4" s="313"/>
+      <c r="E4" s="313"/>
+      <c r="F4" s="241"/>
+      <c r="G4" s="241"/>
+      <c r="H4" s="241"/>
+    </row>
+    <row r="5" spans="2:8" ht="44.25" customHeight="1">
+      <c r="B5" s="242" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="243" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="243" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="243" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" s="244" customFormat="1" ht="27.75" customHeight="1">
+      <c r="B6" s="245">
+        <v>1</v>
+      </c>
+      <c r="C6" s="246" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="247" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="245" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" s="244" customFormat="1" ht="29.25" customHeight="1">
+      <c r="B7" s="245">
+        <v>2</v>
+      </c>
+      <c r="C7" s="248" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="249" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="245" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" s="250" customFormat="1" ht="27.75" customHeight="1">
+      <c r="B8" s="245">
+        <v>3</v>
+      </c>
+      <c r="C8" s="248" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="249" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="245" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" s="250" customFormat="1" ht="29.25" customHeight="1">
+      <c r="B9" s="245">
+        <v>4</v>
+      </c>
+      <c r="C9" s="248" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="249" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="245" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" s="250" customFormat="1" ht="28.5" customHeight="1">
+      <c r="B10" s="245">
+        <v>5</v>
+      </c>
+      <c r="C10" s="248" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="249" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="245" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" s="250" customFormat="1" ht="27.75" customHeight="1">
+      <c r="B11" s="245">
+        <v>6</v>
+      </c>
+      <c r="C11" s="248" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="249" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="245" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" s="250" customFormat="1" ht="29.25" customHeight="1">
+      <c r="B12" s="245">
+        <v>7</v>
+      </c>
+      <c r="C12" s="248" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="249" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="245" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" s="250" customFormat="1" ht="29.25" customHeight="1">
+      <c r="B13" s="245">
+        <v>8</v>
+      </c>
+      <c r="C13" s="248" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="249" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="245" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" s="250" customFormat="1" ht="28.5" customHeight="1">
+      <c r="B14" s="245">
+        <v>9</v>
+      </c>
+      <c r="C14" s="248" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="249" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14" s="245" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" s="250" customFormat="1" ht="28.5" customHeight="1">
+      <c r="B15" s="245">
+        <v>10</v>
+      </c>
+      <c r="C15" s="248" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="249" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" s="245" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" s="250" customFormat="1" ht="28.5" customHeight="1">
+      <c r="B16" s="245">
+        <v>11</v>
+      </c>
+      <c r="C16" s="248" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="249" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" s="245" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="251"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="251"/>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="251"/>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="251"/>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="251"/>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="251"/>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="251"/>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="251"/>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="251"/>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="251"/>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="251"/>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="251"/>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="251"/>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="251"/>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="251"/>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="251"/>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="251"/>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="251"/>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="251"/>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="251"/>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="251"/>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="251"/>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="251"/>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="251"/>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="251"/>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="251"/>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="251"/>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="251"/>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="251"/>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="251"/>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="251"/>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="251"/>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="251"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:E4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
 </file>